--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C3BAC-E8CA-4231-8EA6-1EA9A68A2D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B02507E-353C-4813-83A5-41DBCDDB5223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
   <si>
     <t>SR NO</t>
   </si>
@@ -148,20 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -173,7 +167,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -323,6 +322,51 @@
       <font>
         <color rgb="FF92D050"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,7 +682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,103 +695,105 @@
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="33" max="33" width="14.77734375" customWidth="1"/>
+    <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
         <v>45901</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="6">
         <v>45902</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="6">
         <v>45903</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="6">
         <v>45904</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="6">
         <v>45905</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="6">
         <v>45906</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="6">
         <v>45907</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="6">
         <v>45908</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="6">
         <v>45909</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="6">
         <v>45910</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="6">
         <v>45911</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="6">
         <v>45912</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="6">
         <v>45913</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="6">
         <v>45914</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="6">
         <v>45915</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="6">
         <v>45916</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="6">
         <v>45917</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="6">
         <v>45918</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="6">
         <v>45919</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="6">
         <v>45920</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="6">
         <v>45921</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="6">
         <v>45922</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="6">
         <v>45923</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="6">
         <v>45924</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="6">
         <v>45925</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="6">
         <v>45926</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="6">
         <v>45927</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="6">
         <v>45928</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="6">
         <v>45929</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="6">
         <v>45930</v>
       </c>
       <c r="AG1" t="s">
@@ -758,14 +804,17 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
@@ -773,41 +822,47 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH3">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH4">
         <f t="shared" ref="AH4:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)</f>
@@ -815,18 +870,21 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -834,18 +892,21 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -853,18 +914,21 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
@@ -872,18 +936,21 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
@@ -891,18 +958,21 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -910,15 +980,18 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -929,13 +1002,16 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">
@@ -948,43 +1024,15 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AG2:AG11">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+  <conditionalFormatting sqref="C2:AG11">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG11">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AG2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:AF11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:AF11">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1002,7 +1050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,100 +1061,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
         <v>45902</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>45903</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>45904</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>45905</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>45906</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>45907</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>45908</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>45909</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>45910</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>45911</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>45912</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>45913</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>45914</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>45915</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>45916</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <v>45917</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>45918</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <v>45919</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="2">
         <v>45920</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>45921</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="2">
         <v>45922</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="2">
         <v>45923</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="2">
         <v>45924</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="2">
         <v>45925</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="2">
         <v>45926</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="2">
         <v>45927</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="2">
         <v>45928</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="2">
         <v>45929</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="2">
         <v>45930</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="2">
         <v>45931</v>
       </c>
       <c r="AG1" t="s">
@@ -1122,14 +1170,17 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>0</v>
       </c>
-      <c r="AH2" t="e">
+      <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1139,13 +1190,16 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1155,13 +1209,16 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1171,13 +1228,16 @@
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH5" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1187,13 +1247,16 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" x14ac:dyDescent="0.3">
@@ -1203,104 +1266,170 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH8" t="e">
+      <c r="AH8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH9" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH10" t="e">
+      <c r="AH10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH11" t="e">
+      <c r="AH11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AG2:AG11">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="D2:AG11">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",D2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG11">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AG2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:AF11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="C3:C7">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:AF11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B02507E-353C-4813-83A5-41DBCDDB5223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C429E534-957C-4CD1-8A64-B1731330AAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>SR NO</t>
   </si>
@@ -167,157 +167,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -680,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
@@ -1025,13 +875,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AG11">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1048,9 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,6 +1024,9 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>0</v>
@@ -1193,9 +1046,12 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)</f>
@@ -1212,13 +1068,16 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1231,9 +1090,12 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1250,13 +1112,16 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" x14ac:dyDescent="0.3">
@@ -1269,9 +1134,12 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
@@ -1288,6 +1156,9 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1297,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1307,13 +1178,16 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1326,6 +1200,9 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1345,6 +1222,9 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1355,78 +1235,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:AG11">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",D2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:AG11">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C7">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C10)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C9)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C429E534-957C-4CD1-8A64-B1731330AAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A55C9-BCC4-4170-9209-E15D2160ADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <si>
     <t>SR NO</t>
   </si>
@@ -531,8 +531,8 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,13 +666,16 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>1</v>
       </c>
       <c r="AH2">
-        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)</f>
-        <v>0.5</v>
+        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -688,13 +691,16 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH3">
-        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)</f>
-        <v>0.5</v>
+        <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -710,13 +716,16 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -732,13 +741,16 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -754,13 +766,16 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -776,13 +791,16 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -798,13 +816,16 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -820,13 +841,16 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -842,13 +866,16 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -862,6 +889,9 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">
@@ -899,8 +929,8 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)</f>
+        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1054,8 +1084,8 @@
         <v>2</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)</f>
-        <v>1</v>
+        <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1077,7 +1107,7 @@
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1099,7 +1129,7 @@
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1121,7 +1151,7 @@
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" x14ac:dyDescent="0.3">
@@ -1143,7 +1173,7 @@
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1187,7 +1217,7 @@
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A55C9-BCC4-4170-9209-E15D2160ADBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B36546-3D7A-4974-8C20-C0023E695D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
   <si>
     <t>SR NO</t>
   </si>
@@ -530,9 +530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,9 +928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ5" sqref="AJ5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,6 +938,7 @@
     <col min="2" max="2" width="40.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1057,13 +1058,16 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1079,9 +1083,12 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -1101,13 +1108,16 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1123,9 +1133,12 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1145,13 +1158,16 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" x14ac:dyDescent="0.3">
@@ -1167,13 +1183,16 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1189,6 +1208,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1211,13 +1233,16 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1233,6 +1258,9 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1253,6 +1281,9 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B36546-3D7A-4974-8C20-C0023E695D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF9D775-1AB7-497D-8BBC-D465AA4A0A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="16">
   <si>
     <t>SR NO</t>
   </si>
@@ -532,7 +532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,13 +669,16 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>33.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -694,9 +697,12 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -719,9 +725,12 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -744,9 +753,12 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -769,9 +781,12 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -794,9 +809,12 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
@@ -819,13 +837,16 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -844,9 +865,12 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -869,6 +893,9 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -892,6 +919,9 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF9D775-1AB7-497D-8BBC-D465AA4A0A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71AB63A-911E-4267-A689-C9669B0FB36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
   <si>
     <t>SR NO</t>
   </si>
@@ -959,8 +959,8 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH3" sqref="AH3"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,6 +969,7 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1091,13 +1092,16 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>1</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>33.333333333333329</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1116,9 +1120,12 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -1141,13 +1148,16 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1166,9 +1176,12 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1191,13 +1204,16 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" x14ac:dyDescent="0.3">
@@ -1216,13 +1232,16 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" x14ac:dyDescent="0.3">
@@ -1241,6 +1260,9 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1266,13 +1288,16 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1291,6 +1316,9 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1314,6 +1342,9 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71AB63A-911E-4267-A689-C9669B0FB36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C8E72-E565-44F1-B580-4CFDD52E8D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="16">
   <si>
     <t>SR NO</t>
   </si>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +112,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -148,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -163,6 +176,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H20" sqref="H20"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,9 +714,12 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -728,9 +745,12 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -756,9 +776,12 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -784,9 +807,12 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -812,13 +838,16 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -840,13 +869,16 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -868,9 +900,12 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -896,6 +931,9 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -924,6 +962,9 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -934,7 +975,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:AG11">
+  <conditionalFormatting sqref="C2:AG6 C8:AG11 C7:F7 H7:AG7">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C8E72-E565-44F1-B580-4CFDD52E8D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8E8B1-94E7-4466-BEB1-A25C9548B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
   <si>
     <t>SR NO</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>% Attendance</t>
   </si>
+  <si>
+    <t>WEEKEND HOLIDAY</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +134,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -177,11 +186,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -546,7 +611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,6 +624,7 @@
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -585,10 +651,10 @@
       <c r="G1" s="6">
         <v>45905</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>45906</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="2">
         <v>45907</v>
       </c>
       <c r="J1" s="6">
@@ -686,13 +752,23 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>2</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>50</v>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -717,9 +793,14 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -748,9 +829,14 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -779,9 +865,14 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -810,9 +901,14 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -841,13 +937,18 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -872,13 +973,18 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -903,9 +1009,14 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -934,6 +1045,11 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -965,6 +1081,11 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -975,12 +1096,26 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:AG6 C8:AG11 C7:F7 H7:AG7">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+  <mergeCells count="1">
+    <mergeCell ref="H2:I11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C7:F7 C8:G11 C2:G6 J2:AG11">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
@@ -1001,7 +1136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,6 +1146,9 @@
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1117,7 +1255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1134,6 +1272,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="AG2">
@@ -1142,10 +1287,10 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="27" x14ac:dyDescent="0.3">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1164,16 +1309,21 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1192,16 +1342,21 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="27" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1220,16 +1375,21 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1248,16 +1408,21 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="53.4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1276,16 +1441,21 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="27" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1302,6 +1472,11 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="AG8">
@@ -1332,13 +1507,18 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1360,6 +1540,11 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1388,6 +1573,11 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1398,7 +1588,10 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:AG11">
+  <mergeCells count="1">
+    <mergeCell ref="G2:H11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:F11 C2:G2 I2:AG11">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8E8B1-94E7-4466-BEB1-A25C9548B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B548A94F-9FE5-447A-A227-17B0E1CB13D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="17">
   <si>
     <t>SR NO</t>
   </si>
@@ -186,42 +186,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -609,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
@@ -755,10 +730,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="10"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -793,8 +768,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -829,8 +804,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -865,8 +840,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -901,8 +876,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -937,8 +912,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -973,8 +948,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1009,8 +984,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -1045,8 +1020,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -1081,8 +1056,8 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" t="s">
         <v>13</v>
       </c>
@@ -1099,14 +1074,14 @@
   <mergeCells count="1">
     <mergeCell ref="H2:I11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:F7 C8:G11 C2:G6 J2:AG11">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G6 J2:AG11 C7:F7 C8:G11">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1134,9 +1109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,6 +1124,7 @@
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1274,11 +1250,14 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="10"/>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
       <c r="AG2">
@@ -1287,7 +1266,7 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>16.666666666666664</v>
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1309,14 +1288,17 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -1342,18 +1324,21 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1375,14 +1360,17 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1408,18 +1396,21 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1441,18 +1432,21 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1474,9 +1468,12 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
       </c>
       <c r="AG8">
@@ -1507,18 +1504,21 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>12</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1540,9 +1540,12 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="AG10">
@@ -1573,9 +1576,12 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">
@@ -1591,7 +1597,7 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:F11 C2:G2 I2:AG11">
+  <conditionalFormatting sqref="C2:G2 C3:F11 I2:AG11">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B548A94F-9FE5-447A-A227-17B0E1CB13D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFBF4B-F60A-444B-9266-9026ED476BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="17">
   <si>
     <t>SR NO</t>
   </si>
@@ -584,9 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,6 +600,7 @@
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -737,13 +738,16 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>2</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>28.571428571428569</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -773,9 +777,12 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -809,9 +816,12 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -845,9 +855,12 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -881,9 +894,12 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -917,13 +933,16 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -953,13 +972,16 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -989,9 +1011,12 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -1025,13 +1050,16 @@
       <c r="J10" t="s">
         <v>13</v>
       </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -1059,6 +1087,9 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">
@@ -1074,25 +1105,25 @@
   <mergeCells count="1">
     <mergeCell ref="H2:I11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G6 J2:AG11 C7:F7 C8:G11">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G6 C7:F7 C8:G11 J2:AG11">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1109,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J11" sqref="J11"/>
     </sheetView>
@@ -1597,14 +1628,14 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 C3:F11 I2:AG11">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G2 I2:AG11 C3:F11">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BFBF4B-F60A-444B-9266-9026ED476BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F23341-2E08-498D-AE8B-24E4AC78C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
   <si>
     <t>SR NO</t>
   </si>
@@ -585,8 +585,8 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K11" sqref="K11"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="11" max="12" width="19.33203125" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -741,13 +741,16 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>2</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>25</v>
+        <v>22.222222222222221</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -780,9 +783,12 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -819,9 +825,12 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -858,9 +867,12 @@
       <c r="K5" t="s">
         <v>12</v>
       </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -897,9 +909,12 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -936,13 +951,16 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -975,13 +993,16 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>71.428571428571431</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -1014,9 +1035,12 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -1053,13 +1077,16 @@
       <c r="K10" t="s">
         <v>12</v>
       </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>14.285714285714285</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -1090,15 +1117,18 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
       </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1106,24 +1136,24 @@
     <mergeCell ref="H2:I11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 C7:F7 C8:G11 J2:AG11">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1142,7 +1172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1185,8 @@
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="9" width="21.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1291,13 +1322,16 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>1</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>14.285714285714285</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1327,9 +1361,12 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -1363,13 +1400,16 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1399,9 +1439,12 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1435,13 +1478,16 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1471,13 +1517,16 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1507,6 +1556,9 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1543,13 +1595,16 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1579,6 +1634,9 @@
       <c r="J10" t="s">
         <v>13</v>
       </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1613,6 +1671,9 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">
@@ -1628,14 +1689,14 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 I2:AG11 C3:F11">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G2 C3:F11 I2:AG11">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F23341-2E08-498D-AE8B-24E4AC78C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E279E0-A560-444E-932B-61C310F78BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Support Attendance" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="DSR Tracker" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="26">
   <si>
     <t>SR NO</t>
   </si>
@@ -87,13 +87,40 @@
   </si>
   <si>
     <t>WEEKEND HOLIDAY</t>
+  </si>
+  <si>
+    <t>Student Email</t>
+  </si>
+  <si>
+    <t>aakashjadhav.work@gmail.com</t>
+  </si>
+  <si>
+    <t>Not Sent</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>chaitanyakute.work@gmail.com</t>
+  </si>
+  <si>
+    <t>swapnilgaikwadwork@gmail.com</t>
+  </si>
+  <si>
+    <t>adeshdevkar.ad@gmail.com</t>
+  </si>
+  <si>
+    <t>anapsneha@gmail.com</t>
+  </si>
+  <si>
+    <t>rushikeshjadhav.work1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +149,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF8B0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF006400"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +190,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6FFE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -166,11 +226,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -186,12 +296,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N2" sqref="N2"/>
     </sheetView>
@@ -731,10 +866,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="I2" s="13"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -775,8 +910,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -817,8 +952,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -859,8 +994,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -901,8 +1036,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -943,8 +1078,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -985,8 +1120,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1027,8 +1162,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -1069,8 +1204,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -1111,8 +1246,8 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1270,7 @@
   <mergeCells count="1">
     <mergeCell ref="H2:I11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G6 C7:F7 C8:G11 J2:AG11">
+  <conditionalFormatting sqref="C2:G6 J2:AG11 C7:F7 C8:G11">
     <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
@@ -1172,7 +1307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+      <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,10 +1447,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="13"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -1353,8 +1488,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -1392,8 +1527,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -1431,8 +1566,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -1470,8 +1605,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -1509,8 +1644,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -1548,8 +1683,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -1587,8 +1722,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -1626,8 +1761,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -1665,8 +1800,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -1689,7 +1824,7 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 C3:F11 I2:AG11">
+  <conditionalFormatting sqref="C2:G2 I2:AG11 C3:F11">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
@@ -1711,12 +1846,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="9">
+        <v>45910</v>
+      </c>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E279E0-A560-444E-932B-61C310F78BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0273B-A0F8-456F-9191-D2FBE1D2FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Support Attendance" sheetId="2" r:id="rId2"/>
     <sheet name="DSR Tracker" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="26">
   <si>
     <t>SR NO</t>
   </si>
@@ -280,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -305,17 +306,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,7 +322,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +876,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="14"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -910,8 +920,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -952,8 +962,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -994,8 +1004,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -1036,8 +1046,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -1078,8 +1088,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -1120,8 +1130,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1162,8 +1172,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -1204,8 +1214,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -1246,8 +1256,8 @@
       <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
       <c r="J11" t="s">
         <v>13</v>
       </c>
@@ -1447,10 +1457,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -1488,8 +1498,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -1527,8 +1537,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -1566,8 +1576,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -1605,8 +1615,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -1644,8 +1654,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -1683,8 +1693,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -1722,8 +1732,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -1761,8 +1771,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -1800,8 +1810,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -1848,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1861,71 +1871,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1941,4 +1951,85 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6667340-24C4-4574-9E4B-2059915EAD7D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="9">
+        <v>45910</v>
+      </c>
+      <c r="D1" s="9">
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0273B-A0F8-456F-9191-D2FBE1D2FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8922B-97B0-47C4-B5FD-E8583A0EC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
   <si>
     <t>SR NO</t>
   </si>
@@ -115,13 +115,22 @@
   </si>
   <si>
     <t>rushikeshjadhav.work1@gmail.com</t>
+  </si>
+  <si>
+    <t>Ankita Fartade</t>
+  </si>
+  <si>
+    <t>NOT JOINED</t>
+  </si>
+  <si>
+    <t>Samarth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +180,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +219,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -277,11 +299,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -306,7 +339,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -328,20 +369,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -727,11 +840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N2" sqref="N2"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,6 +859,9 @@
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
     <col min="11" max="12" width="19.33203125" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -876,10 +992,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="16"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -887,6 +1003,12 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
         <v>13</v>
       </c>
       <c r="AG2">
@@ -895,7 +1017,7 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>22.222222222222221</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -920,8 +1042,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -931,13 +1053,19 @@
       <c r="L3" t="s">
         <v>12</v>
       </c>
+      <c r="M3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
+        <f t="shared" ref="AG3:AG10" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
         <v>8</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>100</v>
+        <f t="shared" ref="AH3:AH10" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -962,8 +1090,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -971,11 +1099,17 @@
         <v>12</v>
       </c>
       <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -1004,8 +1138,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -1013,11 +1147,17 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>12</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1046,8 +1186,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -1055,11 +1195,17 @@
         <v>12</v>
       </c>
       <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="24" t="s">
         <v>12</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -1088,8 +1234,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -1098,6 +1244,12 @@
       </c>
       <c r="L7" t="s">
         <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
@@ -1105,7 +1257,7 @@
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -1130,8 +1282,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1139,6 +1291,12 @@
         <v>12</v>
       </c>
       <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
         <v>13</v>
       </c>
       <c r="AG8">
@@ -1147,7 +1305,7 @@
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -1172,8 +1330,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -1181,11 +1339,17 @@
         <v>12</v>
       </c>
       <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
         <v>12</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -1194,10 +1358,10 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1214,8 +1378,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -1223,87 +1387,172 @@
         <v>12</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="22">
         <v>11</v>
       </c>
+      <c r="B11" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>12</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:I11"/>
+    <mergeCell ref="H2:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G6 J2:AG11 C7:F7 C8:G11">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G6 C7:F7 C11:L11 C8:G10 J2:L10 O3:AG6 M2:AG2 M7:AG10">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L12">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:N12">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",M12)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PRESENT",M12)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="M11:N11">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ABSENT",M11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PRESENT",M11)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG11" xr:uid="{36BBBD28-7967-4193-A92E-3059AA51DEF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG10" xr:uid="{36BBBD28-7967-4193-A92E-3059AA51DEF6}">
       <formula1>"PRESENT , ABSENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1317,7 +1566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,6 +1581,8 @@
     <col min="9" max="9" width="21.77734375" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="16.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1457,10 +1708,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="16"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -1498,8 +1749,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -1537,8 +1788,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -1576,8 +1827,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -1615,8 +1866,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -1654,8 +1905,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -1693,8 +1944,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -1732,8 +1983,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -1771,8 +2022,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -1810,8 +2061,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -1858,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,71 +2122,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="25">
+        <v>45911</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1950,6 +2216,7 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1957,9 +2224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6667340-24C4-4574-9E4B-2059915EAD7D}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K14" sqref="K14"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,10 +2237,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -1982,10 +2249,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
@@ -1994,10 +2261,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
@@ -2006,10 +2273,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
@@ -2018,10 +2285,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8922B-97B0-47C4-B5FD-E8583A0EC8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850B0AC-D9B0-40BB-9133-8A25271416E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="30">
   <si>
     <t>SR NO</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Samarth</t>
+  </si>
+  <si>
+    <t>Ankita</t>
   </si>
 </sst>
 </file>
@@ -348,6 +351,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,12 +378,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,10 +995,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -1042,8 +1045,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -1090,8 +1093,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -1101,10 +1104,10 @@
       <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="24" t="s">
+      <c r="M4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG4">
@@ -1138,8 +1141,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -1149,10 +1152,10 @@
       <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG5">
@@ -1186,8 +1189,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -1197,10 +1200,10 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG6">
@@ -1234,8 +1237,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -1282,8 +1285,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1330,8 +1333,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -1378,8 +1381,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -1405,10 +1408,10 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="15">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
@@ -1449,10 +1452,10 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>12</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="15">
+        <v>12</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
@@ -1496,14 +1499,14 @@
   <mergeCells count="1">
     <mergeCell ref="H2:I10"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G6 C7:F7 C11:L11 C8:G10 J2:L10 O3:AG6 M2:AG2 M7:AG10">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+  <conditionalFormatting sqref="C11:N12">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1518,36 +1521,14 @@
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:L12">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C12)))</formula>
+  <conditionalFormatting sqref="M2:AG2 C2:G6 J2:L10 O3:AG6 C7:F7 M7:AG10 C8:G10">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C12)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N12">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",M12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",M12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:N11">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",M11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",M11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1562,11 +1543,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,6 +1564,9 @@
     <col min="11" max="11" width="16.5546875" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" customWidth="1"/>
     <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1708,10 +1692,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="20"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -1719,6 +1703,19 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" t="s">
         <v>13</v>
       </c>
       <c r="AG2">
@@ -1727,7 +1724,7 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>12.5</v>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1749,8 +1746,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -1760,12 +1757,23 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG11" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>7</v>
+        <f t="shared" ref="AG3:AG12" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
+        <v>10</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH11" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+        <f t="shared" ref="AH3:AH12" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1788,8 +1796,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -1798,14 +1806,25 @@
       </c>
       <c r="K4" t="s">
         <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" t="s">
+        <v>13</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1827,8 +1846,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -1836,11 +1855,22 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" t="s">
         <v>12</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1866,8 +1896,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -1875,15 +1905,26 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" t="s">
         <v>12</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,8 +1946,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -1914,15 +1955,26 @@
         <v>12</v>
       </c>
       <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" t="s">
         <v>12</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1944,8 +1996,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -1953,6 +2005,17 @@
         <v>13</v>
       </c>
       <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" t="s">
         <v>13</v>
       </c>
       <c r="AG8">
@@ -1983,8 +2046,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -1992,15 +2055,26 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" t="s">
         <v>12</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -2022,8 +2096,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -2031,6 +2105,17 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" t="s">
         <v>13</v>
       </c>
       <c r="AG10">
@@ -2061,8 +2146,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -2070,34 +2155,93 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" t="s">
         <v>13</v>
       </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G2:H11"/>
+    <mergeCell ref="N2:O11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 I2:AG11 C3:F11">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G2 C3:F11 P2:AG11 N2 I2:M11 AG12">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:M12">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG11" xr:uid="{E0073671-764F-4B23-98B7-E792B43ECA66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG12" xr:uid="{E0073671-764F-4B23-98B7-E792B43ECA66}">
       <formula1>"PRESENT , ABSENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2107,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,90 +2262,113 @@
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="18">
         <v>45911</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="E1" s="18">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850B0AC-D9B0-40BB-9133-8A25271416E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161555B-D08A-4753-AE23-404BAFEDBA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="30">
   <si>
     <t>SR NO</t>
   </si>
@@ -120,13 +120,13 @@
     <t>Ankita Fartade</t>
   </si>
   <si>
-    <t>NOT JOINED</t>
-  </si>
-  <si>
     <t>Samarth</t>
   </si>
   <si>
     <t>Ankita</t>
+  </si>
+  <si>
+    <t>Pooja Patil</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -378,11 +378,115 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -843,11 +947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,6 +969,8 @@
     <col min="13" max="13" width="31.33203125" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -998,7 +1104,7 @@
       <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="19"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -1014,13 +1120,17 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
+      <c r="O2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="19"/>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>2</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>18.181818181818183</v>
+        <v>16.666666666666664</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -1045,8 +1155,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -1062,13 +1172,18 @@
       <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG10" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>8</v>
+        <f t="shared" ref="AG3:AG13" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
+        <v>9</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH10" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>80</v>
+        <f t="shared" ref="AH3:AH13" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+        <v>81.818181818181827</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -1093,8 +1208,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -1108,11 +1223,16 @@
         <v>12</v>
       </c>
       <c r="N4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -1141,8 +1261,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -1156,11 +1276,16 @@
         <v>12</v>
       </c>
       <c r="N5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1189,8 +1314,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -1204,11 +1329,16 @@
         <v>12</v>
       </c>
       <c r="N6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -1237,8 +1367,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -1253,14 +1383,19 @@
       </c>
       <c r="N7" t="s">
         <v>13</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>72.727272727272734</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -1285,8 +1420,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1301,14 +1436,19 @@
       </c>
       <c r="N8" t="s">
         <v>13</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>54.54545454545454</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -1333,8 +1473,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -1348,11 +1488,16 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -1381,8 +1526,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -1396,15 +1541,20 @@
         <v>12</v>
       </c>
       <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>45.454545454545453</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -1414,41 +1564,26 @@
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -1456,84 +1591,143 @@
         <v>12</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
       </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>13</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I10"/>
+  <mergeCells count="2">
+    <mergeCell ref="O2:P13"/>
+    <mergeCell ref="H2:I13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C11:N12">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C11:G12 J11:N12">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:AG2 C2:G6 J2:L10 O3:AG6 C7:F7 M7:AG10 C8:G10">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="M2:N2 C2:G6 J2:L10 C7:F7 C8:G10 M7:N10 R3:AG10 Q2:AG2 AG11:AG13">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:G13 J13:L13">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:N13">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",M13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",M13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",O2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",O2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG10" xr:uid="{36BBBD28-7967-4193-A92E-3059AA51DEF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG13" xr:uid="{36BBBD28-7967-4193-A92E-3059AA51DEF6}">
       <formula1>"PRESENT , ABSENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2182,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -2207,36 +2401,36 @@
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="N2:O11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 C3:F11 P2:AG11 N2 I2:M11 AG12">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G2 N2 I2:M11 P2:AG11 C3:F11 AG12">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:M12">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2253,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161555B-D08A-4753-AE23-404BAFEDBA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C6F8F-9A7D-4FB4-95B5-7713D8B0830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="33">
   <si>
     <t>SR NO</t>
   </si>
@@ -127,13 +127,22 @@
   </si>
   <si>
     <t>Pooja Patil</t>
+  </si>
+  <si>
+    <t>indrayanisuryawanshi.work@gmail.com</t>
+  </si>
+  <si>
+    <t>ankitafartade.work@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +195,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,10 +331,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -378,15 +396,194 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -949,9 +1146,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11:G13"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,6 +1168,7 @@
     <col min="15" max="15" width="12.44140625" customWidth="1"/>
     <col min="16" max="16" width="15.109375" customWidth="1"/>
     <col min="17" max="17" width="17.109375" customWidth="1"/>
+    <col min="18" max="18" width="30.109375" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -1124,13 +1322,19 @@
         <v>16</v>
       </c>
       <c r="P2" s="19"/>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>2</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>16.666666666666664</v>
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -1177,13 +1381,16 @@
       <c r="Q3" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R3" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG13" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH13" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>81.818181818181827</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -1230,9 +1437,12 @@
       <c r="Q4" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R4" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -1283,9 +1493,12 @@
       <c r="Q5" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R5" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1336,9 +1549,12 @@
       <c r="Q6" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R6" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -1389,13 +1605,16 @@
       <c r="Q7" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R7" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>72.727272727272734</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -1442,13 +1661,16 @@
       <c r="Q8" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R8" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>54.54545454545454</v>
+        <v>58.333333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -1495,9 +1717,12 @@
       <c r="Q9" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R9" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -1548,13 +1773,16 @@
       <c r="Q10" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R10" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>45.454545454545453</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -1577,9 +1805,12 @@
       <c r="Q11" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R11" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
@@ -1606,20 +1837,23 @@
       <c r="Q12" t="s">
         <v>13</v>
       </c>
+      <c r="R12" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
-        <v>13</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="15">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="19"/>
@@ -1635,9 +1869,12 @@
       <c r="Q13" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="R13" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="AG13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH13">
         <f t="shared" si="1"/>
@@ -1649,78 +1886,78 @@
     <mergeCell ref="O2:P13"/>
     <mergeCell ref="H2:I13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C11:G12 J11:N12">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+  <conditionalFormatting sqref="C8:G13">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2 C2:G6 J2:L10 C7:F7 C8:G10 M7:N10 R3:AG10 Q2:AG2 AG11:AG13">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+  <conditionalFormatting sqref="J11:N13">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:O2">
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:G13 J13:L13">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+  <conditionalFormatting sqref="C2:G6 J2:L10 C7:F7 M7:N10 AG11:AG13 S2:AG10">
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:N13">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",M13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",M13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="Q2:R2">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",O2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",O2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
@@ -1737,11 +1974,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH2" sqref="AH2"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P14" sqref="P14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,6 +1998,7 @@
     <col min="14" max="14" width="19.88671875" customWidth="1"/>
     <col min="15" max="15" width="20.6640625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1912,13 +2150,16 @@
       <c r="P2" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>1</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>8.3333333333333321</v>
+        <v>7.6923076923076925</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1962,9 +2203,12 @@
       <c r="P3" t="s">
         <v>12</v>
       </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG12" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH12" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -2012,13 +2256,16 @@
       <c r="P4" t="s">
         <v>13</v>
       </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81.818181818181827</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2062,9 +2309,12 @@
       <c r="P5" t="s">
         <v>12</v>
       </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -2112,13 +2362,16 @@
       <c r="P6" t="s">
         <v>12</v>
       </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>90.909090909090907</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2162,13 +2415,16 @@
       <c r="P7" t="s">
         <v>12</v>
       </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>90.909090909090907</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2212,6 +2468,9 @@
       <c r="P8" t="s">
         <v>13</v>
       </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2262,13 +2521,16 @@
       <c r="P9" t="s">
         <v>12</v>
       </c>
+      <c r="Q9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>90.909090909090907</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -2312,6 +2574,9 @@
       <c r="P10" t="s">
         <v>13</v>
       </c>
+      <c r="Q10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2362,13 +2627,16 @@
       <c r="P11" t="s">
         <v>13</v>
       </c>
+      <c r="Q11" t="s">
+        <v>13</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -2387,13 +2655,50 @@
       <c r="P12" t="s">
         <v>12</v>
       </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2401,36 +2706,102 @@
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="N2:O11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 N2 I2:M11 P2:AG11 C3:F11 AG12">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G2 N2 I2:M11 C3:F11 AG12 P2:AG11">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M12">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="P12:Q12">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:F13">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:M13">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",L13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:M14">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",L14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:Q13">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",P13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",P13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14:Q14">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",P14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",P14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2445,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,9 +2829,12 @@
     <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>17</v>
       </c>
@@ -2474,8 +2848,17 @@
       <c r="E1" s="18">
         <v>45912</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="26">
+        <v>45913</v>
+      </c>
+      <c r="H1" s="26">
+        <v>45914</v>
+      </c>
+      <c r="I1" s="26">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>18</v>
       </c>
@@ -2489,8 +2872,15 @@
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>21</v>
       </c>
@@ -2504,8 +2894,13 @@
       <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
@@ -2520,8 +2915,13 @@
         <v>20</v>
       </c>
       <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
@@ -2535,8 +2935,13 @@
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
@@ -2550,8 +2955,13 @@
       <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>25</v>
       </c>
@@ -2565,9 +2975,65 @@
       <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="G2:H11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:B1"/>
@@ -2576,8 +3042,23 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{A1493653-08FB-42D5-8819-059233FC147E}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{DBA9D027-5522-4753-ABAE-14AE233AE492}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C6F8F-9A7D-4FB4-95B5-7713D8B0830F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC6DDB-9DD8-4218-8955-7646928401EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="34">
   <si>
     <t>SR NO</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Pooja</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
   </si>
 </sst>
 </file>
@@ -375,19 +378,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,11 +391,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,82 +411,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -1147,8 +1075,8 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,6 +1097,11 @@
     <col min="16" max="16" width="15.109375" customWidth="1"/>
     <col min="17" max="17" width="17.109375" customWidth="1"/>
     <col min="18" max="18" width="30.109375" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15.88671875" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -1299,10 +1232,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -1318,15 +1251,21 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="19"/>
+      <c r="P2" s="20"/>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
         <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
@@ -1334,7 +1273,7 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>14.285714285714285</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -1359,8 +1298,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -1376,21 +1315,25 @@
       <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R3" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="21"/>
       <c r="AG3">
         <f t="shared" ref="AG3:AG13" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH13" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>83.333333333333343</v>
+        <v>84.615384615384613</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -1415,8 +1358,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -1432,17 +1375,21 @@
       <c r="N4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R4" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="21"/>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -1471,8 +1418,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -1488,17 +1435,21 @@
       <c r="N5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="21"/>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -1527,8 +1478,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -1544,17 +1495,21 @@
       <c r="N6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R6" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="21"/>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
@@ -1583,8 +1538,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -1600,21 +1555,25 @@
       <c r="N7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R7" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="21"/>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76.923076923076934</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -1639,8 +1598,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -1656,21 +1615,25 @@
       <c r="N8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R8" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="21"/>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>58.333333333333336</v>
+        <v>61.53846153846154</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -1695,8 +1658,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -1712,17 +1675,21 @@
       <c r="N9" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R9" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="21"/>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
@@ -1751,8 +1718,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -1768,21 +1735,25 @@
       <c r="N10" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R10" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="21"/>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>53.846153846153847</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -1792,25 +1763,29 @@
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R11" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="21"/>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
@@ -1824,29 +1799,33 @@
       <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
       <c r="Q12" t="s">
         <v>13</v>
       </c>
       <c r="R12" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="21"/>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -1856,25 +1835,29 @@
       <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="M13" t="s">
         <v>12</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="R13" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="S13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="21"/>
       <c r="AG13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH13">
         <f t="shared" si="1"/>
@@ -1882,84 +1865,85 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="O2:P13"/>
     <mergeCell ref="H2:I13"/>
+    <mergeCell ref="T2:T13"/>
   </mergeCells>
+  <conditionalFormatting sqref="C2:G6 J2:L10 T2:AG2 C7:F7 M7:N10 AG11:AG13 U3:AG10">
+    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:G6 J2:L10 C7:F7 M7:N10 AG11:AG13 S2:AG10">
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:R2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="Q2:S2">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1976,9 +1960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P14" sqref="P14:Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1999,6 +1983,10 @@
     <col min="15" max="15" width="20.6640625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
     <col min="17" max="17" width="22.5546875" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.88671875" customWidth="1"/>
+    <col min="21" max="21" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -2124,10 +2112,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="21"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -2143,15 +2131,21 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="21"/>
       <c r="P2" t="s">
         <v>13</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
@@ -2159,7 +2153,7 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>7.6923076923076925</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2181,8 +2175,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -2198,17 +2192,21 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
       <c r="P3" t="s">
         <v>12</v>
       </c>
       <c r="Q3" t="s">
         <v>12</v>
       </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="21"/>
       <c r="AG3">
         <f t="shared" ref="AG3:AG12" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH12" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
@@ -2234,8 +2232,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -2251,21 +2249,25 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
       <c r="P4" t="s">
         <v>13</v>
       </c>
       <c r="Q4" t="s">
         <v>12</v>
       </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="21"/>
       <c r="AG4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>81.818181818181827</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2287,8 +2289,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -2304,17 +2306,21 @@
       <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
       <c r="P5" t="s">
         <v>12</v>
       </c>
       <c r="Q5" t="s">
         <v>12</v>
       </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="21"/>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -2340,8 +2346,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -2357,21 +2363,25 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
       <c r="P6" t="s">
         <v>12</v>
       </c>
       <c r="Q6" t="s">
         <v>12</v>
       </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="21"/>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+        <v>91.666666666666657</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2393,8 +2403,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -2410,21 +2420,25 @@
       <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="P7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" t="s">
         <v>12</v>
       </c>
+      <c r="S7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="21"/>
       <c r="AG7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2446,8 +2460,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -2463,14 +2477,18 @@
       <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" t="s">
         <v>13</v>
       </c>
       <c r="Q8" t="s">
         <v>13</v>
       </c>
+      <c r="S8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="21"/>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2499,8 +2517,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -2516,21 +2534,25 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
       <c r="P9" t="s">
         <v>12</v>
       </c>
       <c r="Q9" t="s">
         <v>12</v>
       </c>
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="21"/>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+        <v>91.666666666666657</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -2552,8 +2574,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -2569,14 +2591,18 @@
       <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
       <c r="P10" t="s">
         <v>13</v>
       </c>
       <c r="Q10" t="s">
         <v>13</v>
       </c>
+      <c r="S10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="21"/>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2605,8 +2631,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -2622,21 +2648,25 @@
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
       <c r="P11" t="s">
         <v>13</v>
       </c>
       <c r="Q11" t="s">
         <v>13</v>
       </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="21"/>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
-        <v>18.181818181818183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -2658,9 +2688,13 @@
       <c r="Q12" t="s">
         <v>12</v>
       </c>
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="21"/>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
@@ -2686,6 +2720,10 @@
       <c r="Q13" t="s">
         <v>12</v>
       </c>
+      <c r="S13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="21"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
@@ -2702,106 +2740,74 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="N2:O11"/>
+    <mergeCell ref="T2:T13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 N2 I2:M11 C3:F11 AG12 P2:AG11">
-    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C3:F13">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:G2 N2 I2:M11 AG12 P2:AG2 P3:S11 U3:AG11">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M12">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="L12:M14">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:Q12">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="P12:Q14">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:F13">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:M13">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",L13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",L13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:M14">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",L14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",L14)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:Q13">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",P13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",P13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="S12">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14:Q14">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",P14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",P14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="S13">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2816,10 +2822,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2832,13 +2839,16 @@
     <col min="7" max="7" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -2848,21 +2858,30 @@
       <c r="E1" s="18">
         <v>45912</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="19">
         <v>45913</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="19">
         <v>45914</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="19">
         <v>45915</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="J1" s="9">
+        <v>45916</v>
+      </c>
+      <c r="K1" s="9">
+        <v>45917</v>
+      </c>
+      <c r="L1" s="9">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
@@ -2872,19 +2891,28 @@
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="J2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
@@ -2894,17 +2922,26 @@
       <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="J3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
@@ -2915,17 +2952,26 @@
         <v>20</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="J4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2935,17 +2981,26 @@
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="J5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
@@ -2955,17 +3010,26 @@
       <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="J6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -2975,14 +3039,23 @@
       <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="J7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="27"/>
@@ -2995,14 +3068,23 @@
       <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="J8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="27"/>
@@ -3015,19 +3097,29 @@
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="J9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3043,13 +3135,13 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D35FD5-779F-44C4-ADE7-56A26F5C2F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB3F310-A05B-4437-97D6-D49B7FA40F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -391,11 +391,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,17 +403,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -421,7 +417,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="60">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -774,11 +770,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -799,6 +820,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -809,6 +845,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -819,6 +860,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
@@ -834,368 +885,38 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1509,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W13" sqref="W13"/>
     </sheetView>
@@ -2372,10 +2093,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="A14" s="15">
         <v>14</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="V14" t="s">
@@ -2389,233 +2110,112 @@
     <mergeCell ref="T2:T13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="92" priority="76" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="76" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="77" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="57" priority="77" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="89" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="86" priority="73" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="74" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="52" priority="74" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="83" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="80" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="77" priority="61" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="62" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="43" priority="63" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="63" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="74" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U13">
-    <cfRule type="containsText" dxfId="71" priority="37" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="U3:V13">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",U3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="38" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",U3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",V14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",V14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AG10">
-    <cfRule type="containsText" dxfId="68" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V9">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V10)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V11">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V12">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V13">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2633,8 +2233,8 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,7 +2260,8 @@
     <col min="20" max="20" width="20.88671875" customWidth="1"/>
     <col min="21" max="21" width="24.21875" customWidth="1"/>
     <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -3512,101 +3113,101 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 AG12">
-    <cfRule type="containsText" dxfId="65" priority="80" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="80" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="79" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="62" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="63" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="56" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="57" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
+    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="68" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="69" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="68" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="67" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="containsText" dxfId="50" priority="37" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+    <cfRule type="containsText" dxfId="13" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="39" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="38" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="cellIs" dxfId="47" priority="36" operator="equal">
+    <cfRule type="containsText" dxfId="11" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AG11">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3623,7 +3224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
@@ -3645,10 +3246,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -3844,10 +3445,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -3876,10 +3477,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
@@ -3908,10 +3509,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
@@ -3940,10 +3541,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="23"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="10" t="s">
@@ -3968,26 +3569,26 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB3F310-A05B-4437-97D6-D49B7FA40F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D9B3A2-B2C4-4B58-A64D-B7B96C8B3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="36">
   <si>
     <t>SR NO</t>
   </si>
@@ -417,506 +417,1331 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
+  <dxfs count="159">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1232,7 +2057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,7 +2082,10 @@
     <col min="20" max="20" width="17.44140625" customWidth="1"/>
     <col min="21" max="21" width="17.5546875" customWidth="1"/>
     <col min="22" max="22" width="14.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.88671875" customWidth="1"/>
+    <col min="23" max="23" width="19.21875" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" customWidth="1"/>
+    <col min="25" max="25" width="12.21875" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -1426,7 +2254,14 @@
       <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="20"/>
+      <c r="X2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="s">
         <v>13</v>
       </c>
       <c r="AG2">
@@ -1435,7 +2270,7 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>11.111111111111111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -1492,16 +2327,21 @@
       <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="s">
         <v>12</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG13" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>13</v>
+        <f>COUNTIF(C3:AF3,"PRESENT")</f>
+        <v>14</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH13" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>86.666666666666671</v>
+        <f>COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -1558,15 +2398,20 @@
       <c r="U4" t="s">
         <v>12</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="s">
         <v>12</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNTIF(C4:AF4,"PRESENT")</f>
+        <v>16</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C4:AF4,"PRESENT")/COUNTA(C4:AF4)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1624,15 +2469,20 @@
       <c r="U5" t="s">
         <v>12</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="s">
         <v>12</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNTIF(C5:AF5,"PRESENT")</f>
+        <v>16</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C5:AF5,"PRESENT")/COUNTA(C5:AF5)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1690,16 +2540,21 @@
       <c r="U6" t="s">
         <v>13</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="s">
         <v>12</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>COUNTIF(C6:AF6,"PRESENT")</f>
+        <v>15</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f>COUNTIF(C6:AF6,"PRESENT")/COUNTA(C6:AF6)*100</f>
+        <v>93.75</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -1756,16 +2611,21 @@
       <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" t="s">
         <v>12</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNTIF(C7:AF7,"PRESENT")</f>
+        <v>13</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>COUNTIF(C7:AF7,"PRESENT")/COUNTA(C7:AF7)*100</f>
+        <v>81.25</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -1822,16 +2682,21 @@
       <c r="U8" t="s">
         <v>12</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
         <v>12</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>COUNTIF(C8:AF8,"PRESENT")</f>
+        <v>11</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <f>COUNTIF(C8:AF8,"PRESENT")/COUNTA(C8:AF8)*100</f>
+        <v>68.75</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -1888,16 +2753,21 @@
       <c r="U9" t="s">
         <v>13</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="s">
         <v>12</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>COUNTIF(C9:AF9,"PRESENT")</f>
+        <v>15</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f>COUNTIF(C9:AF9,"PRESENT")/COUNTA(C9:AF9)*100</f>
+        <v>93.75</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -1954,16 +2824,21 @@
       <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="s">
         <v>12</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>COUNTIF(C10:AF10,"PRESENT")</f>
+        <v>9</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="1"/>
-        <v>53.333333333333336</v>
+        <f>COUNTIF(C10:AF10,"PRESENT")/COUNTA(C10:AF10)*100</f>
+        <v>56.25</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -1996,15 +2871,20 @@
       <c r="U11" t="s">
         <v>12</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="s">
         <v>12</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>COUNTIF(C11:AF11,"PRESENT")</f>
+        <v>8</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C11:AF11,"PRESENT")/COUNTA(C11:AF11)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2038,16 +2918,21 @@
       <c r="U12" t="s">
         <v>12</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="s">
         <v>12</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>COUNTIF(C12:AF12,"PRESENT")</f>
+        <v>7</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <f>COUNTIF(C12:AF12,"PRESENT")/COUNTA(C12:AF12)*100</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -2080,15 +2965,20 @@
       <c r="U13" t="s">
         <v>12</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" t="s">
         <v>12</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>COUNTIF(C13:AF13,"PRESENT")</f>
+        <v>8</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(C13:AF13,"PRESENT")/COUNTA(C13:AF13)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2099,123 +2989,129 @@
       <c r="B14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="O2:P13"/>
     <mergeCell ref="H2:I13"/>
     <mergeCell ref="T2:T13"/>
+    <mergeCell ref="V2:W13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G6 J2:L10 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="cellIs" dxfId="59" priority="78" operator="equal">
+  <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AG11:AG13">
+    <cfRule type="containsText" dxfId="158" priority="131" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="132" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="76" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="77" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="156" priority="112" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="155" priority="113" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="114" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="153" priority="127" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="74" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="152" priority="128" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="129" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="150" priority="109" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="149" priority="110" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="111" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="147" priority="106" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="146" priority="107" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="108" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="144" priority="115" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="63" operator="equal">
+    <cfRule type="containsText" dxfId="143" priority="116" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="117" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="62" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="141" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="140" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:V13">
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",U3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",U3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+  <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AG11:AG13">
+    <cfRule type="containsText" dxfId="138" priority="130" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14:Y14">
+    <cfRule type="containsText" dxfId="137" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="56" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="57" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",V14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",V14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+  <conditionalFormatting sqref="X2:Y10 AA2:AG10">
+    <cfRule type="containsText" dxfId="134" priority="103" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="104" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="105" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:AG10">
-    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="51" operator="equal">
+  <conditionalFormatting sqref="Y2:Y13">
+    <cfRule type="containsText" dxfId="131" priority="52" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="53" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="54" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2232,9 +3128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X2" sqref="X2"/>
+      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,6 +3158,7 @@
     <col min="22" max="22" width="15.6640625" customWidth="1"/>
     <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="24" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -2432,13 +3329,16 @@
       <c r="W2" t="s">
         <v>13</v>
       </c>
+      <c r="Y2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
         <f>COUNTIF(C2:AF2,"PRESENT")</f>
         <v>1</v>
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>5.5555555555555554</v>
+        <v>5.2631578947368416</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2497,13 +3397,16 @@
       <c r="W3" t="s">
         <v>12</v>
       </c>
+      <c r="Y3" t="s">
+        <v>13</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG12" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
         <v>14</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH12" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>100</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2562,13 +3465,16 @@
       <c r="W4" t="s">
         <v>12</v>
       </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>78.571428571428569</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2627,9 +3533,12 @@
       <c r="W5" t="s">
         <v>12</v>
       </c>
+      <c r="Y5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -2692,13 +3601,16 @@
       <c r="W6" t="s">
         <v>12</v>
       </c>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2757,13 +3669,16 @@
       <c r="W7" t="s">
         <v>12</v>
       </c>
+      <c r="Y7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -2822,13 +3737,16 @@
       <c r="W8" t="s">
         <v>13</v>
       </c>
+      <c r="Y8" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>7.1428571428571423</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -2887,13 +3805,16 @@
       <c r="W9" t="s">
         <v>12</v>
       </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -2952,13 +3873,16 @@
       <c r="W10" t="s">
         <v>13</v>
       </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -3017,13 +3941,16 @@
       <c r="W11" t="s">
         <v>13</v>
       </c>
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
-        <v>28.571428571428569</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -3055,13 +3982,16 @@
       <c r="W12" t="s">
         <v>13</v>
       </c>
+      <c r="Y12" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -3090,8 +4020,17 @@
         <v>12</v>
       </c>
       <c r="T13" s="21"/>
+      <c r="Y13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="L14" t="s">
         <v>12</v>
       </c>
@@ -3103,6 +4042,9 @@
       </c>
       <c r="Q14" t="s">
         <v>12</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3113,101 +4055,288 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 AG12">
-    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="80" priority="130" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="80" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="79" priority="131" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="132" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="77" priority="112" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="62" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="76" priority="113" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="114" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="74" priority="106" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="73" priority="107" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="71" priority="118" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="68" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="70" priority="119" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="120" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="68" priority="94" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="44" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="67" priority="95" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="96" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="containsText" dxfId="14" priority="37" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="65" priority="88" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="38" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="90" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="containsText" dxfId="11" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="62" priority="85" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="61" priority="86" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="87" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:AG11">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="W2:X11 Z2:AG11">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y10">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y5">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3224,7 +4353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D9B3A2-B2C4-4B58-A64D-B7B96C8B3AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0800F35-7E87-495D-A3DA-B152CCA0551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="37">
   <si>
     <t>SR NO</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Neha Chaudhari</t>
+  </si>
+  <si>
+    <t>poojapatil.8work@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -339,12 +342,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -391,11 +403,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,13 +415,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,607 +435,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="159">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -2055,9 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,7 +1503,7 @@
     <col min="23" max="23" width="19.21875" customWidth="1"/>
     <col min="24" max="24" width="12.5546875" customWidth="1"/>
     <col min="25" max="25" width="12.21875" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.6640625" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -2264,13 +1682,16 @@
       <c r="Y2" t="s">
         <v>13</v>
       </c>
+      <c r="Z2" t="s">
+        <v>12</v>
+      </c>
       <c r="AG2">
-        <f>COUNTIF(C2:AF2,"PRESENT")</f>
-        <v>2</v>
+        <f t="shared" ref="AG2:AG13" si="0">COUNTIF(C2:AF2,"PRESENT")</f>
+        <v>3</v>
       </c>
       <c r="AH2">
-        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>10</v>
+        <f t="shared" ref="AH2:AH13" si="1">COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -2335,13 +1756,16 @@
       <c r="Y3" t="s">
         <v>12</v>
       </c>
+      <c r="Z3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
-        <f>COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="AH3">
-        <f>COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>87.5</v>
+        <f t="shared" si="1"/>
+        <v>88.235294117647058</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -2406,12 +1830,15 @@
       <c r="Y4" t="s">
         <v>12</v>
       </c>
+      <c r="Z4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
-        <f>COUNTIF(C4:AF4,"PRESENT")</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="AH4">
-        <f>COUNTIF(C4:AF4,"PRESENT")/COUNTA(C4:AF4)*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2477,12 +1904,15 @@
       <c r="Y5" t="s">
         <v>12</v>
       </c>
+      <c r="Z5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
-        <f>COUNTIF(C5:AF5,"PRESENT")</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="AH5">
-        <f>COUNTIF(C5:AF5,"PRESENT")/COUNTA(C5:AF5)*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2548,13 +1978,16 @@
       <c r="Y6" t="s">
         <v>12</v>
       </c>
+      <c r="Z6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
-        <f>COUNTIF(C6:AF6,"PRESENT")</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="AH6">
-        <f>COUNTIF(C6:AF6,"PRESENT")/COUNTA(C6:AF6)*100</f>
-        <v>93.75</v>
+        <f t="shared" si="1"/>
+        <v>94.117647058823522</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -2619,13 +2052,16 @@
       <c r="Y7" t="s">
         <v>12</v>
       </c>
+      <c r="Z7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
-        <f>COUNTIF(C7:AF7,"PRESENT")</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="AH7">
-        <f>COUNTIF(C7:AF7,"PRESENT")/COUNTA(C7:AF7)*100</f>
-        <v>81.25</v>
+        <f t="shared" si="1"/>
+        <v>82.35294117647058</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -2690,13 +2126,16 @@
       <c r="Y8" t="s">
         <v>12</v>
       </c>
+      <c r="Z8" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
-        <f>COUNTIF(C8:AF8,"PRESENT")</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="AH8">
-        <f>COUNTIF(C8:AF8,"PRESENT")/COUNTA(C8:AF8)*100</f>
-        <v>68.75</v>
+        <f t="shared" si="1"/>
+        <v>70.588235294117652</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -2761,13 +2200,16 @@
       <c r="Y9" t="s">
         <v>12</v>
       </c>
+      <c r="Z9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
-        <f>COUNTIF(C9:AF9,"PRESENT")</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="AH9">
-        <f>COUNTIF(C9:AF9,"PRESENT")/COUNTA(C9:AF9)*100</f>
-        <v>93.75</v>
+        <f t="shared" si="1"/>
+        <v>94.117647058823522</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -2832,13 +2274,16 @@
       <c r="Y10" t="s">
         <v>12</v>
       </c>
+      <c r="Z10" t="s">
+        <v>12</v>
+      </c>
       <c r="AG10">
-        <f>COUNTIF(C10:AF10,"PRESENT")</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="AH10">
-        <f>COUNTIF(C10:AF10,"PRESENT")/COUNTA(C10:AF10)*100</f>
-        <v>56.25</v>
+        <f t="shared" si="1"/>
+        <v>58.82352941176471</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -2879,12 +2324,15 @@
       <c r="Y11" t="s">
         <v>12</v>
       </c>
+      <c r="Z11" t="s">
+        <v>12</v>
+      </c>
       <c r="AG11">
-        <f>COUNTIF(C11:AF11,"PRESENT")</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="AH11">
-        <f>COUNTIF(C11:AF11,"PRESENT")/COUNTA(C11:AF11)*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2926,13 +2374,16 @@
       <c r="Y12" t="s">
         <v>12</v>
       </c>
+      <c r="Z12" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
-        <f>COUNTIF(C12:AF12,"PRESENT")</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="AH12">
-        <f>COUNTIF(C12:AF12,"PRESENT")/COUNTA(C12:AF12)*100</f>
-        <v>87.5</v>
+        <f t="shared" si="1"/>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -2973,12 +2424,15 @@
       <c r="Y13" t="s">
         <v>12</v>
       </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
       <c r="AG13">
-        <f>COUNTIF(C13:AF13,"PRESENT")</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="AH13">
-        <f>COUNTIF(C13:AF13,"PRESENT")/COUNTA(C13:AF13)*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2993,6 +2447,9 @@
         <v>12</v>
       </c>
       <c r="Y14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3004,114 +2461,136 @@
     <mergeCell ref="V2:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="158" priority="131" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="86" priority="137" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="138" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="156" priority="112" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="84" priority="118" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="113" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="83" priority="119" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="120" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="153" priority="127" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="81" priority="133" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="128" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="80" priority="134" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="135" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="150" priority="109" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="78" priority="115" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="110" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="77" priority="116" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="117" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="147" priority="106" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="75" priority="112" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="107" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="74" priority="113" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="114" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="144" priority="115" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="72" priority="121" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="116" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="71" priority="122" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="123" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="141" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="69" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="68" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="138" priority="130" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="66" priority="136" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:Y10 AA2:AG10">
+    <cfRule type="containsText" dxfId="65" priority="109" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="110" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="111" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="containsText" dxfId="137" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AA2:AG10">
-    <cfRule type="containsText" dxfId="134" priority="103" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="104" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="131" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z14">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z14">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3128,9 +2607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y14" sqref="Y14"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3159,6 +2638,7 @@
     <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="24" width="15.33203125" customWidth="1"/>
     <col min="25" max="25" width="19.6640625" customWidth="1"/>
+    <col min="26" max="26" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -4055,288 +3535,178 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 AG12">
-    <cfRule type="containsText" dxfId="80" priority="130" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="56" priority="130" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="131" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="55" priority="131" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="132" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="containsText" dxfId="77" priority="112" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="53" priority="112" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="113" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="52" priority="113" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="114" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="containsText" dxfId="74" priority="106" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="50" priority="106" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="107" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="49" priority="107" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="108" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="containsText" dxfId="71" priority="118" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="47" priority="118" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="119" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="46" priority="119" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="120" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="containsText" dxfId="68" priority="94" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="44" priority="94" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="95" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="43" priority="95" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="96" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="containsText" dxfId="65" priority="88" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="41" priority="88" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="40" priority="89" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="90" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="containsText" dxfId="62" priority="85" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="38" priority="85" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="86" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="86" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="87" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="containsText" dxfId="59" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="35" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X11 Z2:AG11">
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="32" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y5">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="51" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6">
-    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="Y6:Y11">
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+  <conditionalFormatting sqref="Y11:Y12">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+  <conditionalFormatting sqref="Y12:Y13">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y9">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y10)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="containsText" dxfId="26" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="Y13:Y14">
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y5">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4351,11 +3721,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4372,13 +3742,19 @@
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.21875" customWidth="1"/>
     <col min="13" max="13" width="23.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -4409,8 +3785,17 @@
       <c r="M1" s="9">
         <v>45919</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="9">
+        <v>45922</v>
+      </c>
+      <c r="O1" s="9">
+        <v>45923</v>
+      </c>
+      <c r="P1" s="9">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
@@ -4443,8 +3828,14 @@
       <c r="M2" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
@@ -4475,8 +3866,14 @@
       <c r="M3" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
@@ -4508,8 +3905,14 @@
       <c r="M4" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
@@ -4540,8 +3943,14 @@
       <c r="M5" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>24</v>
       </c>
@@ -4572,12 +3981,18 @@
       <c r="M6" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="N6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -4604,12 +4019,18 @@
       <c r="M7" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="N7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
@@ -4636,12 +4057,18 @@
       <c r="M8" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="N8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
@@ -4668,12 +4095,18 @@
       <c r="M9" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="N9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="10" t="s">
@@ -4691,33 +4124,50 @@
       <c r="M10" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="30"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
+      <c r="N11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="12">
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0800F35-7E87-495D-A3DA-B152CCA0551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA80D26-E224-4DB4-AB7B-AE39F7CCD1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="37">
   <si>
     <t>SR NO</t>
   </si>
@@ -403,11 +403,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,19 +415,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,7 +435,307 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -1473,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z2" sqref="Z2:Z14"/>
     </sheetView>
@@ -2461,136 +2761,134 @@
     <mergeCell ref="V2:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="86" priority="137" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="122" priority="137" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="138" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="84" priority="118" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="120" priority="118" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="119" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="81" priority="133" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="117" priority="133" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="134" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="116" priority="134" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="135" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="78" priority="115" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="116" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="117" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="75" priority="112" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="113" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="114" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="72" priority="121" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="108" priority="121" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="122" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="107" priority="122" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="123" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="69" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="105" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="104" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="57" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="66" priority="136" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="102" priority="136" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y10 AA2:AG10">
-    <cfRule type="containsText" dxfId="65" priority="109" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="101" priority="109" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="110" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="100" priority="110" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="98" priority="61" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="97" priority="62" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="63" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="95" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="94" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="89" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2607,9 +2905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X2" sqref="X2:X14"/>
+      <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2745,7 +3043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2810,6 +3108,9 @@
         <v>13</v>
       </c>
       <c r="Y2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="s">
         <v>13</v>
       </c>
       <c r="AG2">
@@ -2818,10 +3119,10 @@
       </c>
       <c r="AH2">
         <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>5.2631578947368416</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2880,16 +3181,19 @@
       <c r="Y3" t="s">
         <v>13</v>
       </c>
+      <c r="Z3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG12" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH12" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>93.333333333333329</v>
+        <v>93.75</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2948,16 +3252,19 @@
       <c r="Y4" t="s">
         <v>12</v>
       </c>
+      <c r="Z4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>81.25</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3016,16 +3323,19 @@
       <c r="Y5" t="s">
         <v>12</v>
       </c>
+      <c r="Z5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3084,16 +3394,19 @@
       <c r="Y6" t="s">
         <v>12</v>
       </c>
+      <c r="Z6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <v>87.5</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3152,16 +3465,19 @@
       <c r="Y7" t="s">
         <v>12</v>
       </c>
+      <c r="Z7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <v>87.5</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3220,16 +3536,19 @@
       <c r="Y8" t="s">
         <v>12</v>
       </c>
+      <c r="Z8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
+        <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3288,16 +3607,19 @@
       <c r="Y9" t="s">
         <v>12</v>
       </c>
+      <c r="Z9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <v>87.5</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3354,18 +3676,21 @@
         <v>13</v>
       </c>
       <c r="Y10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>13</v>
       </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3424,16 +3749,19 @@
       <c r="Y11" t="s">
         <v>12</v>
       </c>
+      <c r="Z11" t="s">
+        <v>12</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>37.5</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3465,16 +3793,19 @@
       <c r="Y12" t="s">
         <v>12</v>
       </c>
+      <c r="Z12" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3503,8 +3834,11 @@
       <c r="Y13" t="s">
         <v>12</v>
       </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3524,6 +3858,9 @@
         <v>12</v>
       </c>
       <c r="Y14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3534,179 +3871,311 @@
     <mergeCell ref="T2:T13"/>
     <mergeCell ref="U2:V11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 N2 I2:M11 AG12">
-    <cfRule type="containsText" dxfId="56" priority="130" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G2 N2 I2:M11 AG12 Z4:Z7">
+    <cfRule type="containsText" dxfId="86" priority="172" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="131" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="85" priority="173" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="174" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="containsText" dxfId="53" priority="112" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="83" priority="154" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="113" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="82" priority="155" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="156" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="containsText" dxfId="50" priority="106" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="80" priority="148" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="107" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="79" priority="149" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="150" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="containsText" dxfId="47" priority="118" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="77" priority="160" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="119" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="76" priority="161" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="162" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="containsText" dxfId="44" priority="94" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="74" priority="136" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="95" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="73" priority="137" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="138" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="containsText" dxfId="41" priority="88" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="71" priority="130" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="89" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="70" priority="131" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="132" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="containsText" dxfId="38" priority="85" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="68" priority="127" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="86" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="67" priority="128" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="129" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="containsText" dxfId="35" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="65" priority="94" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="64" priority="95" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="96" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X11 Z2:AG11">
-    <cfRule type="containsText" dxfId="32" priority="58" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="W2:X11 AA9:AG9 AA11:AG11 AA3:AG5 Z6:AG8 Z10:AG10 Z2:AG2">
+    <cfRule type="containsText" dxfId="62" priority="100" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="61" priority="101" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y5">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="Y2:Y9">
+    <cfRule type="containsText" dxfId="56" priority="91" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="55" priority="92" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="93" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y11">
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="Y6:Y9 Y11">
+    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="52" priority="74" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="47" priority="61" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="46" priority="62" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11">
+    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3751,10 +4220,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -3989,10 +4458,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -4027,10 +4496,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
@@ -4065,10 +4534,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
@@ -4103,10 +4572,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="23"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="10" t="s">
@@ -4132,10 +4601,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="N11" s="10" t="s">
@@ -4147,6 +4616,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -4154,20 +4628,15 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA80D26-E224-4DB4-AB7B-AE39F7CCD1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E3B29C-406D-4DB9-9828-223FE5AA29FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="37">
   <si>
     <t>SR NO</t>
   </si>
@@ -435,1014 +435,1739 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="210">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1774,8 +2499,8 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z14"/>
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,6 +2529,12 @@
     <col min="24" max="24" width="12.5546875" customWidth="1"/>
     <col min="25" max="25" width="12.21875" customWidth="1"/>
     <col min="26" max="26" width="23.6640625" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" customWidth="1"/>
+    <col min="28" max="28" width="15.109375" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
     <col min="33" max="33" width="14.77734375" customWidth="1"/>
     <col min="34" max="34" width="16.5546875" customWidth="1"/>
   </cols>
@@ -1985,13 +2716,16 @@
       <c r="Z2" t="s">
         <v>12</v>
       </c>
+      <c r="AA2" t="s">
+        <v>12</v>
+      </c>
       <c r="AG2">
         <f t="shared" ref="AG2:AG13" si="0">COUNTIF(C2:AF2,"PRESENT")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH13" si="1">COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>14.285714285714285</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -2059,13 +2793,16 @@
       <c r="Z3" t="s">
         <v>12</v>
       </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH3">
         <f t="shared" si="1"/>
-        <v>88.235294117647058</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -2133,9 +2870,12 @@
       <c r="Z4" t="s">
         <v>12</v>
       </c>
+      <c r="AA4" t="s">
+        <v>12</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
@@ -2207,9 +2947,12 @@
       <c r="Z5" t="s">
         <v>12</v>
       </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -2281,13 +3024,16 @@
       <c r="Z6" t="s">
         <v>12</v>
       </c>
+      <c r="AA6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>94.117647058823522</v>
+        <v>94.444444444444443</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -2355,13 +3101,16 @@
       <c r="Z7" t="s">
         <v>12</v>
       </c>
+      <c r="AA7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>82.35294117647058</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -2429,13 +3178,16 @@
       <c r="Z8" t="s">
         <v>12</v>
       </c>
+      <c r="AA8" t="s">
+        <v>12</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>70.588235294117652</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -2503,13 +3255,16 @@
       <c r="Z9" t="s">
         <v>12</v>
       </c>
+      <c r="AA9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>94.117647058823522</v>
+        <v>94.444444444444443</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -2577,13 +3332,16 @@
       <c r="Z10" t="s">
         <v>12</v>
       </c>
+      <c r="AA10" t="s">
+        <v>12</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>58.82352941176471</v>
+        <v>61.111111111111114</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -2627,9 +3385,12 @@
       <c r="Z11" t="s">
         <v>12</v>
       </c>
+      <c r="AA11" t="s">
+        <v>12</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
@@ -2677,13 +3438,16 @@
       <c r="Z12" t="s">
         <v>12</v>
       </c>
+      <c r="AA12" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -2727,9 +3491,12 @@
       <c r="Z13" t="s">
         <v>12</v>
       </c>
+      <c r="AA13" t="s">
+        <v>12</v>
+      </c>
       <c r="AG13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13">
         <f t="shared" si="1"/>
@@ -2751,6 +3518,9 @@
       </c>
       <c r="Z14" t="s">
         <v>12</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2761,134 +3531,277 @@
     <mergeCell ref="V2:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="122" priority="137" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="209" priority="212" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="213" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="120" priority="118" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="207" priority="194" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="195" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="193" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="117" priority="133" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="204" priority="210" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="209" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="208" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="134" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="135" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="114" priority="115" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="201" priority="191" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="192" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="190" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="116" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="117" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="198" priority="189" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="188" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="187" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="114" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="108" priority="121" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="195" priority="198" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="197" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="196" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="122" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="123" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="105" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="192" priority="132" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="131" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="130" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="56" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="102" priority="136" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="189" priority="211" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AA2:AG10">
-    <cfRule type="containsText" dxfId="101" priority="109" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="X2:Y10 AB2:AG10">
+    <cfRule type="cellIs" dxfId="188" priority="186" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="185" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="184" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="110" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="containsText" dxfId="98" priority="61" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="185" priority="138" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="137" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="136" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="62" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="63" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="95" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="182" priority="133" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="181" priority="135" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="134" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="179" priority="81" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="80" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="79" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="176" priority="78" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="77" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="174" priority="76" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="6" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2">
+    <cfRule type="containsText" dxfId="173" priority="58" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="59" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA3">
+    <cfRule type="cellIs" dxfId="170" priority="63" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="62" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="61" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="cellIs" dxfId="167" priority="75" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="74" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="73" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="containsText" dxfId="164" priority="56" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="57" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA5">
+    <cfRule type="containsText" dxfId="161" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA6">
+    <cfRule type="cellIs" dxfId="158" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6:AA7">
+    <cfRule type="cellIs" dxfId="155" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7:AA8">
+    <cfRule type="containsText" dxfId="152" priority="32" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="33" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="31" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8:AA9">
+    <cfRule type="cellIs" dxfId="149" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AA10">
+    <cfRule type="cellIs" dxfId="146" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10:AA11">
+    <cfRule type="containsText" dxfId="143" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA14">
+    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AA13">
+    <cfRule type="containsText" dxfId="137" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2906,8 +3819,8 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2936,7 +3849,8 @@
     <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="24" width="15.33203125" customWidth="1"/>
     <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="26" width="24" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -3113,13 +4027,16 @@
       <c r="Z2" t="s">
         <v>13</v>
       </c>
+      <c r="AA2" t="s">
+        <v>13</v>
+      </c>
       <c r="AG2">
-        <f>COUNTIF(C2:AF2,"PRESENT")</f>
+        <f t="shared" ref="AG2:AG12" si="0">COUNTIF(C2:AF2,"PRESENT")</f>
         <v>1</v>
       </c>
       <c r="AH2">
-        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>5</v>
+        <f t="shared" ref="AH2:AH12" si="1">COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
+        <v>4.7619047619047619</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3184,13 +4101,16 @@
       <c r="Z3" t="s">
         <v>12</v>
       </c>
+      <c r="AA3" t="s">
+        <v>13</v>
+      </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG12" si="0">COUNTIF(C3:AF3,"PRESENT")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH12" si="1">COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
-        <v>93.75</v>
+        <f t="shared" si="1"/>
+        <v>88.235294117647058</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3255,13 +4175,16 @@
       <c r="Z4" t="s">
         <v>12</v>
       </c>
+      <c r="AA4" t="s">
+        <v>13</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>76.470588235294116</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3326,9 +4249,12 @@
       <c r="Z5" t="s">
         <v>12</v>
       </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -3397,13 +4323,16 @@
       <c r="Z6" t="s">
         <v>12</v>
       </c>
+      <c r="AA6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>88.235294117647058</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3468,13 +4397,16 @@
       <c r="Z7" t="s">
         <v>12</v>
       </c>
+      <c r="AA7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>88.235294117647058</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3539,13 +4471,16 @@
       <c r="Z8" t="s">
         <v>13</v>
       </c>
+      <c r="AA8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>11.76470588235294</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3610,13 +4545,16 @@
       <c r="Z9" t="s">
         <v>12</v>
       </c>
+      <c r="AA9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>88.235294117647058</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3681,6 +4619,9 @@
       <c r="Z10" t="s">
         <v>13</v>
       </c>
+      <c r="AA10" t="s">
+        <v>13</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3752,13 +4693,16 @@
       <c r="Z11" t="s">
         <v>12</v>
       </c>
+      <c r="AA11" t="s">
+        <v>12</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>41.17647058823529</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3796,13 +4740,16 @@
       <c r="Z12" t="s">
         <v>12</v>
       </c>
+      <c r="AA12" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3837,6 +4784,9 @@
       <c r="Z13" t="s">
         <v>12</v>
       </c>
+      <c r="AA13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -3861,6 +4811,9 @@
         <v>13</v>
       </c>
       <c r="Z14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3871,309 +4824,478 @@
     <mergeCell ref="T2:T13"/>
     <mergeCell ref="U2:V11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G2 N2 I2:M11 AG12 Z4:Z7">
-    <cfRule type="containsText" dxfId="86" priority="172" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="C2:G2 N2 I2:M11 Z4:Z7 AG12">
+    <cfRule type="containsText" dxfId="134" priority="296" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="297" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:M14">
+    <cfRule type="cellIs" dxfId="132" priority="279" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="278" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="277" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:Q14">
+    <cfRule type="cellIs" dxfId="129" priority="273" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="272" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="271" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:R11 C3:F13">
+    <cfRule type="cellIs" dxfId="126" priority="285" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="284" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="283" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="173" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="174" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:M14">
-    <cfRule type="containsText" dxfId="83" priority="154" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="155" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="156" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="containsText" dxfId="80" priority="148" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="149" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="150" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="containsText" dxfId="77" priority="160" operator="containsText" text="ABSENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S13 U12:U13">
+    <cfRule type="cellIs" dxfId="123" priority="261" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="260" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="259" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S11">
+    <cfRule type="cellIs" dxfId="120" priority="255" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="254" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="253" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:U2">
+    <cfRule type="cellIs" dxfId="117" priority="252" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="251" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="250" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:W13">
+    <cfRule type="cellIs" dxfId="114" priority="219" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="218" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="217" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:X11">
+    <cfRule type="containsText" dxfId="111" priority="223" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="225" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="224" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y9">
+    <cfRule type="containsText" dxfId="108" priority="214" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="216" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="215" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y10">
+    <cfRule type="cellIs" dxfId="105" priority="165" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="163" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="164" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="containsText" dxfId="102" priority="196" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="197" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="198" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y12">
+    <cfRule type="containsText" dxfId="99" priority="191" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="192" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="190" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12:Y13">
+    <cfRule type="cellIs" dxfId="96" priority="186" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="185" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="184" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:Y14">
+    <cfRule type="cellIs" dxfId="93" priority="174" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="173" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="172" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:AA14">
+    <cfRule type="containsText" dxfId="90" priority="124" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="125" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="126" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z3">
+    <cfRule type="containsText" dxfId="87" priority="143" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="144" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="142" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="cellIs" dxfId="84" priority="141" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="140" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="139" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11 AG12">
+    <cfRule type="containsText" dxfId="81" priority="295" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="161" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="162" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="containsText" dxfId="74" priority="136" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="137" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="138" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S11">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z6:Z10">
+    <cfRule type="cellIs" dxfId="80" priority="162" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="161" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="160" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
+    <cfRule type="containsText" dxfId="77" priority="157" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="159" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="158" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11 AB2:AG11">
+    <cfRule type="containsText" dxfId="74" priority="148" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z13">
+    <cfRule type="cellIs" dxfId="73" priority="132" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="131" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="71" priority="130" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="131" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="132" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U2">
-    <cfRule type="containsText" dxfId="68" priority="127" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="128" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="129" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W13">
-    <cfRule type="containsText" dxfId="65" priority="94" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="95" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="96" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X11 AA9:AG9 AA11:AG11 AA3:AG5 Z6:AG8 Z10:AG10 Z2:AG2">
-    <cfRule type="containsText" dxfId="62" priority="100" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="101" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y5">
-    <cfRule type="containsText" dxfId="59" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="containsText" dxfId="56" priority="91" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="92" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="93" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y6:Y9 Y11">
-    <cfRule type="containsText" dxfId="53" priority="73" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="74" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="69" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="containsText" dxfId="47" priority="61" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="62" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
-    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y10)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12">
+    <cfRule type="containsText" dxfId="70" priority="128" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="127" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="129" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="containsText" dxfId="67" priority="136" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="138" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="137" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AG11 Z11">
+    <cfRule type="cellIs" dxfId="64" priority="150" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="149" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z14">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
@@ -4194,7 +5316,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+      <selection pane="topRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4303,6 +5425,9 @@
       <c r="O2" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="P2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
@@ -4341,6 +5466,9 @@
       <c r="O3" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="P3" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
@@ -4380,6 +5508,9 @@
       <c r="O4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="P4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -4418,6 +5549,9 @@
       <c r="O5" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="P5" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
@@ -4456,6 +5590,9 @@
       <c r="O6" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="P6" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
@@ -4494,6 +5631,9 @@
       <c r="O7" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="P7" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
@@ -4532,6 +5672,9 @@
       <c r="O8" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="P8" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
@@ -4568,6 +5711,9 @@
         <v>20</v>
       </c>
       <c r="O9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4599,6 +5745,9 @@
       <c r="O10" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="P10" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
@@ -4612,6 +5761,9 @@
       </c>
       <c r="O11" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4630,13 +5782,13 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E3B29C-406D-4DB9-9828-223FE5AA29FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A32539C-A488-4848-9923-119B252D2FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="37">
   <si>
     <t>SR NO</t>
   </si>
@@ -403,17 +403,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,1767 +430,1661 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="210">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+  <dxfs count="198">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2500,7 +2400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
+      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,13 +2619,16 @@
       <c r="AA2" t="s">
         <v>12</v>
       </c>
+      <c r="AB2" t="s">
+        <v>12</v>
+      </c>
       <c r="AG2">
         <f t="shared" ref="AG2:AG13" si="0">COUNTIF(C2:AF2,"PRESENT")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH13" si="1">COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>18.181818181818183</v>
+        <v>21.739130434782609</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -2796,13 +2699,16 @@
       <c r="AA3" t="s">
         <v>12</v>
       </c>
+      <c r="AB3" t="s">
+        <v>12</v>
+      </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH3">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <v>89.473684210526315</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -2873,13 +2779,16 @@
       <c r="AA4" t="s">
         <v>12</v>
       </c>
+      <c r="AB4" t="s">
+        <v>13</v>
+      </c>
       <c r="AG4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -2950,9 +2859,12 @@
       <c r="AA5" t="s">
         <v>12</v>
       </c>
+      <c r="AB5" t="s">
+        <v>12</v>
+      </c>
       <c r="AG5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH5">
         <f t="shared" si="1"/>
@@ -3027,13 +2939,16 @@
       <c r="AA6" t="s">
         <v>12</v>
       </c>
+      <c r="AB6" t="s">
+        <v>12</v>
+      </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH6">
         <f t="shared" si="1"/>
-        <v>94.444444444444443</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -3104,13 +3019,16 @@
       <c r="AA7" t="s">
         <v>12</v>
       </c>
+      <c r="AB7" t="s">
+        <v>12</v>
+      </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH7">
         <f t="shared" si="1"/>
-        <v>83.333333333333343</v>
+        <v>84.210526315789465</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -3181,13 +3099,16 @@
       <c r="AA8" t="s">
         <v>12</v>
       </c>
+      <c r="AB8" t="s">
+        <v>13</v>
+      </c>
       <c r="AG8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AH8">
         <f t="shared" si="1"/>
-        <v>72.222222222222214</v>
+        <v>68.421052631578945</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -3258,13 +3179,16 @@
       <c r="AA9" t="s">
         <v>12</v>
       </c>
+      <c r="AB9" t="s">
+        <v>12</v>
+      </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH9">
         <f t="shared" si="1"/>
-        <v>94.444444444444443</v>
+        <v>94.73684210526315</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -3335,13 +3259,16 @@
       <c r="AA10" t="s">
         <v>12</v>
       </c>
+      <c r="AB10" t="s">
+        <v>12</v>
+      </c>
       <c r="AG10">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH10">
         <f t="shared" si="1"/>
-        <v>61.111111111111114</v>
+        <v>63.157894736842103</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -3388,9 +3315,12 @@
       <c r="AA11" t="s">
         <v>12</v>
       </c>
+      <c r="AB11" t="s">
+        <v>12</v>
+      </c>
       <c r="AG11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11">
         <f t="shared" si="1"/>
@@ -3441,13 +3371,16 @@
       <c r="AA12" t="s">
         <v>12</v>
       </c>
+      <c r="AB12" t="s">
+        <v>12</v>
+      </c>
       <c r="AG12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH12">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>90.909090909090907</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -3494,9 +3427,12 @@
       <c r="AA13" t="s">
         <v>12</v>
       </c>
+      <c r="AB13" t="s">
+        <v>12</v>
+      </c>
       <c r="AG13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH13">
         <f t="shared" si="1"/>
@@ -3521,6 +3457,9 @@
       </c>
       <c r="AA14" t="s">
         <v>13</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3531,277 +3470,354 @@
     <mergeCell ref="V2:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="209" priority="212" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="197" priority="240" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="239" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="213" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="207" priority="194" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="195" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="195" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="193" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="194" priority="220" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="222" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="204" priority="210" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="209" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="192" priority="237" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="236" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="208" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="190" priority="235" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="201" priority="191" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="189" priority="219" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="218" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="192" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="190" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="187" priority="217" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="cellIs" dxfId="198" priority="189" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="188" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="186" priority="215" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="187" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="185" priority="216" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="214" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="195" priority="198" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="197" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="183" priority="224" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="196" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="182" priority="223" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="225" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="cellIs" dxfId="192" priority="132" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="131" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="180" priority="158" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="130" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="179" priority="157" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="159" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="189" priority="211" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="177" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AB2:AG10">
-    <cfRule type="cellIs" dxfId="188" priority="186" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="185" operator="containsText" text="PRESENT">
+  <conditionalFormatting sqref="X2:Y10 AC2:AG10">
+    <cfRule type="cellIs" dxfId="176" priority="213" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="212" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="184" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="174" priority="211" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="cellIs" dxfId="185" priority="138" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="137" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="173" priority="164" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="136" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="172" priority="163" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="165" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="182" priority="133" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="170" priority="161" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="162" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="160" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="135" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="134" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="cellIs" dxfId="179" priority="81" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="80" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="167" priority="107" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="79" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="166" priority="106" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="78" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="77" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="165" priority="105" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="104" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="76" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="163" priority="103" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2">
-    <cfRule type="containsText" dxfId="173" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="162" priority="108" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AB2">
+    <cfRule type="containsText" dxfId="161" priority="85" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="160" priority="87" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="86" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="60" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="cellIs" dxfId="170" priority="63" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="62" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="158" priority="88" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="89" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="61" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="167" priority="75" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="74" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="155" priority="100" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="101" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="73" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
+    <cfRule type="cellIs" dxfId="153" priority="102" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="containsText" dxfId="164" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="152" priority="83" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="151" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="82" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="containsText" dxfId="161" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="149" priority="78" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="77" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="76" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="cellIs" dxfId="158" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="43" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="146" priority="71" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="70" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    <cfRule type="cellIs" dxfId="144" priority="72" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA7">
-    <cfRule type="cellIs" dxfId="155" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="38" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="143" priority="66" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="65" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="37" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="141" priority="64" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA8">
-    <cfRule type="containsText" dxfId="152" priority="32" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="140" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="33" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="31" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="138" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="cellIs" dxfId="149" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="26" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="137" priority="54" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="25" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="135" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA10">
-    <cfRule type="cellIs" dxfId="146" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="134" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="19" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="132" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA11">
-    <cfRule type="containsText" dxfId="143" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="131" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="129" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA14">
-    <cfRule type="cellIs" dxfId="140" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="126" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="137" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="125" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="3" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3">
+    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3818,7 +3834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD10" sqref="AD10"/>
     </sheetView>
@@ -4825,251 +4841,207 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 Z4:Z7 AG12">
-    <cfRule type="containsText" dxfId="134" priority="296" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="122" priority="296" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="297" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="132" priority="279" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="278" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="120" priority="279" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="278" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="277" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="118" priority="277" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="cellIs" dxfId="129" priority="273" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="272" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="117" priority="273" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="272" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="271" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="115" priority="271" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="cellIs" dxfId="126" priority="285" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="284" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="114" priority="285" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="283" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="284" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="283" operator="containsText" text="ABSENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S13 U12:U13">
+    <cfRule type="cellIs" dxfId="111" priority="261" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="260" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="259" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S11">
+    <cfRule type="cellIs" dxfId="108" priority="255" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="253" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="254" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:U2">
+    <cfRule type="containsText" dxfId="105" priority="251" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="250" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="252" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:W13">
+    <cfRule type="containsText" dxfId="102" priority="217" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="219" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="218" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:X11">
+    <cfRule type="cellIs" dxfId="99" priority="225" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="224" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="223" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y9">
+    <cfRule type="containsText" dxfId="96" priority="214" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="215" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="216" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y10">
+    <cfRule type="cellIs" dxfId="93" priority="165" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="164" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="163" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="containsText" dxfId="90" priority="196" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="198" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="197" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y12">
+    <cfRule type="cellIs" dxfId="87" priority="192" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="191" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="190" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12:Y13">
+    <cfRule type="cellIs" dxfId="84" priority="186" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="184" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="185" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:Y14">
+    <cfRule type="cellIs" dxfId="81" priority="174" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="173" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="172" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:AA14">
+    <cfRule type="containsText" dxfId="78" priority="124" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="125" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="126" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z3">
+    <cfRule type="cellIs" dxfId="75" priority="144" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="143" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="142" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11 AG12">
+    <cfRule type="containsText" dxfId="72" priority="295" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="cellIs" dxfId="123" priority="261" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="260" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="259" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S11">
-    <cfRule type="cellIs" dxfId="120" priority="255" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="254" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="253" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U2">
-    <cfRule type="cellIs" dxfId="117" priority="252" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="251" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="250" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W13">
-    <cfRule type="cellIs" dxfId="114" priority="219" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="218" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="217" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X11">
-    <cfRule type="containsText" dxfId="111" priority="223" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="225" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="224" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="containsText" dxfId="108" priority="214" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="216" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="215" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="105" priority="165" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="163" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="164" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="102" priority="196" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="197" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="198" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="containsText" dxfId="99" priority="191" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="192" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="190" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="cellIs" dxfId="96" priority="186" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="185" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="184" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="cellIs" dxfId="93" priority="174" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="173" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="172" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:AA14">
-    <cfRule type="containsText" dxfId="90" priority="124" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="125" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="126" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="containsText" dxfId="87" priority="143" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="144" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="142" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="Z6:Z11 AB2:AG11">
+    <cfRule type="containsText" dxfId="71" priority="148" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="cellIs" dxfId="84" priority="141" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="140" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="139" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11 AG12">
-    <cfRule type="containsText" dxfId="81" priority="295" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:Z10">
-    <cfRule type="cellIs" dxfId="80" priority="162" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="161" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="160" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9">
-    <cfRule type="containsText" dxfId="77" priority="157" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="159" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="158" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11 AB2:AG11">
-    <cfRule type="containsText" dxfId="74" priority="148" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z13">
-    <cfRule type="cellIs" dxfId="73" priority="132" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="131" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="70" priority="130" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="131" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="130" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12">
-    <cfRule type="containsText" dxfId="70" priority="128" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="127" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="132" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5084,221 +5056,133 @@
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AG11 Z11">
-    <cfRule type="cellIs" dxfId="64" priority="150" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="149" operator="containsText" text="PRESENT">
+  <conditionalFormatting sqref="Z3:AA3">
+    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:AA9">
+    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12:AA12">
+    <cfRule type="containsText" dxfId="58" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA5">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA7">
+    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7:AA11">
+    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11">
+    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AA13">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AG11 Z6:Z11">
+    <cfRule type="cellIs" dxfId="31" priority="150" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="149" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA9">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA9">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA6">
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA6">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11">
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA7">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA7">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA10">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA8">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5312,11 +5196,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R11" sqref="R11"/>
+      <selection pane="topRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5341,11 +5225,11 @@
     <col min="19" max="19" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:17" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -5385,8 +5269,11 @@
       <c r="P1" s="9">
         <v>45924</v>
       </c>
+      <c r="Q1" s="9">
+        <v>45925</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
@@ -5428,8 +5315,11 @@
       <c r="P2" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>21</v>
       </c>
@@ -5469,8 +5359,11 @@
       <c r="P3" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="Q3" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
@@ -5511,8 +5404,11 @@
       <c r="P4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
@@ -5552,8 +5448,11 @@
       <c r="P5" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q5" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>24</v>
       </c>
@@ -5593,12 +5492,15 @@
       <c r="P6" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q6" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5634,12 +5536,15 @@
       <c r="P7" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q7" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
@@ -5675,12 +5580,15 @@
       <c r="P8" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q8" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
@@ -5716,12 +5624,15 @@
       <c r="P9" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q9" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="10" t="s">
@@ -5748,12 +5659,15 @@
       <c r="P10" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q10" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="N11" s="10" t="s">
@@ -5765,14 +5679,12 @@
       <c r="P11" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="Q11" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -5780,15 +5692,20 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A32539C-A488-4848-9923-119B252D2FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755FA88-61B5-4B7E-8490-D978F9618647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Support Attendance" sheetId="2" r:id="rId2"/>
     <sheet name="DSR Tracker" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="28-09-2025 Interview 1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="86">
   <si>
     <t>SR NO</t>
   </si>
@@ -148,6 +148,153 @@
   </si>
   <si>
     <t>poojapatil.8work@gmail.com</t>
+  </si>
+  <si>
+    <t>Candidate Name</t>
+  </si>
+  <si>
+    <t>Interviewer Name</t>
+  </si>
+  <si>
+    <t>Technical Skills (1-5)</t>
+  </si>
+  <si>
+    <t>Problem Solving (1-5)</t>
+  </si>
+  <si>
+    <t>Communication Skills (1-5)</t>
+  </si>
+  <si>
+    <t>Overall Rating (1-5)</t>
+  </si>
+  <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <t>Areas of Improvement</t>
+  </si>
+  <si>
+    <t>Final Recommendation (Hire / Hold / Reject)</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Mannual Testing (1-5)</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Siddhant</t>
+  </si>
+  <si>
+    <t>confidence (1-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> introduction(1-5)</t>
+  </si>
+  <si>
+    <t>Record a 2-minute explainer video daily. During Days 1–7, introduce yourself differently each day. From Days 8–14, explain testing concepts such as STLC, the difference between a test case and a bug, and regression testing. From Days 15–21, explain JavaScript basics including datatypes, loops, and functions. Track the number of videos made, note any filler words, and observe improvements in eye contact. This exercise helps build confidence, improves articulation, and prepares you for “Tell me about yourself” and technical explanation questions.</t>
+  </si>
+  <si>
+    <t>NOTE AND EXCERISE FOR EVERYONE</t>
+  </si>
+  <si>
+    <t>Basic understanding of some testing concepts; knows difference between blackbox and whitebox testing; some knowledge of JS strings.</t>
+  </si>
+  <si>
+    <t>Strong knowledge in SDLC and testing types; clear on blackbox, whitebox, smoke, regression, retesting; good JavaScript basics; attempted problem solving.</t>
+  </si>
+  <si>
+    <t>Good JS basics (datatypes, variables, strings); bug definition was correct.</t>
+  </si>
+  <si>
+    <t>Good start in SDLC and STLC; fair understanding of blackbox/whitebox testing; good knowledge of bug, smoke, regression testing; solid JavaScript basics.</t>
+  </si>
+  <si>
+    <t>Good in SDLC; basic understanding of blackbox/whitebox; solid JavaScript basics.</t>
+  </si>
+  <si>
+    <t>Good in SDLC/STLC; basic JavaScript understanding; attempted problem solving.</t>
+  </si>
+  <si>
+    <t>Knows SDLC/STLC; some knowledge of testing types; good in JS basics.</t>
+  </si>
+  <si>
+    <t>Knows basic JS datatypes.</t>
+  </si>
+  <si>
+    <t>Motivated but needs development.</t>
+  </si>
+  <si>
+    <t>Shows willingness to learn.</t>
+  </si>
+  <si>
+    <t>Introduction needs improvement (avoid 'sir'); low confidence; weak in STLC, testing types, and bug definition; limited JS knowledge; poor problem-solving (1/3 solved).</t>
+  </si>
+  <si>
+    <t>Introduction delivery felt like reading; STLC phases not clear; bug lifecycle needs work; eye contact lacking; needs more structure in answers.</t>
+  </si>
+  <si>
+    <t>Weak in introduction; lacks knowledge in testing phases and lifecycle; no knowledge in smoke, regression, retesting; lacks confidence; eye contact issues.</t>
+  </si>
+  <si>
+    <t>Needs detailed structure in answers; bug lifecycle not known; weak in retesting vs regression; closes eyes while answering; over-rehearsed answers.</t>
+  </si>
+  <si>
+    <t>Intro too short; STLC phases not clear; lacks smoke testing knowledge; weak bug lifecycle; lacks eye contact; underconfident in problem solving.</t>
+  </si>
+  <si>
+    <t>Answers lacked detail; weak bug definitions; poor eye contact; repeats sentences; gets panicked easily.</t>
+  </si>
+  <si>
+    <t>Confused between regression and retesting; weak bug lifecycle; poor problem solving; poor introduction delivery.</t>
+  </si>
+  <si>
+    <t>Intro incomplete; very weak in manual testing; weak in JS; zero problem solving; poor eye contact and delivery.</t>
+  </si>
+  <si>
+    <t>Intro incomplete; lacks manual testing and JS depth; weak problem solving; fidgets and lacks confidence; poor English.</t>
+  </si>
+  <si>
+    <t>Intro weak; confusion in blackbox vs whitebox; poor JS basics; lacks confidence; closes eyes while answering; poor problem solving.</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Needs to practice manual testing fundamentals, JavaScript basics, and improve confidence and communication skills.</t>
+  </si>
+  <si>
+    <t>Work on explanation clarity, confidence, and deeper knowledge of testing concepts.</t>
+  </si>
+  <si>
+    <t>Overall 4/5 in testing; improve delivery style, eye contact, and problem-solving consistency.</t>
+  </si>
+  <si>
+    <t>Needs strong focus on manual testing fundamentals, communication, and problem solving.</t>
+  </si>
+  <si>
+    <t>Work on fundamentals of testing, communication skills, and confidence building.</t>
+  </si>
+  <si>
+    <t>Needs foundational knowledge in testing and JS, plus better communication and confidence.</t>
+  </si>
+  <si>
+    <t>With more structured practice and confidence building, can improve significantly.</t>
+  </si>
+  <si>
+    <t>Needs structured improvement in manual testing and confidence building.</t>
+  </si>
+  <si>
+    <t>Requires major improvement in testing knowledge, JS, and communication before consideration.</t>
+  </si>
+  <si>
+    <t>Needs to build confidence, practice introductions, and gain stronger manual testing knowledge.</t>
   </si>
 </sst>
 </file>
@@ -356,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -381,15 +528,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -397,6 +535,16 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,1644 +578,1722 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+  <dxfs count="207">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2400,7 +2626,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2565,10 +2791,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="21"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -2584,10 +2810,10 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="20"/>
+      <c r="P2" s="21"/>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
@@ -2597,16 +2823,16 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="20"/>
+      <c r="W2" s="21"/>
       <c r="X2" t="s">
         <v>13</v>
       </c>
@@ -2653,8 +2879,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -2670,23 +2896,23 @@
       <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="22"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
       <c r="X3" t="s">
         <v>12</v>
       </c>
@@ -2733,8 +2959,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -2744,29 +2970,29 @@
       <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="21"/>
+      <c r="M4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="22"/>
       <c r="U4" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
       <c r="X4" t="s">
         <v>12</v>
       </c>
@@ -2813,8 +3039,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -2824,29 +3050,29 @@
       <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="21"/>
+      <c r="M5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="22"/>
       <c r="U5" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
       <c r="X5" t="s">
         <v>12</v>
       </c>
@@ -2893,8 +3119,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -2904,29 +3130,29 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="21"/>
+      <c r="M6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="22"/>
       <c r="U6" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
       <c r="X6" t="s">
         <v>12</v>
       </c>
@@ -2973,8 +3199,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -2990,23 +3216,23 @@
       <c r="N7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="22"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
       <c r="X7" t="s">
         <v>12</v>
       </c>
@@ -3053,8 +3279,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -3070,23 +3296,23 @@
       <c r="N8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="22"/>
       <c r="U8" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
       <c r="X8" t="s">
         <v>12</v>
       </c>
@@ -3133,8 +3359,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -3150,23 +3376,23 @@
       <c r="N9" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="22"/>
       <c r="U9" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
       <c r="X9" t="s">
         <v>12</v>
       </c>
@@ -3213,8 +3439,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -3230,23 +3456,23 @@
       <c r="N10" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="22"/>
       <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
       <c r="X10" t="s">
         <v>12</v>
       </c>
@@ -3272,37 +3498,37 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>11</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="22"/>
       <c r="U11" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
       <c r="X11" t="s">
         <v>12</v>
       </c>
@@ -3328,37 +3554,37 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
-        <v>12</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
       <c r="Q12" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="21"/>
+      <c r="R12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="22"/>
       <c r="U12" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
       <c r="X12" t="s">
         <v>12</v>
       </c>
@@ -3384,37 +3610,37 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="12">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
       <c r="M13" t="s">
         <v>12</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="22"/>
       <c r="U13" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
       <c r="X13" t="s">
         <v>12</v>
       </c>
@@ -3440,10 +3666,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>14</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="X14" t="s">
@@ -3470,354 +3696,310 @@
     <mergeCell ref="V2:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="cellIs" dxfId="197" priority="240" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="239" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="206" priority="240" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="239" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="195" priority="221" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="204" priority="220" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="220" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="222" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="192" priority="237" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="236" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="201" priority="237" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="236" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="235" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="199" priority="235" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="cellIs" dxfId="189" priority="219" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="218" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="198" priority="219" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="217" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="218" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="217" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="186" priority="215" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="195" priority="214" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="215" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="216" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="214" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
+    <cfRule type="cellIs" dxfId="193" priority="216" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="183" priority="224" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="192" priority="225" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="224" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="223" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="190" priority="223" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="225" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="180" priority="158" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="189" priority="158" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="157" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="188" priority="157" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="159" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="177" priority="238" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="186" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:Y10 AC2:AG10">
-    <cfRule type="cellIs" dxfId="176" priority="213" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="212" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="185" priority="213" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="212" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="211" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="183" priority="211" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="containsText" dxfId="173" priority="164" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="182" priority="165" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="164" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="163" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="180" priority="163" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="165" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="170" priority="161" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="179" priority="162" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="161" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="162" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="160" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="177" priority="160" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="containsText" dxfId="167" priority="107" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="176" priority="108" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="103" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="104" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="106" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="173" priority="105" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="106" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="105" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="171" priority="107" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="103" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="108" operator="equal">
-      <formula>PRESENT</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AA3">
+    <cfRule type="containsText" dxfId="170" priority="88" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="89" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="90" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="containsText" dxfId="167" priority="100" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="101" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="102" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="cellIs" dxfId="164" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="83" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="82" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA5">
+    <cfRule type="cellIs" dxfId="161" priority="78" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="77" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="76" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA6">
+    <cfRule type="cellIs" dxfId="158" priority="72" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="71" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="70" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6:AA7">
+    <cfRule type="containsText" dxfId="155" priority="65" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="64" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="66" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7:AA8">
+    <cfRule type="containsText" dxfId="152" priority="58" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="59" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8:AA9">
+    <cfRule type="containsText" dxfId="149" priority="52" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="53" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="54" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AA10">
+    <cfRule type="cellIs" dxfId="146" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="47" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="46" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10:AA11">
+    <cfRule type="cellIs" dxfId="143" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA14">
+    <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AA13">
+    <cfRule type="containsText" dxfId="137" priority="29" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="containsText" dxfId="161" priority="85" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="134" priority="87" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="86" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="85" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="87" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="86" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="containsText" dxfId="158" priority="88" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="89" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3">
-    <cfRule type="containsText" dxfId="155" priority="100" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="101" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="102" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4">
-    <cfRule type="containsText" dxfId="152" priority="83" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="84" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="82" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="cellIs" dxfId="149" priority="78" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="77" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="76" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="containsText" dxfId="146" priority="71" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="70" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="72" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA6:AA7">
-    <cfRule type="cellIs" dxfId="143" priority="66" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="65" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="64" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AA8">
-    <cfRule type="cellIs" dxfId="140" priority="60" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="59" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="58" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="cellIs" dxfId="137" priority="54" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="53" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="52" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA9:AA10">
-    <cfRule type="cellIs" dxfId="134" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="47" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="46" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AA11">
-    <cfRule type="cellIs" dxfId="131" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11:AA14">
-    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="125" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="ABSENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB3">
+    <cfRule type="cellIs" dxfId="131" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="ABSENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB3:AB14">
+    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB3">
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="10" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB8">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3992,10 +4174,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="22"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -4011,10 +4193,10 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="22"/>
       <c r="P2" t="s">
         <v>13</v>
       </c>
@@ -4027,13 +4209,13 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="21"/>
+      <c r="V2" s="22"/>
       <c r="W2" t="s">
         <v>13</v>
       </c>
@@ -4074,8 +4256,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -4091,8 +4273,8 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
       <c r="P3" t="s">
         <v>12</v>
       </c>
@@ -4105,9 +4287,9 @@
       <c r="S3" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
       <c r="W3" t="s">
         <v>12</v>
       </c>
@@ -4148,8 +4330,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -4165,8 +4347,8 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
       <c r="P4" t="s">
         <v>13</v>
       </c>
@@ -4179,9 +4361,9 @@
       <c r="S4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
       <c r="W4" t="s">
         <v>12</v>
       </c>
@@ -4222,8 +4404,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -4239,8 +4421,8 @@
       <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
       <c r="P5" t="s">
         <v>12</v>
       </c>
@@ -4253,9 +4435,9 @@
       <c r="S5" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
       <c r="W5" t="s">
         <v>12</v>
       </c>
@@ -4296,8 +4478,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -4313,8 +4495,8 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
       <c r="P6" t="s">
         <v>12</v>
       </c>
@@ -4327,9 +4509,9 @@
       <c r="S6" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
       <c r="W6" t="s">
         <v>12</v>
       </c>
@@ -4370,8 +4552,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -4387,8 +4569,8 @@
       <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
       <c r="P7" t="s">
         <v>12</v>
       </c>
@@ -4401,9 +4583,9 @@
       <c r="S7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
       <c r="W7" t="s">
         <v>12</v>
       </c>
@@ -4444,8 +4626,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -4461,8 +4643,8 @@
       <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
       <c r="P8" t="s">
         <v>13</v>
       </c>
@@ -4475,9 +4657,9 @@
       <c r="S8" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
       <c r="W8" t="s">
         <v>13</v>
       </c>
@@ -4518,8 +4700,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -4535,8 +4717,8 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
       <c r="P9" t="s">
         <v>12</v>
       </c>
@@ -4549,9 +4731,9 @@
       <c r="S9" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
       <c r="W9" t="s">
         <v>12</v>
       </c>
@@ -4592,8 +4774,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -4609,8 +4791,8 @@
       <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
       <c r="P10" t="s">
         <v>13</v>
       </c>
@@ -4623,9 +4805,9 @@
       <c r="S10" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
       <c r="W10" t="s">
         <v>13</v>
       </c>
@@ -4666,8 +4848,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -4683,8 +4865,8 @@
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
       <c r="P11" t="s">
         <v>13</v>
       </c>
@@ -4697,9 +4879,9 @@
       <c r="S11" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
       <c r="W11" t="s">
         <v>13</v>
       </c>
@@ -4746,7 +4928,7 @@
       <c r="S12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="21"/>
+      <c r="T12" s="22"/>
       <c r="W12" t="s">
         <v>13</v>
       </c>
@@ -4793,7 +4975,7 @@
       <c r="S13" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="21"/>
+      <c r="T13" s="22"/>
       <c r="Y13" t="s">
         <v>12</v>
       </c>
@@ -4808,7 +4990,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="L14" t="s">
@@ -4874,11 +5056,11 @@
     <cfRule type="cellIs" dxfId="114" priority="285" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="283" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="113" priority="284" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="112" priority="283" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="284" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
@@ -4896,88 +5078,88 @@
     <cfRule type="cellIs" dxfId="108" priority="255" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="253" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="107" priority="254" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="253" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="254" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="containsText" dxfId="105" priority="251" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="105" priority="252" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="251" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="250" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="103" priority="250" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="252" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="containsText" dxfId="102" priority="217" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="102" priority="219" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="218" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="217" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="219" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="218" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X11">
-    <cfRule type="cellIs" dxfId="99" priority="225" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="224" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="99" priority="224" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="225" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="97" priority="223" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="containsText" dxfId="96" priority="214" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    <cfRule type="cellIs" dxfId="96" priority="216" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="95" priority="215" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="216" operator="equal">
-      <formula>PRESENT</formula>
+    <cfRule type="containsText" dxfId="94" priority="214" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="93" priority="165" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="164" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="93" priority="164" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="163" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="92" priority="163" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="165" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="90" priority="196" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="90" priority="198" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="197" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="196" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="198" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="197" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y12">
     <cfRule type="cellIs" dxfId="87" priority="192" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="191" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="86" priority="190" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="191" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="190" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y13">
@@ -5035,91 +5217,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z13">
-    <cfRule type="containsText" dxfId="70" priority="130" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    <cfRule type="cellIs" dxfId="70" priority="132" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="69" priority="131" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="132" operator="equal">
-      <formula>PRESENT</formula>
+    <cfRule type="containsText" dxfId="68" priority="130" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="67" priority="136" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="67" priority="138" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="137" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="136" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="138" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="137" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AA3">
-    <cfRule type="containsText" dxfId="64" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="15" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:AA9">
     <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:AA12">
-    <cfRule type="containsText" dxfId="58" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="58" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2">
     <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA7">
     <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="20" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6">
@@ -5134,55 +5316,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA11">
-    <cfRule type="containsText" dxfId="43" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
-      <formula>PRESENT</formula>
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="containsText" dxfId="40" priority="31" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="32" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG11 Z6:Z11">
-    <cfRule type="cellIs" dxfId="31" priority="150" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="149" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="149" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="150" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5196,11 +5378,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5225,27 +5407,27 @@
     <col min="19" max="19" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:18" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="15">
         <v>45911</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="15">
         <v>45912</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="16">
         <v>45913</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="16">
         <v>45914</v>
       </c>
-      <c r="I1" s="19">
+      <c r="I1" s="16">
         <v>45915</v>
       </c>
       <c r="J1" s="9">
@@ -5272,12 +5454,15 @@
       <c r="Q1" s="9">
         <v>45925</v>
       </c>
+      <c r="R1" s="9">
+        <v>45926</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5287,10 +5472,10 @@
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5318,12 +5503,15 @@
       <c r="Q2" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
@@ -5333,8 +5521,8 @@
       <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
@@ -5362,12 +5550,15 @@
       <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R3" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
@@ -5378,8 +5569,8 @@
         <v>20</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
@@ -5407,12 +5598,15 @@
       <c r="Q4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
@@ -5422,8 +5616,8 @@
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
@@ -5451,12 +5645,15 @@
       <c r="Q5" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="R5" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
@@ -5466,8 +5663,8 @@
       <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
@@ -5495,12 +5692,15 @@
       <c r="Q6" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R6" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5510,8 +5710,8 @@
       <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5539,12 +5739,15 @@
       <c r="Q7" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
@@ -5554,8 +5757,8 @@
       <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -5583,12 +5786,15 @@
       <c r="Q8" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R8" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
@@ -5598,8 +5804,8 @@
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="11" t="s">
         <v>20</v>
       </c>
@@ -5627,14 +5833,17 @@
       <c r="Q9" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="R9" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="B10" s="28"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
@@ -5662,14 +5871,17 @@
       <c r="Q10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="R10" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="B11" s="31"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="N11" s="10" t="s">
         <v>19</v>
       </c>
@@ -5680,6 +5892,9 @@
         <v>20</v>
       </c>
       <c r="Q11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5721,81 +5936,787 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6667340-24C4-4574-9E4B-2059915EAD7D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+    <col min="7" max="7" width="33.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" customWidth="1"/>
+    <col min="12" max="12" width="87.88671875" customWidth="1"/>
+    <col min="13" max="13" width="83.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="15" max="15" width="53.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="9">
-        <v>45910</v>
-      </c>
-      <c r="D1" s="9">
-        <v>45911</v>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>20</v>
+    <row r="2" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f>ROUND(AVERAGE(E2:J2),1)</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
+    <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+      <c r="F3">
+        <v>3.5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2.5</v>
+      </c>
+      <c r="I3">
+        <v>3.5</v>
+      </c>
+      <c r="J3">
+        <v>3.7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K14" si="0">ROUND(AVERAGE(E3:J3),1)</f>
+        <v>3.1</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
+    <row r="5" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3.5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>2.8</v>
+      </c>
+      <c r="F7">
+        <v>3.8</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.5</v>
+      </c>
+      <c r="I7">
+        <v>2.8</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>ROUND(AVERAGE(E7:J7),1)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I9">
+        <v>2.5</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>3.5</v>
+      </c>
+      <c r="J10">
+        <v>3.5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3.5</v>
+      </c>
+      <c r="H11">
+        <v>3.5</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2.5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3.5</v>
+      </c>
+      <c r="I12">
+        <v>3.5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D17:J17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="cellIs" dxfId="26" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="46" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="47" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B7">
+    <cfRule type="containsText" dxfId="20" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B13">
+    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B12">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="containsText" dxfId="5" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",B14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5755FA88-61B5-4B7E-8490-D978F9618647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FBBA22-EFBD-42BF-A056-1431802F0534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,6 +402,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -503,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -542,7 +548,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -714,103 +734,103 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2791,10 +2811,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="27"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -2810,10 +2830,10 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="27"/>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
@@ -2823,16 +2843,16 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="28" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="21"/>
+      <c r="W2" s="27"/>
       <c r="X2" t="s">
         <v>13</v>
       </c>
@@ -2879,8 +2899,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -2896,8 +2916,8 @@
       <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="Q3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2907,12 +2927,12 @@
       <c r="S3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22"/>
+      <c r="T3" s="28"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
       <c r="X3" t="s">
         <v>12</v>
       </c>
@@ -2959,8 +2979,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -2976,8 +2996,8 @@
       <c r="N4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="14" t="s">
         <v>12</v>
       </c>
@@ -2987,12 +3007,12 @@
       <c r="S4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="22"/>
+      <c r="T4" s="28"/>
       <c r="U4" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
       <c r="X4" t="s">
         <v>12</v>
       </c>
@@ -3039,8 +3059,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -3056,8 +3076,8 @@
       <c r="N5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
       <c r="Q5" s="14" t="s">
         <v>12</v>
       </c>
@@ -3067,12 +3087,12 @@
       <c r="S5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="22"/>
+      <c r="T5" s="28"/>
       <c r="U5" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
       <c r="X5" t="s">
         <v>12</v>
       </c>
@@ -3119,8 +3139,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -3136,8 +3156,8 @@
       <c r="N6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="14" t="s">
         <v>12</v>
       </c>
@@ -3147,12 +3167,12 @@
       <c r="S6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="22"/>
+      <c r="T6" s="28"/>
       <c r="U6" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
       <c r="X6" t="s">
         <v>12</v>
       </c>
@@ -3199,8 +3219,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -3216,8 +3236,8 @@
       <c r="N7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
       <c r="Q7" s="14" t="s">
         <v>12</v>
       </c>
@@ -3227,12 +3247,12 @@
       <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="22"/>
+      <c r="T7" s="28"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
       <c r="X7" t="s">
         <v>12</v>
       </c>
@@ -3279,8 +3299,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -3296,8 +3316,8 @@
       <c r="N8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
       <c r="Q8" s="14" t="s">
         <v>12</v>
       </c>
@@ -3307,12 +3327,12 @@
       <c r="S8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="22"/>
+      <c r="T8" s="28"/>
       <c r="U8" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
       <c r="X8" t="s">
         <v>12</v>
       </c>
@@ -3359,8 +3379,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -3376,8 +3396,8 @@
       <c r="N9" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
       <c r="Q9" s="14" t="s">
         <v>12</v>
       </c>
@@ -3387,12 +3407,12 @@
       <c r="S9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="22"/>
+      <c r="T9" s="28"/>
       <c r="U9" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
       <c r="X9" t="s">
         <v>12</v>
       </c>
@@ -3439,8 +3459,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -3456,8 +3476,8 @@
       <c r="N10" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
       <c r="Q10" s="14" t="s">
         <v>12</v>
       </c>
@@ -3467,12 +3487,12 @@
       <c r="S10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="22"/>
+      <c r="T10" s="28"/>
       <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
       <c r="X10" t="s">
         <v>12</v>
       </c>
@@ -3504,16 +3524,16 @@
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="14" t="s">
         <v>12</v>
       </c>
@@ -3523,12 +3543,12 @@
       <c r="S11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="22"/>
+      <c r="T11" s="28"/>
       <c r="U11" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
       <c r="X11" t="s">
         <v>12</v>
       </c>
@@ -3560,16 +3580,16 @@
       <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
       <c r="Q12" t="s">
         <v>13</v>
       </c>
@@ -3579,12 +3599,12 @@
       <c r="S12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="22"/>
+      <c r="T12" s="28"/>
       <c r="U12" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
       <c r="X12" t="s">
         <v>12</v>
       </c>
@@ -3616,16 +3636,16 @@
       <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="M13" t="s">
         <v>12</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="14" t="s">
         <v>12</v>
       </c>
@@ -3635,12 +3655,12 @@
       <c r="S13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="22"/>
+      <c r="T13" s="28"/>
       <c r="U13" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
       <c r="X13" t="s">
         <v>12</v>
       </c>
@@ -4174,10 +4194,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="28"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -4193,10 +4213,10 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="22"/>
+      <c r="O2" s="28"/>
       <c r="P2" t="s">
         <v>13</v>
       </c>
@@ -4209,13 +4229,13 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="22"/>
+      <c r="V2" s="28"/>
       <c r="W2" t="s">
         <v>13</v>
       </c>
@@ -4256,8 +4276,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -4273,8 +4293,8 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
       <c r="P3" t="s">
         <v>12</v>
       </c>
@@ -4287,9 +4307,9 @@
       <c r="S3" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
       <c r="W3" t="s">
         <v>12</v>
       </c>
@@ -4330,8 +4350,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -4347,8 +4367,8 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
       <c r="P4" t="s">
         <v>13</v>
       </c>
@@ -4361,9 +4381,9 @@
       <c r="S4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
       <c r="W4" t="s">
         <v>12</v>
       </c>
@@ -4404,8 +4424,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -4421,8 +4441,8 @@
       <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="P5" t="s">
         <v>12</v>
       </c>
@@ -4435,9 +4455,9 @@
       <c r="S5" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
       <c r="W5" t="s">
         <v>12</v>
       </c>
@@ -4478,8 +4498,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -4495,8 +4515,8 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
       <c r="P6" t="s">
         <v>12</v>
       </c>
@@ -4509,9 +4529,9 @@
       <c r="S6" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
       <c r="W6" t="s">
         <v>12</v>
       </c>
@@ -4552,8 +4572,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -4569,8 +4589,8 @@
       <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="P7" t="s">
         <v>12</v>
       </c>
@@ -4583,9 +4603,9 @@
       <c r="S7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
       <c r="W7" t="s">
         <v>12</v>
       </c>
@@ -4626,8 +4646,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -4643,8 +4663,8 @@
       <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="P8" t="s">
         <v>13</v>
       </c>
@@ -4657,9 +4677,9 @@
       <c r="S8" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
       <c r="W8" t="s">
         <v>13</v>
       </c>
@@ -4700,8 +4720,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -4717,8 +4737,8 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
       <c r="P9" t="s">
         <v>12</v>
       </c>
@@ -4731,9 +4751,9 @@
       <c r="S9" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
       <c r="W9" t="s">
         <v>12</v>
       </c>
@@ -4774,8 +4794,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -4791,8 +4811,8 @@
       <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
       <c r="P10" t="s">
         <v>13</v>
       </c>
@@ -4805,9 +4825,9 @@
       <c r="S10" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
       <c r="W10" t="s">
         <v>13</v>
       </c>
@@ -4848,8 +4868,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -4865,8 +4885,8 @@
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
       <c r="P11" t="s">
         <v>13</v>
       </c>
@@ -4879,9 +4899,9 @@
       <c r="S11" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
       <c r="W11" t="s">
         <v>13</v>
       </c>
@@ -4928,7 +4948,7 @@
       <c r="S12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="22"/>
+      <c r="T12" s="28"/>
       <c r="W12" t="s">
         <v>13</v>
       </c>
@@ -4975,7 +4995,7 @@
       <c r="S13" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="22"/>
+      <c r="T13" s="28"/>
       <c r="Y13" t="s">
         <v>12</v>
       </c>
@@ -5408,10 +5428,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -5459,10 +5479,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5472,10 +5492,10 @@
       <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
@@ -5508,10 +5528,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
@@ -5521,8 +5541,8 @@
       <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
@@ -5555,10 +5575,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
@@ -5569,8 +5589,8 @@
         <v>20</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
@@ -5603,10 +5623,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="10" t="s">
         <v>19</v>
       </c>
@@ -5616,8 +5636,8 @@
       <c r="E5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
@@ -5650,10 +5670,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
@@ -5663,8 +5683,8 @@
       <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="10" t="s">
         <v>19</v>
       </c>
@@ -5697,10 +5717,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5710,8 +5730,8 @@
       <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5744,10 +5764,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
@@ -5757,8 +5777,8 @@
       <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -5791,10 +5811,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
@@ -5804,8 +5824,8 @@
       <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="11" t="s">
         <v>20</v>
       </c>
@@ -5838,12 +5858,12 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="34"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
@@ -5876,12 +5896,12 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="B11" s="37"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="N11" s="10" t="s">
         <v>19</v>
       </c>
@@ -5938,9 +5958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6667340-24C4-4574-9E4B-2059915EAD7D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5958,12 +5978,13 @@
     <col min="11" max="11" width="21.21875" customWidth="1"/>
     <col min="12" max="12" width="87.88671875" customWidth="1"/>
     <col min="13" max="13" width="83.109375" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" customWidth="1"/>
     <col min="15" max="15" width="53.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -6006,597 +6027,605 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>2</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <f>ROUND(AVERAGE(E2:J2),1)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>3.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>3.5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>2.5</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>3.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>3.7</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <f t="shared" ref="K3:K14" si="0">ROUND(AVERAGE(E3:J3),1)</f>
         <v>3.1</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="20">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="20">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="20">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="20">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="20">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="20">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
     </row>
-    <row r="5" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>3.5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>3.5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>2.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>3.8</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>2.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>2.8</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f>ROUND(AVERAGE(E7:J7),1)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="20">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="20">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="20">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="20">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="20">
         <v>0</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>2.5</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>3.5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>3.5</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>3.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>3.5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>3</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>2.5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>1.5</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>3.5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>3.5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13" t="s">
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O13" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+    <row r="14" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="20">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="20">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="20">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="20">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="20">
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="20">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
@@ -6604,40 +6633,40 @@
       <c r="C17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="cellIs" dxfId="26" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7">
@@ -6652,14 +6681,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",B9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",B9)))</formula>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FBBA22-EFBD-42BF-A056-1431802F0534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5D9C5-3197-45C7-AD4C-15160F0E6845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Support Attendance" sheetId="2" r:id="rId2"/>
     <sheet name="DSR Tracker" sheetId="3" r:id="rId3"/>
     <sheet name="28-09-2025 Interview 1" sheetId="4" r:id="rId4"/>
+    <sheet name="FEE_DETAILS" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="92">
   <si>
     <t>SR NO</t>
   </si>
@@ -295,13 +296,31 @@
   </si>
   <si>
     <t>Needs to build confidence, practice introductions, and gain stronger manual testing knowledge.</t>
+  </si>
+  <si>
+    <t>TOTAL FEES</t>
+  </si>
+  <si>
+    <t>2 INSTALLMENT</t>
+  </si>
+  <si>
+    <t>1 INSTALLMENT(15000)</t>
+  </si>
+  <si>
+    <t>REAMING FEES</t>
+  </si>
+  <si>
+    <t>CARRY FORM BATCH3</t>
+  </si>
+  <si>
+    <t>CARRY FORM BATCH4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +385,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +435,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -504,12 +541,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -571,23 +619,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,15 +640,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="207">
+  <dxfs count="216">
     <dxf>
       <font>
         <color rgb="FF92D050"/>
@@ -874,6 +945,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -899,11 +985,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -914,6 +1045,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -959,6 +1095,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -969,11 +1110,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -984,6 +1145,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -994,6 +1160,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
@@ -1009,11 +1185,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1024,6 +1220,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1059,11 +1260,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1074,6 +1295,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1099,6 +1335,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1109,11 +1380,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1124,6 +1415,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1134,6 +1440,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1144,11 +1455,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1159,6 +1490,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1169,11 +1505,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1184,6 +1540,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1194,11 +1555,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1209,6 +1590,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1219,6 +1615,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1229,6 +1640,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1239,11 +1655,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
@@ -1269,6 +1715,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1279,6 +1740,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1289,6 +1755,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
@@ -1304,6 +1780,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1344,6 +1835,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1354,6 +1855,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1364,16 +1870,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1384,6 +1930,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1404,6 +1955,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1414,11 +1970,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1454,6 +2030,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1464,11 +2045,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1479,6 +2080,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1489,11 +2095,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1504,6 +2130,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1514,11 +2145,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1529,6 +2180,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1539,11 +2195,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1554,6 +2230,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1564,11 +2245,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1579,6 +2280,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1589,11 +2295,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1604,6 +2340,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1614,11 +2355,41 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
@@ -1634,11 +2405,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF92D050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1649,6 +2440,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1669,6 +2465,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1676,661 +2477,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2642,11 +2788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB8" sqref="AB8"/>
+      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2679,13 +2825,13 @@
     <col min="28" max="28" width="15.109375" customWidth="1"/>
     <col min="29" max="29" width="20.6640625" customWidth="1"/>
     <col min="30" max="30" width="13.5546875" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" customWidth="1"/>
-    <col min="33" max="33" width="14.77734375" customWidth="1"/>
-    <col min="34" max="34" width="16.5546875" customWidth="1"/>
+    <col min="31" max="34" width="12.33203125" customWidth="1"/>
+    <col min="35" max="35" width="21.6640625" customWidth="1"/>
+    <col min="36" max="36" width="14.77734375" customWidth="1"/>
+    <col min="37" max="37" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2771,25 +2917,34 @@
         <v>45926</v>
       </c>
       <c r="AC1" s="6">
-        <v>45927</v>
+        <v>45936</v>
       </c>
       <c r="AD1" s="6">
-        <v>45928</v>
+        <v>45937</v>
       </c>
       <c r="AE1" s="6">
-        <v>45929</v>
+        <v>45938</v>
       </c>
       <c r="AF1" s="6">
-        <v>45930</v>
-      </c>
-      <c r="AG1" t="s">
+        <v>45939</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>45940</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>45941</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>45942</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2868,16 +3023,16 @@
       <c r="AB2" t="s">
         <v>12</v>
       </c>
-      <c r="AG2">
-        <f t="shared" ref="AG2:AG13" si="0">COUNTIF(C2:AF2,"PRESENT")</f>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AJ13" si="0">COUNTIF(C2:AI2,"PRESENT")</f>
         <v>5</v>
       </c>
-      <c r="AH2">
-        <f t="shared" ref="AH2:AH13" si="1">COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
+      <c r="AK2">
+        <f t="shared" ref="AK2:AK13" si="1">COUNTIF(C2:AI2,"PRESENT")/COUNTA(C2:AI2)*100</f>
         <v>21.739130434782609</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2948,16 +3103,16 @@
       <c r="AB3" t="s">
         <v>12</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <f t="shared" si="1"/>
         <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3028,16 +3183,16 @@
       <c r="AB4" t="s">
         <v>13</v>
       </c>
-      <c r="AG4">
+      <c r="AJ4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AH4">
+      <c r="AK4">
         <f t="shared" si="1"/>
         <v>94.73684210526315</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3108,16 +3263,16 @@
       <c r="AB5" t="s">
         <v>12</v>
       </c>
-      <c r="AG5">
+      <c r="AJ5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AH5">
+      <c r="AK5">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3188,16 +3343,16 @@
       <c r="AB6" t="s">
         <v>12</v>
       </c>
-      <c r="AG6">
+      <c r="AJ6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AH6">
+      <c r="AK6">
         <f t="shared" si="1"/>
         <v>94.73684210526315</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3268,16 +3423,16 @@
       <c r="AB7" t="s">
         <v>12</v>
       </c>
-      <c r="AG7">
+      <c r="AJ7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="AH7">
+      <c r="AK7">
         <f t="shared" si="1"/>
         <v>84.210526315789465</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3348,16 +3503,16 @@
       <c r="AB8" t="s">
         <v>13</v>
       </c>
-      <c r="AG8">
+      <c r="AJ8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AH8">
+      <c r="AK8">
         <f t="shared" si="1"/>
         <v>68.421052631578945</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3428,16 +3583,16 @@
       <c r="AB9" t="s">
         <v>12</v>
       </c>
-      <c r="AG9">
+      <c r="AJ9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AH9">
+      <c r="AK9">
         <f t="shared" si="1"/>
         <v>94.73684210526315</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -3508,16 +3663,16 @@
       <c r="AB10" t="s">
         <v>12</v>
       </c>
-      <c r="AG10">
+      <c r="AJ10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH10">
+      <c r="AK10">
         <f t="shared" si="1"/>
         <v>63.157894736842103</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>11</v>
       </c>
@@ -3564,16 +3719,16 @@
       <c r="AB11" t="s">
         <v>12</v>
       </c>
-      <c r="AG11">
+      <c r="AJ11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AH11">
+      <c r="AK11">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>12</v>
       </c>
@@ -3620,16 +3775,16 @@
       <c r="AB12" t="s">
         <v>12</v>
       </c>
-      <c r="AG12">
+      <c r="AJ12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="AH12">
+      <c r="AK12">
         <f t="shared" si="1"/>
         <v>90.909090909090907</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>13</v>
       </c>
@@ -3676,16 +3831,16 @@
       <c r="AB13" t="s">
         <v>12</v>
       </c>
-      <c r="AG13">
+      <c r="AJ13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="AH13">
+      <c r="AK13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>14</v>
       </c>
@@ -3715,316 +3870,316 @@
     <mergeCell ref="T2:T13"/>
     <mergeCell ref="V2:W13"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="cellIs" dxfId="206" priority="240" operator="equal">
+  <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10 AJ11:AJ13">
+    <cfRule type="containsText" dxfId="215" priority="239" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="240" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="239" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="204" priority="220" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="213" priority="220" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="221" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="212" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="222" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="201" priority="237" operator="equal">
+    <cfRule type="containsText" dxfId="210" priority="235" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="236" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="237" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="236" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="235" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="cellIs" dxfId="198" priority="219" operator="equal">
+    <cfRule type="containsText" dxfId="207" priority="217" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="218" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="219" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="217" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="218" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="195" priority="214" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="204" priority="214" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="215" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="203" priority="215" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="216" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="192" priority="225" operator="equal">
+    <cfRule type="containsText" dxfId="201" priority="223" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="224" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="225" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="224" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="223" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="189" priority="158" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="198" priority="157" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="158" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="157" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="159" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AG11:AG13">
-    <cfRule type="containsText" dxfId="186" priority="238" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10 AJ11:AJ13">
+    <cfRule type="containsText" dxfId="195" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AC2:AG10">
-    <cfRule type="cellIs" dxfId="185" priority="213" operator="equal">
+  <conditionalFormatting sqref="X2:Y10 AC2:AJ10">
+    <cfRule type="containsText" dxfId="194" priority="211" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="212" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="213" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="212" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="211" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="cellIs" dxfId="182" priority="165" operator="equal">
+    <cfRule type="containsText" dxfId="191" priority="163" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="164" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="165" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="164" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="163" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="cellIs" dxfId="179" priority="162" operator="equal">
+    <cfRule type="containsText" dxfId="188" priority="160" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="161" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="162" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="161" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="160" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="cellIs" dxfId="176" priority="108" operator="equal">
+    <cfRule type="containsText" dxfId="185" priority="103" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="104" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="105" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="103" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="182" priority="106" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="181" priority="107" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="108" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="106" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="107" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="containsText" dxfId="170" priority="88" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="179" priority="88" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="89" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="178" priority="89" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="90" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="containsText" dxfId="167" priority="100" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="176" priority="100" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="101" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="175" priority="101" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="102" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="cellIs" dxfId="164" priority="84" operator="equal">
+    <cfRule type="containsText" dxfId="173" priority="82" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="83" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="84" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="83" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="82" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="cellIs" dxfId="161" priority="78" operator="equal">
+    <cfRule type="containsText" dxfId="170" priority="76" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="77" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="78" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="77" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="76" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="cellIs" dxfId="158" priority="72" operator="equal">
+    <cfRule type="containsText" dxfId="167" priority="70" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="71" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="72" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="71" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="70" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA7">
-    <cfRule type="containsText" dxfId="155" priority="65" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="164" priority="64" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="65" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="64" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="66" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA8">
-    <cfRule type="containsText" dxfId="152" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="161" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="160" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="60" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="containsText" dxfId="149" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="158" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="157" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="54" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA10">
-    <cfRule type="cellIs" dxfId="146" priority="48" operator="equal">
+    <cfRule type="containsText" dxfId="155" priority="46" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="47" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="48" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="47" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="46" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA11">
-    <cfRule type="cellIs" dxfId="143" priority="42" operator="equal">
+    <cfRule type="containsText" dxfId="152" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA14">
-    <cfRule type="containsText" dxfId="140" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="149" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="36" operator="equal">
+    <cfRule type="containsText" dxfId="148" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="36" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="137" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="146" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="cellIs" dxfId="134" priority="87" operator="equal">
+    <cfRule type="containsText" dxfId="143" priority="85" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="86" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="87" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="86" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="85" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="cellIs" dxfId="131" priority="24" operator="equal">
+    <cfRule type="containsText" dxfId="140" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="24" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="23" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB14">
-    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
+    <cfRule type="containsText" dxfId="137" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="3" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
-    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="134" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="12" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG13" xr:uid="{36BBBD28-7967-4193-A92E-3059AA51DEF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ13" xr:uid="{36BBBD28-7967-4193-A92E-3059AA51DEF6}">
       <formula1>"PRESENT , ABSENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4038,7 +4193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD10" sqref="AD10"/>
+      <selection pane="topRight" activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4068,7 +4223,9 @@
     <col min="24" max="24" width="15.33203125" customWidth="1"/>
     <col min="25" max="25" width="19.6640625" customWidth="1"/>
     <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.77734375" customWidth="1"/>
+    <col min="27" max="27" width="19.5546875" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" customWidth="1"/>
+    <col min="29" max="29" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -4154,19 +4311,19 @@
         <v>45926</v>
       </c>
       <c r="AB1" s="2">
-        <v>45927</v>
+        <v>45936</v>
       </c>
       <c r="AC1" s="2">
-        <v>45928</v>
+        <v>45937</v>
       </c>
       <c r="AD1" s="2">
-        <v>45929</v>
+        <v>45938</v>
       </c>
       <c r="AE1" s="2">
-        <v>45930</v>
+        <v>45939</v>
       </c>
       <c r="AF1" s="2">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="AG1" t="s">
         <v>14</v>
@@ -5043,347 +5200,347 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 Z4:Z7 AG12">
-    <cfRule type="containsText" dxfId="122" priority="296" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="131" priority="296" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="297" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="120" priority="279" operator="equal">
+    <cfRule type="containsText" dxfId="129" priority="277" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="278" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="279" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="278" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="277" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="cellIs" dxfId="117" priority="273" operator="equal">
+    <cfRule type="containsText" dxfId="126" priority="271" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="272" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="273" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="272" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="271" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="cellIs" dxfId="114" priority="285" operator="equal">
+    <cfRule type="containsText" dxfId="123" priority="283" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="284" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="285" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="284" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="283" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="cellIs" dxfId="111" priority="261" operator="equal">
+    <cfRule type="containsText" dxfId="120" priority="259" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="260" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="261" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="260" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="259" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="cellIs" dxfId="108" priority="255" operator="equal">
+    <cfRule type="containsText" dxfId="117" priority="253" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="254" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="255" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="254" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="253" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="cellIs" dxfId="105" priority="252" operator="equal">
+    <cfRule type="containsText" dxfId="114" priority="250" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="251" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="252" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="251" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="250" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="cellIs" dxfId="102" priority="219" operator="equal">
+    <cfRule type="containsText" dxfId="111" priority="217" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="218" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="219" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="218" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="217" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X11">
-    <cfRule type="containsText" dxfId="99" priority="224" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="108" priority="223" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="224" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="225" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="223" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="cellIs" dxfId="96" priority="216" operator="equal">
+    <cfRule type="containsText" dxfId="105" priority="214" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="215" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="216" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="215" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="214" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="containsText" dxfId="93" priority="164" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="102" priority="163" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="164" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="163" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="165" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="90" priority="198" operator="equal">
+    <cfRule type="containsText" dxfId="99" priority="196" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="197" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="198" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="197" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="196" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="cellIs" dxfId="87" priority="192" operator="equal">
+    <cfRule type="containsText" dxfId="96" priority="190" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="191" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="192" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="190" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="191" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="cellIs" dxfId="84" priority="186" operator="equal">
+    <cfRule type="containsText" dxfId="93" priority="184" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="185" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="186" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="184" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="185" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="cellIs" dxfId="81" priority="174" operator="equal">
+    <cfRule type="containsText" dxfId="90" priority="172" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="173" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="174" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="173" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="172" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AA14">
-    <cfRule type="containsText" dxfId="78" priority="124" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="87" priority="124" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="125" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="86" priority="125" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="126" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="cellIs" dxfId="75" priority="144" operator="equal">
+    <cfRule type="containsText" dxfId="84" priority="142" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="143" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="144" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="143" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="142" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11 AG12">
-    <cfRule type="containsText" dxfId="72" priority="295" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="81" priority="295" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z11 AB2:AG11">
-    <cfRule type="containsText" dxfId="71" priority="148" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="80" priority="148" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z13">
-    <cfRule type="cellIs" dxfId="70" priority="132" operator="equal">
+    <cfRule type="containsText" dxfId="79" priority="130" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="131" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="132" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="131" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="130" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="67" priority="138" operator="equal">
+    <cfRule type="containsText" dxfId="76" priority="136" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="137" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="138" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="137" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="136" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AA3">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="15" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:AA9">
-    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="70" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
+    <cfRule type="containsText" dxfId="69" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="51" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:AA12">
-    <cfRule type="containsText" dxfId="58" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="67" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="36" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA7">
-    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="20" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="containsText" dxfId="55" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA11">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="equal">
+    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="containsText" dxfId="40" priority="32" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="38" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
+    <cfRule type="containsText" dxfId="43" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="56" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="57" operator="equal">
       <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="55" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AG11 Z6:Z11">
-    <cfRule type="containsText" dxfId="31" priority="149" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="40" priority="149" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="150" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5398,11 +5555,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5425,13 +5582,20 @@
     <col min="17" max="17" width="17.33203125" customWidth="1"/>
     <col min="18" max="18" width="12.5546875" customWidth="1"/>
     <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="16.88671875" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:31" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="9">
         <v>45910</v>
       </c>
@@ -5477,8 +5641,47 @@
       <c r="R1" s="9">
         <v>45926</v>
       </c>
+      <c r="S1" s="9">
+        <v>45927</v>
+      </c>
+      <c r="T1" s="9">
+        <v>45928</v>
+      </c>
+      <c r="U1" s="9">
+        <v>45929</v>
+      </c>
+      <c r="V1" s="9">
+        <v>45930</v>
+      </c>
+      <c r="W1" s="9">
+        <v>45931</v>
+      </c>
+      <c r="X1" s="45">
+        <v>45932</v>
+      </c>
+      <c r="Y1" s="9">
+        <v>45933</v>
+      </c>
+      <c r="Z1" s="9">
+        <v>45934</v>
+      </c>
+      <c r="AA1" s="9">
+        <v>45935</v>
+      </c>
+      <c r="AB1" s="9">
+        <v>45936</v>
+      </c>
+      <c r="AC1" s="9">
+        <v>45937</v>
+      </c>
+      <c r="AD1" s="9">
+        <v>45938</v>
+      </c>
+      <c r="AE1" s="9">
+        <v>45939</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
@@ -5526,8 +5729,27 @@
       <c r="R2" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="S2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="27"/>
+      <c r="U2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
@@ -5573,8 +5795,23 @@
       <c r="R3" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
         <v>22</v>
       </c>
@@ -5621,8 +5858,23 @@
       <c r="R4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
         <v>23</v>
       </c>
@@ -5668,8 +5920,23 @@
       <c r="R5" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31" t="s">
         <v>24</v>
       </c>
@@ -5715,12 +5982,27 @@
       <c r="R6" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
@@ -5762,12 +6044,27 @@
       <c r="R7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
@@ -5809,12 +6106,27 @@
       <c r="R8" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
@@ -5856,12 +6168,27 @@
       <c r="R9" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="30"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="10" t="s">
@@ -5894,12 +6221,27 @@
       <c r="R10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:31" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="35"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="N11" s="10" t="s">
@@ -5917,9 +6259,31 @@
       <c r="R11" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="S2:T11"/>
+    <mergeCell ref="X2:X11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="G2:H11"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
@@ -5927,20 +6291,26 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5958,9 +6328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6667340-24C4-4574-9E4B-2059915EAD7D}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6648,101 +7018,401 @@
     <mergeCell ref="D17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="containsText" dxfId="26" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="35" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="34" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="48" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="containsText" dxfId="20" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B13">
-    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="5" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="14" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="36" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B4A3F6-27B9-4C3D-8ACF-939D2168B0D2}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="44" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43">
+        <v>35000</v>
+      </c>
+      <c r="G2" s="43">
+        <f t="shared" ref="G2:G4" si="0">F2-SUM(C2:E2)</f>
+        <v>35000</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="44" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43">
+        <v>35000</v>
+      </c>
+      <c r="G3" s="43">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40">
+        <v>9000</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G5" s="39">
+        <f>F5-SUM(C5:E5)</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G6" s="39">
+        <f t="shared" ref="G6:G13" si="1">F6-SUM(C6:E6)</f>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="40">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G8" s="39">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G9" s="39">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="40">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G10" s="39">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G11" s="39">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39">
+        <v>35000</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ql/RsR8HEtVXTq6dxgwzNKEn3PILcdDvZDRx9K1lXY6IaYoxeAmb20n9vxYiHDkNQp+KpcvZzBECmlu7y6LqGA==" saltValue="62jYXSNzWcf75ztXw4TKRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C2CD0-7DB4-480D-BB06-F2A9DF9503ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DF4AF-D32F-405C-B7BF-285174F8A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="93">
   <si>
     <t>SR NO</t>
   </si>
@@ -680,1341 +680,1466 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="288">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
+  <dxfs count="303">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3393,9 +3518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3635,17 +3760,20 @@
       <c r="AD2" s="35" t="s">
         <v>33</v>
       </c>
+      <c r="AE2" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ2">
         <f>COUNTIFS(B2:AA2, "&lt;&gt;HOLIDAY", B2:AA2, "&lt;&gt;WEEKEND HOLIDAY", B2:AA2, "&lt;&gt;")</f>
         <v>19</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK13" si="0">COUNTIF(C2:AI2,"PRESENT")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2:AL13" si="1">COUNTIF(C2:AI2,"PRESENT")/COUNTA(C2:AI2)*100</f>
-        <v>20</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -3723,17 +3851,20 @@
         <v>12</v>
       </c>
       <c r="AD3" s="35"/>
+      <c r="AE3" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ13" si="2">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
         <v>19</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>90.476190476190482</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
@@ -3811,6 +3942,9 @@
         <v>13</v>
       </c>
       <c r="AD4" s="35"/>
+      <c r="AE4" t="s">
+        <v>13</v>
+      </c>
       <c r="AJ4">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3821,7 +3955,7 @@
       </c>
       <c r="AL4">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
@@ -3899,13 +4033,16 @@
         <v>12</v>
       </c>
       <c r="AD5" s="35"/>
+      <c r="AE5" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ5">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL5">
         <f t="shared" si="1"/>
@@ -3987,17 +4124,20 @@
         <v>12</v>
       </c>
       <c r="AD6" s="35"/>
+      <c r="AE6" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL6">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>95.238095238095227</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -4075,17 +4215,20 @@
         <v>12</v>
       </c>
       <c r="AD7" s="35"/>
+      <c r="AE7" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ7">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL7">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -4163,17 +4306,20 @@
         <v>13</v>
       </c>
       <c r="AD8" s="35"/>
+      <c r="AE8" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL8">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -4251,17 +4397,20 @@
         <v>12</v>
       </c>
       <c r="AD9" s="35"/>
+      <c r="AE9" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ9">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL9">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>95.238095238095227</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -4339,17 +4488,20 @@
         <v>12</v>
       </c>
       <c r="AD10" s="35"/>
+      <c r="AE10" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL10">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
@@ -4403,13 +4555,16 @@
         <v>12</v>
       </c>
       <c r="AD11" s="35"/>
+      <c r="AE11" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ11">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AK11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL11">
         <f t="shared" si="1"/>
@@ -4467,17 +4622,20 @@
         <v>12</v>
       </c>
       <c r="AD12" s="35"/>
+      <c r="AE12" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AK12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL12">
         <f t="shared" si="1"/>
-        <v>91.666666666666657</v>
+        <v>92.307692307692307</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -4531,13 +4689,16 @@
         <v>12</v>
       </c>
       <c r="AD13" s="35"/>
+      <c r="AE13" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ13">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="AK13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL13">
         <f t="shared" si="1"/>
@@ -4570,6 +4731,9 @@
         <v>12</v>
       </c>
       <c r="AD14" s="35"/>
+      <c r="AE14" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4580,455 +4744,499 @@
     <mergeCell ref="AD2:AD14"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10">
-    <cfRule type="containsText" dxfId="287" priority="308" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="302" priority="320" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="321" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="cellIs" dxfId="285" priority="291" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="290" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="300" priority="303" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="299" priority="302" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="289" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="298" priority="301" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="282" priority="306" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="305" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="297" priority="318" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="296" priority="317" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="304" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="295" priority="316" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="cellIs" dxfId="279" priority="288" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="287" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="299" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="286" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="292" priority="298" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="cellIs" dxfId="276" priority="285" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="284" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="291" priority="297" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="290" priority="296" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="283" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="289" priority="295" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="273" priority="294" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="293" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="288" priority="306" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="287" priority="305" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="292" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="286" priority="304" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="cellIs" dxfId="270" priority="228" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="227" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="285" priority="240" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="239" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="226" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="283" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10">
-    <cfRule type="containsText" dxfId="267" priority="307" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="282" priority="319" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AD2:AK2 AE3:AI10 AJ3:AK13">
-    <cfRule type="containsText" dxfId="266" priority="280" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="X2:Y10 AD2 AF3:AI10 AJ3:AK13 AF2:AK2">
+    <cfRule type="containsText" dxfId="2" priority="292" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="cellIs" dxfId="265" priority="234" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="233" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="280" priority="246" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="279" priority="245" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="232" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="278" priority="244" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="262" priority="230" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="277" priority="242" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="229" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="276" priority="241" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="243" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="cellIs" dxfId="259" priority="174" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="172" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="274" priority="186" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="184" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="173" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="272" priority="185" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="177" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="175" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="271" priority="189" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="187" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="176" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="269" priority="188" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="cellIs" dxfId="253" priority="159" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="158" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="268" priority="171" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="170" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="157" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="266" priority="169" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="250" priority="171" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="170" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="265" priority="183" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="182" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="169" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="263" priority="181" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="cellIs" dxfId="247" priority="153" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="152" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="262" priority="165" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="164" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="151" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="260" priority="163" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="cellIs" dxfId="244" priority="147" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="146" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="259" priority="159" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="258" priority="158" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="145" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="257" priority="157" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="cellIs" dxfId="241" priority="141" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="140" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="256" priority="153" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="152" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="139" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="254" priority="151" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA7">
-    <cfRule type="containsText" dxfId="238" priority="134" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="253" priority="146" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="133" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="252" priority="145" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="147" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA8">
-    <cfRule type="containsText" dxfId="235" priority="127" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="250" priority="139" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="128" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="249" priority="140" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="141" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="containsText" dxfId="232" priority="122" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="247" priority="134" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="123" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="121" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="246" priority="135" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="133" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA10">
-    <cfRule type="cellIs" dxfId="229" priority="117" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="116" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="244" priority="129" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="128" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="115" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="242" priority="127" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA11">
-    <cfRule type="cellIs" dxfId="226" priority="111" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="110" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="241" priority="123" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="122" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="109" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="239" priority="121" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA14">
-    <cfRule type="cellIs" dxfId="223" priority="105" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="238" priority="117" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="116" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="103" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="236" priority="115" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="cellIs" dxfId="220" priority="99" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="98" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="235" priority="111" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="110" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="97" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="233" priority="109" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="containsText" dxfId="217" priority="154" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="232" priority="166" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="155" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="231" priority="167" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="168" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="cellIs" dxfId="214" priority="93" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="92" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="229" priority="105" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="104" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="91" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="227" priority="103" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB14">
-    <cfRule type="cellIs" dxfId="211" priority="72" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="71" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="226" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="83" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="70" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="224" priority="82" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
-    <cfRule type="cellIs" dxfId="208" priority="81" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="80" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="223" priority="93" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="92" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="79" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="221" priority="91" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="containsText" dxfId="205" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="219" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="54" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="202" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="37" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="217" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="216" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="38" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="215" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC6">
-    <cfRule type="containsText" dxfId="199" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="214" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="213" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="cellIs" dxfId="196" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="44" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="211" priority="57" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="43" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="209" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AC7">
-    <cfRule type="containsText" dxfId="193" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="208" priority="65" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="207" priority="64" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="66" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC8">
-    <cfRule type="containsText" dxfId="190" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="205" priority="71" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="60" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="204" priority="72" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="70" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="187" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="202" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="200" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AC10">
-    <cfRule type="containsText" dxfId="184" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="199" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="198" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC11">
-    <cfRule type="cellIs" dxfId="181" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="196" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="195" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="22" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="194" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC12">
-    <cfRule type="cellIs" dxfId="178" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="17" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="193" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="16" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="191" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="cellIs" dxfId="175" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="190" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="10" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="188" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13:AC14">
-    <cfRule type="containsText" dxfId="172" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="187" priority="17" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="186" priority="16" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="18" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="184" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="183" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AK2 X2:Y10 AE3:AI10 AJ3:AK13">
-    <cfRule type="containsText" dxfId="166" priority="281" operator="containsText" text="PRESENT">
+  <conditionalFormatting sqref="AD2 X2:Y10 AF3:AI10 AJ3:AK13 AF2:AK2">
+    <cfRule type="containsText" dxfId="1" priority="293" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="294" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AE2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AE2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE3">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AE2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AE2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE14">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AE3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AE3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE5:AE14">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AE5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AE5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6128,468 +6336,468 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 Z4:Z7">
-    <cfRule type="cellIs" dxfId="164" priority="345" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="344" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="179" priority="345" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="344" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="162" priority="327" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="326" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="177" priority="327" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="326" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="325" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="175" priority="325" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="cellIs" dxfId="159" priority="321" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="320" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="174" priority="320" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="319" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="173" priority="319" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="321" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="containsText" dxfId="156" priority="332" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="171" priority="333" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="332" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="331" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="169" priority="331" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="333" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="cellIs" dxfId="153" priority="309" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="308" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="168" priority="309" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="308" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="307" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="166" priority="307" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="cellIs" dxfId="150" priority="303" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="301" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="165" priority="301" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="302" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="164" priority="303" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="302" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="cellIs" dxfId="147" priority="300" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="299" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="162" priority="300" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="299" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="298" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="160" priority="298" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="cellIs" dxfId="144" priority="267" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="266" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="159" priority="267" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="266" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="265" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="157" priority="265" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X11">
-    <cfRule type="cellIs" dxfId="141" priority="273" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="272" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="156" priority="273" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="272" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="271" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="154" priority="271" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="cellIs" dxfId="138" priority="264" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="263" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="153" priority="264" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="263" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="262" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="151" priority="262" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="containsText" dxfId="135" priority="211" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="150" priority="213" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="212" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="211" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="212" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="213" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="132" priority="246" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="245" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="147" priority="245" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="244" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="146" priority="244" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="246" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="cellIs" dxfId="129" priority="240" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="239" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="144" priority="240" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="239" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="238" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="142" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="containsText" dxfId="126" priority="232" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="141" priority="234" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="233" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="139" priority="232" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="234" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="233" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="containsText" dxfId="123" priority="220" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="138" priority="220" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="222" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="221" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="137" priority="222" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AA14">
-    <cfRule type="containsText" dxfId="120" priority="172" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="135" priority="174" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="173" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="172" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="173" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="174" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="cellIs" dxfId="117" priority="192" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="191" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="132" priority="192" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="191" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="190" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="130" priority="190" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11">
-    <cfRule type="containsText" dxfId="114" priority="343" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="129" priority="343" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z11 AH2:AH12 AB10:AF10">
-    <cfRule type="containsText" dxfId="113" priority="196" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="128" priority="196" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z13">
-    <cfRule type="containsText" dxfId="112" priority="179" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="127" priority="178" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="180" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="179" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="178" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="180" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="109" priority="184" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="124" priority="184" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="185" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="123" priority="185" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="186" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:AA12">
-    <cfRule type="containsText" dxfId="106" priority="82" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="121" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="83" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="82" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="84" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="83" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:AB9">
-    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="118" priority="98" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="117" priority="99" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="97" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AF3">
-    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="115" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="113" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA7">
-    <cfRule type="containsText" dxfId="97" priority="68" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="112" priority="69" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="68" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="69" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="67" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="110" priority="67" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6">
-    <cfRule type="containsText" dxfId="94" priority="92" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="109" priority="91" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="92" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    <cfRule type="cellIs" dxfId="107" priority="93" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA11">
-    <cfRule type="cellIs" dxfId="91" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="106" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="88" priority="85" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="103" priority="87" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="86" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="85" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="cellIs" dxfId="85" priority="105" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="103" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="104" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AB11">
-    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="97" priority="80" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="96" priority="81" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AF2">
-    <cfRule type="cellIs" dxfId="79" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="94" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="49" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    <cfRule type="cellIs" dxfId="92" priority="51" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AF5">
-    <cfRule type="cellIs" dxfId="76" priority="54" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="91" priority="52" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    <cfRule type="cellIs" dxfId="89" priority="54" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AF8">
-    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="88" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="44" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="85" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="44" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="82" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="80" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7">
-    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="26" operator="containsText" text="PRESENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="containsText" dxfId="73" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12:AC13">
+    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AF9">
+    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="containsText" dxfId="58" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AF9">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AF11">
-    <cfRule type="cellIs" dxfId="46" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="10" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="61" priority="10" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG13">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AG2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH12 Z6:Z11 AB10:AF10">
-    <cfRule type="containsText" dxfId="40" priority="197" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="55" priority="197" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="198" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6606,7 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
@@ -7407,24 +7615,24 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8132,101 +8340,101 @@
     <mergeCell ref="D17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="containsText" dxfId="32" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B13">
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="11" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8509,22 +8717,22 @@
   <sheetProtection algorithmName="SHA-512" hashValue="Ql/RsR8HEtVXTq6dxgwzNKEn3PILcdDvZDRx9K1lXY6IaYoxeAmb20n9vxYiHDkNQp+KpcvZzBECmlu7y6LqGA==" saltValue="62jYXSNzWcf75ztXw4TKRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DF4AF-D32F-405C-B7BF-285174F8A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD71285-74B9-4830-BCFE-13FD8B056C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="95">
   <si>
     <t>SR NO</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>TOTAL LECTURES</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -680,2531 +686,2506 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="303">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+  <dxfs count="300">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3520,7 +3501,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG15" sqref="AG15"/>
+      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3763,17 +3744,20 @@
       <c r="AE2" t="s">
         <v>12</v>
       </c>
+      <c r="AF2" t="s">
+        <v>93</v>
+      </c>
       <c r="AJ2">
         <f>COUNTIFS(B2:AA2, "&lt;&gt;HOLIDAY", B2:AA2, "&lt;&gt;WEEKEND HOLIDAY", B2:AA2, "&lt;&gt;")</f>
         <v>19</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK13" si="0">COUNTIF(C2:AI2,"PRESENT")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2:AL13" si="1">COUNTIF(C2:AI2,"PRESENT")/COUNTA(C2:AI2)*100</f>
-        <v>23.076923076923077</v>
+        <v>25.925925925925924</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -3854,17 +3838,20 @@
       <c r="AE3" t="s">
         <v>12</v>
       </c>
+      <c r="AF3" t="s">
+        <v>93</v>
+      </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ13" si="2">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
         <v>19</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL3">
         <f t="shared" si="1"/>
-        <v>90.476190476190482</v>
+        <v>90.909090909090907</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
@@ -3945,6 +3932,9 @@
       <c r="AE4" t="s">
         <v>13</v>
       </c>
+      <c r="AF4" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ4">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3955,7 +3945,7 @@
       </c>
       <c r="AL4">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>81.818181818181827</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
@@ -4036,6 +4026,9 @@
       <c r="AE5" t="s">
         <v>12</v>
       </c>
+      <c r="AF5" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ5">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4046,7 +4039,7 @@
       </c>
       <c r="AL5">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>95.454545454545453</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
@@ -4127,17 +4120,20 @@
       <c r="AE6" t="s">
         <v>12</v>
       </c>
+      <c r="AF6" t="s">
+        <v>93</v>
+      </c>
       <c r="AJ6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6">
         <f t="shared" si="1"/>
-        <v>95.238095238095227</v>
+        <v>95.454545454545453</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -4218,17 +4214,20 @@
       <c r="AE7" t="s">
         <v>12</v>
       </c>
+      <c r="AF7" t="s">
+        <v>93</v>
+      </c>
       <c r="AJ7">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL7">
         <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <v>86.36363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -4309,6 +4308,9 @@
       <c r="AE8" t="s">
         <v>12</v>
       </c>
+      <c r="AF8" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ8">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4319,7 +4321,7 @@
       </c>
       <c r="AL8">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>63.636363636363633</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -4400,17 +4402,20 @@
       <c r="AE9" t="s">
         <v>12</v>
       </c>
+      <c r="AF9" t="s">
+        <v>93</v>
+      </c>
       <c r="AJ9">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL9">
         <f t="shared" si="1"/>
-        <v>95.238095238095227</v>
+        <v>95.454545454545453</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -4491,17 +4496,20 @@
       <c r="AE10" t="s">
         <v>12</v>
       </c>
+      <c r="AF10" t="s">
+        <v>93</v>
+      </c>
       <c r="AJ10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AK10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL10">
         <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+        <v>68.181818181818173</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
@@ -4558,6 +4566,9 @@
       <c r="AE11" t="s">
         <v>12</v>
       </c>
+      <c r="AF11" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ11">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4568,7 +4579,7 @@
       </c>
       <c r="AL11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -4625,6 +4636,9 @@
       <c r="AE12" t="s">
         <v>12</v>
       </c>
+      <c r="AF12" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4635,7 +4649,7 @@
       </c>
       <c r="AL12">
         <f t="shared" si="1"/>
-        <v>92.307692307692307</v>
+        <v>85.714285714285708</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -4692,6 +4706,9 @@
       <c r="AE13" t="s">
         <v>12</v>
       </c>
+      <c r="AF13" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4702,7 +4719,7 @@
       </c>
       <c r="AL13">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>92.857142857142861</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -4733,6 +4750,9 @@
       <c r="AD14" s="35"/>
       <c r="AE14" t="s">
         <v>12</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4744,500 +4764,498 @@
     <mergeCell ref="AD2:AD14"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10">
-    <cfRule type="containsText" dxfId="302" priority="320" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="299" priority="321" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="320" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="321" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="cellIs" dxfId="300" priority="303" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="302" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="297" priority="301" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="303" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="302" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="301" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="297" priority="318" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="317" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="294" priority="318" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="317" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="316" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="292" priority="316" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="299" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="291" priority="300" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="290" priority="299" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="298" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="289" priority="298" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="cellIs" dxfId="291" priority="297" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="296" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="288" priority="296" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="295" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="287" priority="297" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="295" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="288" priority="306" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="305" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="285" priority="306" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="284" priority="305" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="304" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="283" priority="304" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="cellIs" dxfId="285" priority="240" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="239" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="282" priority="239" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="238" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="281" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="240" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10">
-    <cfRule type="containsText" dxfId="282" priority="319" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="279" priority="319" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AD2 AF3:AI10 AJ3:AK13 AF2:AK2">
-    <cfRule type="containsText" dxfId="2" priority="292" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="X2:Y10 AF3:AI10 AJ3:AK13 AF11:AF14">
+    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="293" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="292" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="cellIs" dxfId="280" priority="246" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="245" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="275" priority="246" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="245" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="244" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="273" priority="244" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="277" priority="242" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="272" priority="243" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="241" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="242" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="241" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="243" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="cellIs" dxfId="274" priority="186" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="184" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="269" priority="187" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="185" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="268" priority="189" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="267" priority="188" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="189" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="187" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="266" priority="186" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="185" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="264" priority="184" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="188" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="cellIs" dxfId="268" priority="171" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="170" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="263" priority="171" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="170" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="169" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="261" priority="169" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="265" priority="183" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="182" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="260" priority="183" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="259" priority="182" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="181" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="258" priority="181" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="cellIs" dxfId="262" priority="165" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="164" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="257" priority="165" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="163" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="164" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="163" operator="containsText" text="ABSENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA5">
+    <cfRule type="cellIs" dxfId="254" priority="159" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="158" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="157" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="cellIs" dxfId="259" priority="159" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="158" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="157" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="cellIs" dxfId="256" priority="153" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="152" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="251" priority="153" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="152" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="151" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="249" priority="151" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA7">
-    <cfRule type="containsText" dxfId="253" priority="146" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="248" priority="147" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="146" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="145" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="246" priority="145" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="147" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA8">
-    <cfRule type="containsText" dxfId="250" priority="139" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="245" priority="141" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="140" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="139" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="140" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="141" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="containsText" dxfId="247" priority="134" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="242" priority="133" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="135" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="240" priority="134" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="135" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="133" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA10">
-    <cfRule type="cellIs" dxfId="244" priority="129" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="128" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="239" priority="129" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="127" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="128" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="127" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA11">
-    <cfRule type="cellIs" dxfId="241" priority="123" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="122" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="236" priority="121" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="122" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="121" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
+    <cfRule type="cellIs" dxfId="234" priority="123" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA14">
-    <cfRule type="cellIs" dxfId="238" priority="117" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="116" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="233" priority="117" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="232" priority="116" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="115" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="231" priority="115" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="cellIs" dxfId="235" priority="111" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="110" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="230" priority="109" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="111" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="228" priority="110" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="109" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="containsText" dxfId="232" priority="166" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="227" priority="166" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="167" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="226" priority="167" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="168" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="cellIs" dxfId="229" priority="105" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="224" priority="105" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="223" priority="104" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="103" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="222" priority="103" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB14">
-    <cfRule type="cellIs" dxfId="226" priority="84" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="83" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="221" priority="83" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="82" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="220" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="219" priority="82" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
-    <cfRule type="cellIs" dxfId="223" priority="93" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="92" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="218" priority="93" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="92" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="91" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="216" priority="91" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="containsText" dxfId="220" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="215" priority="54" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="53" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="53" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="54" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="217" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="212" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="211" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC6">
-    <cfRule type="containsText" dxfId="214" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="209" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="208" priority="59" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="60" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="58" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="207" priority="58" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="cellIs" dxfId="211" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="206" priority="57" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="204" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AC7">
-    <cfRule type="containsText" dxfId="208" priority="65" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="203" priority="66" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="65" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="64" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="201" priority="64" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="66" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC8">
-    <cfRule type="containsText" dxfId="205" priority="71" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="200" priority="72" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="199" priority="71" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="72" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="70" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="198" priority="70" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="202" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="197" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="195" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AC10">
-    <cfRule type="containsText" dxfId="199" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="194" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC11">
-    <cfRule type="cellIs" dxfId="196" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="191" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC10)))</formula>
+    <cfRule type="cellIs" dxfId="189" priority="36" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC12">
-    <cfRule type="cellIs" dxfId="193" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="188" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="187" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="186" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="cellIs" dxfId="190" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="185" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="22" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="183" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13:AC14">
-    <cfRule type="containsText" dxfId="187" priority="17" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="182" priority="17" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="16" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="181" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="16" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="containsText" dxfId="184" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="179" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2 X2:Y10 AF3:AI10 AJ3:AK13 AF2:AK2">
-    <cfRule type="containsText" dxfId="1" priority="293" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="294" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AK2">
+    <cfRule type="cellIs" dxfId="176" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="175" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AD2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AD2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE3">
+    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AE2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AE2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE3">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AE2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AE2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE14">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="170" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AE3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AE3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE14">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="167" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AE5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AE5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AE5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6336,468 +6354,468 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 Z4:Z7">
-    <cfRule type="cellIs" dxfId="179" priority="345" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="344" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="164" priority="345" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="344" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="177" priority="327" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="326" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="162" priority="327" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="326" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="325" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="160" priority="325" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="containsText" dxfId="174" priority="320" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="159" priority="320" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="319" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="158" priority="319" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="321" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="cellIs" dxfId="171" priority="333" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="332" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="156" priority="333" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="332" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="331" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="154" priority="331" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="cellIs" dxfId="168" priority="309" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="308" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="153" priority="309" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="308" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="307" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="151" priority="307" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="containsText" dxfId="165" priority="301" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="150" priority="301" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="303" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="302" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="149" priority="303" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="302" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="cellIs" dxfId="162" priority="300" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="299" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="147" priority="300" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="299" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="298" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="145" priority="298" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="cellIs" dxfId="159" priority="267" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="266" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="144" priority="267" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="266" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="265" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="142" priority="265" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X11">
-    <cfRule type="cellIs" dxfId="156" priority="273" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="272" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="141" priority="273" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="272" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="271" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="139" priority="271" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="cellIs" dxfId="153" priority="264" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="263" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="138" priority="264" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="263" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="262" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="136" priority="262" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="150" priority="213" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="212" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="135" priority="213" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="212" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="211" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="133" priority="211" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="147" priority="245" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="132" priority="245" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="244" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="131" priority="244" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="246" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="cellIs" dxfId="144" priority="240" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="239" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="129" priority="240" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="239" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="238" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="127" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="cellIs" dxfId="141" priority="234" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="233" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="126" priority="234" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="233" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="232" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="124" priority="232" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="containsText" dxfId="138" priority="220" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="123" priority="220" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="222" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="221" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="122" priority="222" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AA14">
-    <cfRule type="cellIs" dxfId="135" priority="174" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="173" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="120" priority="174" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="173" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="172" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="118" priority="172" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="cellIs" dxfId="132" priority="192" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="191" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="117" priority="192" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="191" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="190" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="115" priority="190" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11">
-    <cfRule type="containsText" dxfId="129" priority="343" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="114" priority="343" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:Z11 AH2:AH12 AB10:AF10">
-    <cfRule type="containsText" dxfId="128" priority="196" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="113" priority="196" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z13">
-    <cfRule type="containsText" dxfId="127" priority="178" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="112" priority="178" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="180" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="179" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="111" priority="180" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="179" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="124" priority="184" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="109" priority="184" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="185" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="108" priority="185" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="186" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:AA12">
-    <cfRule type="cellIs" dxfId="121" priority="84" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="83" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="106" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="83" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="82" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="104" priority="82" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:AB9">
-    <cfRule type="containsText" dxfId="118" priority="98" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="99" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="97" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="102" priority="99" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AF3">
-    <cfRule type="cellIs" dxfId="115" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="98" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA7">
-    <cfRule type="cellIs" dxfId="112" priority="69" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="68" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="97" priority="69" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="68" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="67" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="95" priority="67" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6">
-    <cfRule type="containsText" dxfId="109" priority="91" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="94" priority="91" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="92" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA11">
-    <cfRule type="containsText" dxfId="106" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="91" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="90" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="cellIs" dxfId="103" priority="87" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="86" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="85" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="100" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="85" priority="104" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="103" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="84" priority="105" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="103" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AB11">
-    <cfRule type="containsText" dxfId="97" priority="80" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="81" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="79" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AF2">
-    <cfRule type="containsText" dxfId="94" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="79" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="78" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="51" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AF5">
-    <cfRule type="containsText" dxfId="91" priority="52" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="76" priority="52" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="75" priority="53" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AF8">
-    <cfRule type="cellIs" dxfId="88" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="73" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="containsText" dxfId="85" priority="43" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="70" priority="43" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="44" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="44" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="82" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="65" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7">
-    <cfRule type="cellIs" dxfId="79" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="76" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="26" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="26" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="25" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
-    <cfRule type="containsText" dxfId="73" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="55" priority="16" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
-    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AF9">
-    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AF11">
-    <cfRule type="containsText" dxfId="61" priority="10" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG2:AG13">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AG2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2:AH12 Z6:Z11 AB10:AF10">
-    <cfRule type="containsText" dxfId="55" priority="197" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="40" priority="197" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="198" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7615,24 +7633,24 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8340,101 +8358,101 @@
     <mergeCell ref="D17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="32" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="38" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B13">
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="26" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="11" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="23" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8717,22 +8735,22 @@
   <sheetProtection algorithmName="SHA-512" hashValue="Ql/RsR8HEtVXTq6dxgwzNKEn3PILcdDvZDRx9K1lXY6IaYoxeAmb20n9vxYiHDkNQp+KpcvZzBECmlu7y6LqGA==" saltValue="62jYXSNzWcf75ztXw4TKRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD71285-74B9-4830-BCFE-13FD8B056C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3B259E-D281-47CF-A236-F7D25FEE16D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="95">
   <si>
     <t>SR NO</t>
   </si>
@@ -401,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +454,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6FFE6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -681,2511 +687,3089 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="300">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
+  <dxfs count="369">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3499,9 +4083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7792C5-B7BB-42C0-A798-F75287AB83FD}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG14" sqref="AG14"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3747,17 +4331,20 @@
       <c r="AF2" t="s">
         <v>93</v>
       </c>
+      <c r="AG2" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ2">
         <f>COUNTIFS(B2:AA2, "&lt;&gt;HOLIDAY", B2:AA2, "&lt;&gt;WEEKEND HOLIDAY", B2:AA2, "&lt;&gt;")</f>
         <v>19</v>
       </c>
       <c r="AK2">
-        <f t="shared" ref="AK2:AK13" si="0">COUNTIF(C2:AI2,"PRESENT")</f>
-        <v>7</v>
+        <f>COUNTIF(C2:AI2,"PRESENT")</f>
+        <v>8</v>
       </c>
       <c r="AL2">
-        <f t="shared" ref="AL2:AL13" si="1">COUNTIF(C2:AI2,"PRESENT")/COUNTA(C2:AI2)*100</f>
-        <v>25.925925925925924</v>
+        <f>COUNTIF(C2:AI2,"PRESENT")/COUNTA(C2:AI2)*100</f>
+        <v>28.571428571428569</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -3841,17 +4428,20 @@
       <c r="AF3" t="s">
         <v>93</v>
       </c>
+      <c r="AG3" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ13" si="2">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
+        <f t="shared" ref="AJ3:AJ13" si="0">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
         <v>19</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>COUNTIF(C3:AI3,"PRESENT")</f>
+        <v>21</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+        <f>COUNTIF(C3:AI3,"PRESENT")/COUNTA(C3:AI3)*100</f>
+        <v>91.304347826086953</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
@@ -3935,17 +4525,20 @@
       <c r="AF4" t="s">
         <v>94</v>
       </c>
+      <c r="AG4" t="s">
+        <v>13</v>
+      </c>
       <c r="AJ4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(C4:AI4,"PRESENT")</f>
         <v>18</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="1"/>
-        <v>81.818181818181827</v>
+        <f>COUNTIF(C4:AI4,"PRESENT")/COUNTA(C4:AI4)*100</f>
+        <v>78.260869565217391</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
@@ -4029,17 +4622,20 @@
       <c r="AF5" t="s">
         <v>94</v>
       </c>
+      <c r="AG5" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>COUNTIF(C5:AI5,"PRESENT")</f>
+        <v>22</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="1"/>
-        <v>95.454545454545453</v>
+        <f>COUNTIF(C5:AI5,"PRESENT")/COUNTA(C5:AI5)*100</f>
+        <v>95.652173913043484</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
@@ -4123,17 +4719,20 @@
       <c r="AF6" t="s">
         <v>93</v>
       </c>
+      <c r="AG6" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>COUNTIF(C6:AI6,"PRESENT")</f>
+        <v>22</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="1"/>
-        <v>95.454545454545453</v>
+        <f>COUNTIF(C6:AI6,"PRESENT")/COUNTA(C6:AI6)*100</f>
+        <v>95.652173913043484</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
@@ -4217,17 +4816,20 @@
       <c r="AF7" t="s">
         <v>93</v>
       </c>
+      <c r="AG7" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>COUNTIF(C7:AI7,"PRESENT")</f>
+        <v>20</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="1"/>
-        <v>86.36363636363636</v>
+        <f>COUNTIF(C7:AI7,"PRESENT")/COUNTA(C7:AI7)*100</f>
+        <v>86.956521739130437</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -4311,17 +4913,20 @@
       <c r="AF8" t="s">
         <v>94</v>
       </c>
+      <c r="AG8" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>COUNTIF(C8:AI8,"PRESENT")</f>
+        <v>15</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="1"/>
-        <v>63.636363636363633</v>
+        <f>COUNTIF(C8:AI8,"PRESENT")/COUNTA(C8:AI8)*100</f>
+        <v>65.217391304347828</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -4405,17 +5010,20 @@
       <c r="AF9" t="s">
         <v>93</v>
       </c>
+      <c r="AG9" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>COUNTIF(C9:AI9,"PRESENT")</f>
+        <v>22</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="1"/>
-        <v>95.454545454545453</v>
+        <f>COUNTIF(C9:AI9,"PRESENT")/COUNTA(C9:AI9)*100</f>
+        <v>95.652173913043484</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -4499,17 +5107,20 @@
       <c r="AF10" t="s">
         <v>93</v>
       </c>
+      <c r="AG10" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>COUNTIF(C10:AI10,"PRESENT")</f>
+        <v>16</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="1"/>
-        <v>68.181818181818173</v>
+        <f>COUNTIF(C10:AI10,"PRESENT")/COUNTA(C10:AI10)*100</f>
+        <v>69.565217391304344</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
@@ -4569,17 +5180,20 @@
       <c r="AF11" t="s">
         <v>94</v>
       </c>
+      <c r="AG11" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNTIF(C11:AI11,"PRESENT")</f>
+        <v>14</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="1"/>
-        <v>92.857142857142861</v>
+        <f>COUNTIF(C11:AI11,"PRESENT")/COUNTA(C11:AI11)*100</f>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
@@ -4639,17 +5253,20 @@
       <c r="AF12" t="s">
         <v>94</v>
       </c>
+      <c r="AG12" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>COUNTIF(C12:AI12,"PRESENT")</f>
+        <v>13</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <f>COUNTIF(C12:AI12,"PRESENT")/COUNTA(C12:AI12)*100</f>
+        <v>86.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
@@ -4709,17 +5326,20 @@
       <c r="AF13" t="s">
         <v>94</v>
       </c>
+      <c r="AG13" t="s">
+        <v>12</v>
+      </c>
       <c r="AJ13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>COUNTIF(C13:AI13,"PRESENT")</f>
+        <v>14</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="1"/>
-        <v>92.857142857142861</v>
+        <f>COUNTIF(C13:AI13,"PRESENT")/COUNTA(C13:AI13)*100</f>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
@@ -4753,6 +5373,9 @@
       </c>
       <c r="AF14" t="s">
         <v>94</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4764,498 +5387,564 @@
     <mergeCell ref="AD2:AD14"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10">
-    <cfRule type="cellIs" dxfId="299" priority="321" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="320" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="368" priority="353" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="367" priority="354" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="297" priority="301" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="366" priority="334" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="303" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="302" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="365" priority="335" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="336" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="294" priority="318" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="317" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="363" priority="349" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="362" priority="350" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="316" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
+    <cfRule type="cellIs" dxfId="361" priority="351" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="cellIs" dxfId="291" priority="300" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="299" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="360" priority="331" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="359" priority="332" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="298" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
+    <cfRule type="cellIs" dxfId="358" priority="333" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="288" priority="296" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="357" priority="328" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="356" priority="329" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="297" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="295" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
+    <cfRule type="cellIs" dxfId="355" priority="330" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="cellIs" dxfId="285" priority="306" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="305" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="354" priority="337" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="353" priority="338" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="304" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
+    <cfRule type="cellIs" dxfId="352" priority="339" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="282" priority="239" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="351" priority="271" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="350" priority="272" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="238" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="273" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10">
-    <cfRule type="containsText" dxfId="279" priority="319" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="348" priority="352" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AF3:AI10 AJ3:AK13 AF11:AF14">
-    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="293" operator="containsText" text="PRESENT">
+  <conditionalFormatting sqref="X2:Y10 AJ3:AK13 AF3:AF14 AI3:AI10">
+    <cfRule type="containsText" dxfId="347" priority="325" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="326" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="292" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
+    <cfRule type="cellIs" dxfId="345" priority="327" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="cellIs" dxfId="275" priority="246" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="245" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="344" priority="277" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="343" priority="278" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="244" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
+    <cfRule type="cellIs" dxfId="342" priority="279" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="cellIs" dxfId="272" priority="243" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="241" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="341" priority="274" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="242" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="340" priority="275" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="276" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="containsText" dxfId="269" priority="187" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="338" priority="217" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="189" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="188" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="337" priority="218" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="186" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="185" operator="containsText" text="PRESENT">
+    <cfRule type="cellIs" dxfId="336" priority="219" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="335" priority="220" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="184" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    <cfRule type="cellIs" dxfId="333" priority="222" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="cellIs" dxfId="263" priority="171" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="170" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="332" priority="202" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="331" priority="203" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="169" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="330" priority="204" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3">
+    <cfRule type="containsText" dxfId="329" priority="214" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="328" priority="215" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="216" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="containsText" dxfId="326" priority="196" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="197" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="198" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA5">
+    <cfRule type="containsText" dxfId="323" priority="190" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="191" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="192" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA6">
+    <cfRule type="containsText" dxfId="320" priority="184" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="319" priority="185" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="186" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6:AA7">
+    <cfRule type="containsText" dxfId="317" priority="178" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="316" priority="179" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="180" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7:AA8">
+    <cfRule type="containsText" dxfId="314" priority="172" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="173" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="174" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA8:AA9">
+    <cfRule type="containsText" dxfId="311" priority="166" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="167" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="168" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9:AA10">
+    <cfRule type="containsText" dxfId="308" priority="160" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="307" priority="161" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="162" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA10:AA11">
+    <cfRule type="containsText" dxfId="305" priority="154" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="304" priority="155" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="156" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AA14">
+    <cfRule type="containsText" dxfId="302" priority="148" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="149" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="150" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AA13">
+    <cfRule type="containsText" dxfId="299" priority="142" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="143" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="144" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AB2">
+    <cfRule type="containsText" dxfId="296" priority="199" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3">
-    <cfRule type="cellIs" dxfId="260" priority="183" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="182" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="181" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4">
-    <cfRule type="cellIs" dxfId="257" priority="165" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="163" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="164" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="cellIs" dxfId="254" priority="159" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="158" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="157" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="cellIs" dxfId="251" priority="153" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="152" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="151" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA6:AA7">
-    <cfRule type="cellIs" dxfId="248" priority="147" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="146" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="145" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AA8">
-    <cfRule type="cellIs" dxfId="245" priority="141" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="140" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="139" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="containsText" dxfId="242" priority="133" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="135" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="134" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA9:AA10">
-    <cfRule type="cellIs" dxfId="239" priority="129" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="127" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="128" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AA11">
-    <cfRule type="containsText" dxfId="236" priority="121" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="122" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="123" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11:AA14">
-    <cfRule type="cellIs" dxfId="233" priority="117" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="116" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="115" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="230" priority="109" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="111" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="110" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="containsText" dxfId="227" priority="166" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="167" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="295" priority="200" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="201" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="cellIs" dxfId="224" priority="105" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="293" priority="136" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="292" priority="137" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="103" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
+    <cfRule type="cellIs" dxfId="291" priority="138" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB14">
-    <cfRule type="containsText" dxfId="221" priority="83" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="290" priority="115" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="116" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="84" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="82" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
+    <cfRule type="cellIs" dxfId="288" priority="117" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
-    <cfRule type="cellIs" dxfId="218" priority="93" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="92" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="287" priority="124" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="125" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="91" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
+    <cfRule type="cellIs" dxfId="285" priority="126" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="cellIs" dxfId="215" priority="54" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="53" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="284" priority="85" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="86" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="52" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC2)))</formula>
+    <cfRule type="cellIs" dxfId="282" priority="87" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="212" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="281" priority="82" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="280" priority="83" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="49" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
+    <cfRule type="cellIs" dxfId="279" priority="84" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC6">
-    <cfRule type="cellIs" dxfId="209" priority="60" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="59" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="278" priority="91" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="92" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="58" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC4)))</formula>
+    <cfRule type="cellIs" dxfId="276" priority="93" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="cellIs" dxfId="206" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="275" priority="88" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="89" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="55" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC5)))</formula>
+    <cfRule type="cellIs" dxfId="273" priority="90" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AC7">
-    <cfRule type="cellIs" dxfId="203" priority="66" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="65" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="272" priority="97" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="271" priority="98" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="64" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
+    <cfRule type="cellIs" dxfId="270" priority="99" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC8">
-    <cfRule type="cellIs" dxfId="200" priority="72" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="71" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="269" priority="103" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="268" priority="104" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="70" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
+    <cfRule type="cellIs" dxfId="267" priority="105" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="197" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="266" priority="79" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="80" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="264" priority="81" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AC10">
+    <cfRule type="containsText" dxfId="263" priority="73" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AC10">
-    <cfRule type="cellIs" dxfId="194" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="262" priority="74" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
+    <cfRule type="cellIs" dxfId="261" priority="75" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC11">
-    <cfRule type="containsText" dxfId="191" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="260" priority="67" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="259" priority="68" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="69" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC12">
-    <cfRule type="cellIs" dxfId="188" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="257" priority="61" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="256" priority="62" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
+    <cfRule type="cellIs" dxfId="255" priority="63" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="cellIs" dxfId="185" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="254" priority="55" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    <cfRule type="cellIs" dxfId="252" priority="57" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13:AC14">
-    <cfRule type="containsText" dxfId="182" priority="17" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="251" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
+    <cfRule type="cellIs" dxfId="249" priority="51" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="cellIs" dxfId="179" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="248" priority="46" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="247" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC14)))</formula>
+    <cfRule type="cellIs" dxfId="246" priority="48" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AK2">
-    <cfRule type="cellIs" dxfId="176" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="11" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="245" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AD2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="244" priority="44" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AD2)))</formula>
+    <cfRule type="cellIs" dxfId="243" priority="45" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE3">
-    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="8" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="242" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AE2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="241" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AE2)))</formula>
+    <cfRule type="cellIs" dxfId="240" priority="42" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE14">
-    <cfRule type="containsText" dxfId="170" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="239" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AE3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="238" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AE3)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AE14">
-    <cfRule type="cellIs" dxfId="167" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="236" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AE5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="235" priority="38" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AE5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AE5)))</formula>
+    <cfRule type="cellIs" dxfId="234" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG3">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AG2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AG14">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AG3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AG3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AG14">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AG5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AG5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH3">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AH2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AH2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3:AH14">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AH3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AH3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AH14">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AH5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AH5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5269,11 +5958,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE4" sqref="AE4"/>
+      <selection pane="topRight" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5302,15 +5991,14 @@
     <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="24" width="15.33203125" customWidth="1"/>
     <col min="25" max="25" width="19.6640625" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5546875" customWidth="1"/>
-    <col min="28" max="28" width="22.5546875" customWidth="1"/>
-    <col min="29" max="29" width="20.109375" customWidth="1"/>
-    <col min="33" max="33" width="23.88671875" customWidth="1"/>
-    <col min="34" max="34" width="15.33203125" customWidth="1"/>
+    <col min="26" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.88671875" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5407,17 +6095,20 @@
       <c r="AF1" s="2">
         <v>45940</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="2">
+        <v>45941</v>
+      </c>
+      <c r="AH1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5490,20 +6181,26 @@
       <c r="AA2" t="s">
         <v>13</v>
       </c>
-      <c r="AG2">
+      <c r="AC2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2">
         <f>COUNTIFS(B2:AA2, "&lt;&gt;HOLIDAY", B2:AA2, "&lt;&gt;WEEKEND HOLIDAY", B2:AA2, "&lt;&gt;")</f>
         <v>18</v>
       </c>
-      <c r="AH2">
-        <f t="shared" ref="AH2:AH12" si="0">COUNTIF(C2:AF2,"PRESENT")</f>
-        <v>1</v>
-      </c>
       <c r="AI2">
-        <f t="shared" ref="AI2:AI12" si="1">COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
-        <v>4.7619047619047619</v>
+        <f>COUNTIF(C2:AF2,"PRESENT")</f>
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
+        <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5571,20 +6268,23 @@
       <c r="AC3" t="s">
         <v>12</v>
       </c>
-      <c r="AG3">
-        <f t="shared" ref="AG3:AG13" si="2">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
+      <c r="AF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH13" si="0">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
         <v>18</v>
       </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="AI3">
-        <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <f>COUNTIF(C3:AF3,"PRESENT")</f>
+        <v>17</v>
+      </c>
+      <c r="AJ3">
+        <f>COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+        <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5649,20 +6349,26 @@
       <c r="AA4" t="s">
         <v>13</v>
       </c>
-      <c r="AG4">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AC4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>94</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="1"/>
-        <v>76.470588235294116</v>
+        <f>COUNTIF(C4:AF4,"PRESENT")</f>
+        <v>13</v>
+      </c>
+      <c r="AJ4">
+        <f>COUNTIF(C4:AF4,"PRESENT")/COUNTA(C4:AF4)*100</f>
+        <v>68.421052631578945</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5727,20 +6433,26 @@
       <c r="AA5" t="s">
         <v>12</v>
       </c>
-      <c r="AG5">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AC5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>94</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AI5">
+        <f>COUNTIF(C5:AF5,"PRESENT")</f>
         <v>17</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="1"/>
-        <v>100</v>
+      <c r="AJ5">
+        <f>COUNTIF(C5:AF5,"PRESENT")/COUNTA(C5:AF5)*100</f>
+        <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5808,20 +6520,23 @@
       <c r="AC6" t="s">
         <v>12</v>
       </c>
-      <c r="AG6">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AF6" t="s">
+        <v>93</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <f>COUNTIF(C6:AF6,"PRESENT")</f>
+        <v>17</v>
+      </c>
+      <c r="AJ6">
+        <f>COUNTIF(C6:AF6,"PRESENT")/COUNTA(C6:AF6)*100</f>
+        <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5889,20 +6604,23 @@
       <c r="AC7" t="s">
         <v>12</v>
       </c>
-      <c r="AG7">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AF7" t="s">
+        <v>93</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <f>COUNTIF(C7:AF7,"PRESENT")</f>
+        <v>17</v>
+      </c>
+      <c r="AJ7">
+        <f>COUNTIF(C7:AF7,"PRESENT")/COUNTA(C7:AF7)*100</f>
+        <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5967,20 +6685,26 @@
       <c r="AA8" t="s">
         <v>13</v>
       </c>
-      <c r="AG8">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AC8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>94</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AI8">
+        <f>COUNTIF(C8:AF8,"PRESENT")</f>
         <v>2</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="1"/>
-        <v>11.76470588235294</v>
+      <c r="AJ8">
+        <f>COUNTIF(C8:AF8,"PRESENT")/COUNTA(C8:AF8)*100</f>
+        <v>10.526315789473683</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6048,20 +6772,23 @@
       <c r="AC9" t="s">
         <v>12</v>
       </c>
-      <c r="AG9">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AF9" t="s">
+        <v>93</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <f>COUNTIF(C9:AF9,"PRESENT")</f>
+        <v>17</v>
+      </c>
+      <c r="AJ9">
+        <f>COUNTIF(C9:AF9,"PRESENT")/COUNTA(C9:AF9)*100</f>
+        <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6126,20 +6853,26 @@
       <c r="AA10" t="s">
         <v>13</v>
       </c>
-      <c r="AG10">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AC10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>94</v>
       </c>
       <c r="AH10">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AI10">
+        <f>COUNTIF(C10:AF10,"PRESENT")</f>
         <v>0</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="1"/>
+      <c r="AJ10">
+        <f>COUNTIF(C10:AF10,"PRESENT")/COUNTA(C10:AF10)*100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6207,20 +6940,23 @@
       <c r="AC11" t="s">
         <v>13</v>
       </c>
-      <c r="AG11">
-        <f t="shared" si="2"/>
-        <v>18</v>
+      <c r="AF11" t="s">
+        <v>93</v>
       </c>
       <c r="AH11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="1"/>
-        <v>38.888888888888893</v>
+        <f>COUNTIF(C11:AF11,"PRESENT")</f>
+        <v>8</v>
+      </c>
+      <c r="AJ11">
+        <f>COUNTIF(C11:AF11,"PRESENT")/COUNTA(C11:AF11)*100</f>
+        <v>42.105263157894733</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6261,20 +6997,23 @@
       <c r="AC12" t="s">
         <v>12</v>
       </c>
-      <c r="AG12">
-        <f t="shared" si="2"/>
-        <v>11</v>
+      <c r="AF12" t="s">
+        <v>94</v>
       </c>
       <c r="AH12">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AI12">
+        <f>COUNTIF(C12:AF12,"PRESENT")</f>
         <v>10</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+      <c r="AJ12">
+        <f>COUNTIF(C12:AF12,"PRESENT")/COUNTA(C12:AF12)*100</f>
+        <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6312,12 +7051,15 @@
       <c r="AC13" t="s">
         <v>12</v>
       </c>
-      <c r="AG13">
-        <f t="shared" si="2"/>
+      <c r="AF13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6344,6 +7086,12 @@
       </c>
       <c r="AA14" t="s">
         <v>13</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6354,473 +7102,605 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 Z4:Z7">
-    <cfRule type="cellIs" dxfId="164" priority="345" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="344" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="218" priority="380" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="381" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="cellIs" dxfId="162" priority="327" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="326" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="216" priority="361" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="215" priority="362" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="325" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
+    <cfRule type="cellIs" dxfId="214" priority="363" operator="equal">
+      <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="containsText" dxfId="159" priority="320" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="213" priority="355" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="356" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="319" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="357" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="cellIs" dxfId="156" priority="333" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="332" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="210" priority="367" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="368" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="331" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="208" priority="369" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12:S13 U12:U13">
+    <cfRule type="containsText" dxfId="207" priority="343" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="344" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="345" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S11">
+    <cfRule type="containsText" dxfId="204" priority="337" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="203" priority="338" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="339" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:U2">
+    <cfRule type="containsText" dxfId="201" priority="334" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="200" priority="335" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="336" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:W13">
+    <cfRule type="containsText" dxfId="198" priority="301" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="302" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="303" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:X11">
+    <cfRule type="containsText" dxfId="195" priority="307" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="308" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="309" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y9">
+    <cfRule type="containsText" dxfId="192" priority="298" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="191" priority="299" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="300" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y10">
+    <cfRule type="containsText" dxfId="189" priority="247" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="248" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="249" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="containsText" dxfId="186" priority="280" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="281" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="282" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y12">
+    <cfRule type="containsText" dxfId="183" priority="274" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="275" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="276" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12:Y13">
+    <cfRule type="containsText" dxfId="180" priority="268" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="179" priority="269" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="270" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:Y14">
+    <cfRule type="containsText" dxfId="177" priority="256" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="257" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="258" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14:AA14">
+    <cfRule type="containsText" dxfId="174" priority="208" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="209" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="210" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z3">
+    <cfRule type="containsText" dxfId="171" priority="226" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="227" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="228" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11">
+    <cfRule type="containsText" dxfId="168" priority="379" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="cellIs" dxfId="153" priority="309" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="308" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="307" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S11">
-    <cfRule type="containsText" dxfId="150" priority="301" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="303" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="302" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U2">
-    <cfRule type="cellIs" dxfId="147" priority="300" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="299" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="298" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W13">
-    <cfRule type="cellIs" dxfId="144" priority="267" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="266" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="265" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X11">
-    <cfRule type="cellIs" dxfId="141" priority="273" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="272" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="271" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="cellIs" dxfId="138" priority="264" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="263" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="262" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="cellIs" dxfId="135" priority="213" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="212" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="211" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="132" priority="245" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="244" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="246" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="cellIs" dxfId="129" priority="240" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="239" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="238" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="cellIs" dxfId="126" priority="234" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="233" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="232" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="containsText" dxfId="123" priority="220" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="222" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="221" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14:AA14">
-    <cfRule type="cellIs" dxfId="120" priority="174" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="173" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="172" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="cellIs" dxfId="117" priority="192" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="191" operator="containsText" text="PRESENT">
+  <conditionalFormatting sqref="Z6:Z11 AI2:AI12 AB10 AD10:AF10">
+    <cfRule type="containsText" dxfId="167" priority="232" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z13">
+    <cfRule type="containsText" dxfId="166" priority="214" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="215" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="216" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="containsText" dxfId="163" priority="220" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="221" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="222" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12:AA12">
+    <cfRule type="containsText" dxfId="160" priority="118" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="119" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="120" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9:AB9">
+    <cfRule type="containsText" dxfId="157" priority="133" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="134" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="135" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3:AF3">
+    <cfRule type="containsText" dxfId="154" priority="82" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="83" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA7">
+    <cfRule type="containsText" dxfId="151" priority="103" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="104" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="105" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA6">
+    <cfRule type="containsText" dxfId="148" priority="127" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="128" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="129" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA7:AA11">
+    <cfRule type="containsText" dxfId="145" priority="91" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="92" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="93" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12:AA13">
+    <cfRule type="containsText" dxfId="142" priority="121" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="122" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="123" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="141" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11:AB11">
+    <cfRule type="containsText" dxfId="136" priority="115" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="116" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="117" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AB2 AD2:AF2">
+    <cfRule type="containsText" dxfId="133" priority="85" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="86" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="87" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AB5 AD4:AF5">
+    <cfRule type="containsText" dxfId="130" priority="88" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="89" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="90" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6:AF7 AB8 AD8:AF8">
+    <cfRule type="containsText" dxfId="127" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3">
+    <cfRule type="containsText" dxfId="124" priority="79" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="80" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="81" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6">
+    <cfRule type="containsText" dxfId="121" priority="70" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="71" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="72" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7">
+    <cfRule type="containsText" dxfId="118" priority="40" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="41" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="containsText" dxfId="115" priority="61" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="62" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="63" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="containsText" dxfId="112" priority="76" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="77" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="78" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12:AC13">
+    <cfRule type="containsText" dxfId="109" priority="52" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="53" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="54" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13">
+    <cfRule type="containsText" dxfId="106" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AF9">
+    <cfRule type="containsText" dxfId="103" priority="64" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="65" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="66" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11:AF11">
+    <cfRule type="containsText" dxfId="100" priority="46" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="48" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH13">
+    <cfRule type="containsText" dxfId="97" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AH2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AH2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AI12 Z6:Z11 AB10 AD10:AF10">
+    <cfRule type="containsText" dxfId="94" priority="233" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="190" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11">
-    <cfRule type="containsText" dxfId="114" priority="343" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:Z11 AH2:AH12 AB10:AF10">
-    <cfRule type="containsText" dxfId="113" priority="196" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:Z13">
-    <cfRule type="containsText" dxfId="112" priority="178" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="180" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="179" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="109" priority="184" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="185" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="186" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12:AA12">
-    <cfRule type="cellIs" dxfId="106" priority="84" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="83" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="82" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9:AB9">
-    <cfRule type="containsText" dxfId="103" priority="98" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="99" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="97" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:AF3">
-    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="46" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA7">
-    <cfRule type="cellIs" dxfId="97" priority="69" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="68" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="67" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA6">
-    <cfRule type="containsText" dxfId="94" priority="91" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="92" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA7:AA11">
-    <cfRule type="containsText" dxfId="91" priority="55" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="56" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="86" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="85" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="85" priority="104" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="105" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="103" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11:AB11">
-    <cfRule type="containsText" dxfId="82" priority="80" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="79" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AF2">
-    <cfRule type="containsText" dxfId="79" priority="49" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AF5">
-    <cfRule type="containsText" dxfId="76" priority="52" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="53" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AF8">
-    <cfRule type="cellIs" dxfId="73" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="containsText" dxfId="70" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC7">
-    <cfRule type="cellIs" dxfId="64" priority="6" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
-    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="234" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF3:AF10">
+    <cfRule type="containsText" dxfId="92" priority="34" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AF3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="35" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AF3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="containsText" dxfId="89" priority="31" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AF11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="32" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AF11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2">
+    <cfRule type="containsText" dxfId="86" priority="28" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AF2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AF2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="30" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AF12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AF12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="containsText" dxfId="80" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AF13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AF13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AF14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="20" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AF14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC14)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC10)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8">
+    <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC8)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5">
+    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
     <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="25" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="containsText" dxfId="58" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="containsText" dxfId="55" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="14" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AF9">
-    <cfRule type="containsText" dxfId="49" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC11:AF11">
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG13">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AG2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH12 Z6:Z11 AB10:AF10">
-    <cfRule type="containsText" dxfId="40" priority="197" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="198" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2">
+    <cfRule type="containsText" dxfId="59" priority="1" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH12" xr:uid="{E0073671-764F-4B23-98B7-E792B43ECA66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI12" xr:uid="{E0073671-764F-4B23-98B7-E792B43ECA66}">
       <formula1>"PRESENT , ABSENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6832,9 +7712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE6D8BB-FE71-4DA4-9BDC-E79C520519E9}">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6866,6 +7746,8 @@
     <col min="26" max="26" width="20.77734375" customWidth="1"/>
     <col min="27" max="27" width="14.21875" customWidth="1"/>
     <col min="28" max="28" width="14.5546875" customWidth="1"/>
+    <col min="29" max="29" width="19.44140625" customWidth="1"/>
+    <col min="30" max="30" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7034,6 +7916,12 @@
       <c r="AA2" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="AB2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
@@ -7102,6 +7990,12 @@
       <c r="AA3" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AB3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
@@ -7171,6 +8065,12 @@
       <c r="AA4" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="AB4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
@@ -7239,6 +8139,12 @@
       <c r="AA5" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AB5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
@@ -7307,6 +8213,12 @@
       <c r="AA6" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AB6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
@@ -7375,6 +8287,12 @@
       <c r="AA7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AB7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
@@ -7443,6 +8361,12 @@
       <c r="AA8" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AB8" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
@@ -7511,6 +8435,12 @@
       <c r="AA9" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AB9" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
@@ -7570,6 +8500,12 @@
       <c r="AA10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AB10" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="45" t="s">
@@ -7612,6 +8548,12 @@
         <v>19</v>
       </c>
       <c r="AA11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7633,24 +8575,24 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="56" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8358,101 +9300,101 @@
     <mergeCell ref="D17:J17"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="containsText" dxfId="32" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="47" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="29" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B13">
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="35" priority="22" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="34" priority="23" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="containsText" dxfId="11" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="26" priority="13" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",B14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8735,22 +9677,22 @@
   <sheetProtection algorithmName="SHA-512" hashValue="Ql/RsR8HEtVXTq6dxgwzNKEn3PILcdDvZDRx9K1lXY6IaYoxeAmb20n9vxYiHDkNQp+KpcvZzBECmlu7y6LqGA==" saltValue="62jYXSNzWcf75ztXw4TKRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Trackers/Atendance tracker.xlsx
+++ b/Trackers/Atendance tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceandCode\Source_code_batch_4\Trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3B259E-D281-47CF-A236-F7D25FEE16D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4811265-D659-4C56-8968-09A3D23875AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A32A0B54-107B-49F7-862C-6CFC80B9902E}"/>
   </bookViews>
   <sheets>
     <sheet name="Lecture Attendance Tracker" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="95">
   <si>
     <t>SR NO</t>
   </si>
@@ -645,6 +645,9 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,1912 +690,1434 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="369">
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="312">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4262,10 +3787,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -4281,10 +3806,10 @@
       <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="34"/>
+      <c r="P2" s="35"/>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
@@ -4294,16 +3819,16 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="36" t="s">
         <v>33</v>
       </c>
       <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="34"/>
+      <c r="W2" s="35"/>
       <c r="X2" t="s">
         <v>13</v>
       </c>
@@ -4322,7 +3847,7 @@
       <c r="AC2" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="36" t="s">
         <v>33</v>
       </c>
       <c r="AE2" t="s">
@@ -4339,11 +3864,11 @@
         <v>19</v>
       </c>
       <c r="AK2">
-        <f>COUNTIF(C2:AI2,"PRESENT")</f>
+        <f t="shared" ref="AK2:AK13" si="0">COUNTIF(C2:AI2,"PRESENT")</f>
         <v>8</v>
       </c>
       <c r="AL2">
-        <f>COUNTIF(C2:AI2,"PRESENT")/COUNTA(C2:AI2)*100</f>
+        <f t="shared" ref="AL2:AL13" si="1">COUNTIF(C2:AI2,"PRESENT")/COUNTA(C2:AI2)*100</f>
         <v>28.571428571428569</v>
       </c>
     </row>
@@ -4369,8 +3894,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" t="s">
         <v>12</v>
       </c>
@@ -4386,8 +3911,8 @@
       <c r="N3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="14" t="s">
         <v>12</v>
       </c>
@@ -4397,12 +3922,12 @@
       <c r="S3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="35"/>
+      <c r="T3" s="36"/>
       <c r="U3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
       <c r="X3" t="s">
         <v>12</v>
       </c>
@@ -4421,7 +3946,7 @@
       <c r="AC3" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="35"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" t="s">
         <v>12</v>
       </c>
@@ -4432,15 +3957,15 @@
         <v>12</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ13" si="0">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
+        <f t="shared" ref="AJ3:AJ13" si="2">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
         <v>19</v>
       </c>
       <c r="AK3">
-        <f>COUNTIF(C3:AI3,"PRESENT")</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="AL3">
-        <f>COUNTIF(C3:AI3,"PRESENT")/COUNTA(C3:AI3)*100</f>
+        <f t="shared" si="1"/>
         <v>91.304347826086953</v>
       </c>
     </row>
@@ -4466,8 +3991,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
       <c r="J4" t="s">
         <v>12</v>
       </c>
@@ -4483,8 +4008,8 @@
       <c r="N4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="14" t="s">
         <v>12</v>
       </c>
@@ -4494,12 +4019,12 @@
       <c r="S4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="35"/>
+      <c r="T4" s="36"/>
       <c r="U4" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
       <c r="X4" t="s">
         <v>12</v>
       </c>
@@ -4518,7 +4043,7 @@
       <c r="AC4" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="35"/>
+      <c r="AD4" s="36"/>
       <c r="AE4" t="s">
         <v>13</v>
       </c>
@@ -4529,15 +4054,15 @@
         <v>13</v>
       </c>
       <c r="AJ4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AK4">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK4">
-        <f>COUNTIF(C4:AI4,"PRESENT")</f>
         <v>18</v>
       </c>
       <c r="AL4">
-        <f>COUNTIF(C4:AI4,"PRESENT")/COUNTA(C4:AI4)*100</f>
+        <f t="shared" si="1"/>
         <v>78.260869565217391</v>
       </c>
     </row>
@@ -4563,8 +4088,8 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -4580,8 +4105,8 @@
       <c r="N5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
       <c r="Q5" s="14" t="s">
         <v>12</v>
       </c>
@@ -4591,12 +4116,12 @@
       <c r="S5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="35"/>
+      <c r="T5" s="36"/>
       <c r="U5" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
       <c r="X5" t="s">
         <v>12</v>
       </c>
@@ -4615,7 +4140,7 @@
       <c r="AC5" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="35"/>
+      <c r="AD5" s="36"/>
       <c r="AE5" t="s">
         <v>12</v>
       </c>
@@ -4626,15 +4151,15 @@
         <v>12</v>
       </c>
       <c r="AJ5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AK5">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK5">
-        <f>COUNTIF(C5:AI5,"PRESENT")</f>
         <v>22</v>
       </c>
       <c r="AL5">
-        <f>COUNTIF(C5:AI5,"PRESENT")/COUNTA(C5:AI5)*100</f>
+        <f t="shared" si="1"/>
         <v>95.652173913043484</v>
       </c>
     </row>
@@ -4660,8 +4185,8 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" t="s">
         <v>12</v>
       </c>
@@ -4677,8 +4202,8 @@
       <c r="N6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="14" t="s">
         <v>12</v>
       </c>
@@ -4688,12 +4213,12 @@
       <c r="S6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="35"/>
+      <c r="T6" s="36"/>
       <c r="U6" t="s">
         <v>13</v>
       </c>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
       <c r="X6" t="s">
         <v>12</v>
       </c>
@@ -4712,7 +4237,7 @@
       <c r="AC6" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="35"/>
+      <c r="AD6" s="36"/>
       <c r="AE6" t="s">
         <v>12</v>
       </c>
@@ -4723,15 +4248,15 @@
         <v>12</v>
       </c>
       <c r="AJ6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK6">
-        <f>COUNTIF(C6:AI6,"PRESENT")</f>
         <v>22</v>
       </c>
       <c r="AL6">
-        <f>COUNTIF(C6:AI6,"PRESENT")/COUNTA(C6:AI6)*100</f>
+        <f t="shared" si="1"/>
         <v>95.652173913043484</v>
       </c>
     </row>
@@ -4757,8 +4282,8 @@
       <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
       <c r="J7" t="s">
         <v>12</v>
       </c>
@@ -4774,8 +4299,8 @@
       <c r="N7" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="14" t="s">
         <v>12</v>
       </c>
@@ -4785,12 +4310,12 @@
       <c r="S7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="35"/>
+      <c r="T7" s="36"/>
       <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
       <c r="X7" t="s">
         <v>12</v>
       </c>
@@ -4809,7 +4334,7 @@
       <c r="AC7" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="35"/>
+      <c r="AD7" s="36"/>
       <c r="AE7" t="s">
         <v>12</v>
       </c>
@@ -4820,15 +4345,15 @@
         <v>12</v>
       </c>
       <c r="AJ7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AK7">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK7">
-        <f>COUNTIF(C7:AI7,"PRESENT")</f>
         <v>20</v>
       </c>
       <c r="AL7">
-        <f>COUNTIF(C7:AI7,"PRESENT")/COUNTA(C7:AI7)*100</f>
+        <f t="shared" si="1"/>
         <v>86.956521739130437</v>
       </c>
     </row>
@@ -4854,8 +4379,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -4871,8 +4396,8 @@
       <c r="N8" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="14" t="s">
         <v>12</v>
       </c>
@@ -4882,12 +4407,12 @@
       <c r="S8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="35"/>
+      <c r="T8" s="36"/>
       <c r="U8" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
       <c r="X8" t="s">
         <v>12</v>
       </c>
@@ -4906,7 +4431,7 @@
       <c r="AC8" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="35"/>
+      <c r="AD8" s="36"/>
       <c r="AE8" t="s">
         <v>12</v>
       </c>
@@ -4917,15 +4442,15 @@
         <v>12</v>
       </c>
       <c r="AJ8">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AK8">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK8">
-        <f>COUNTIF(C8:AI8,"PRESENT")</f>
         <v>15</v>
       </c>
       <c r="AL8">
-        <f>COUNTIF(C8:AI8,"PRESENT")/COUNTA(C8:AI8)*100</f>
+        <f t="shared" si="1"/>
         <v>65.217391304347828</v>
       </c>
     </row>
@@ -4951,8 +4476,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="J9" t="s">
         <v>12</v>
       </c>
@@ -4968,8 +4493,8 @@
       <c r="N9" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="14" t="s">
         <v>12</v>
       </c>
@@ -4979,12 +4504,12 @@
       <c r="S9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="35"/>
+      <c r="T9" s="36"/>
       <c r="U9" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
       <c r="X9" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +4528,7 @@
       <c r="AC9" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="35"/>
+      <c r="AD9" s="36"/>
       <c r="AE9" t="s">
         <v>12</v>
       </c>
@@ -5014,15 +4539,15 @@
         <v>12</v>
       </c>
       <c r="AJ9">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK9">
-        <f>COUNTIF(C9:AI9,"PRESENT")</f>
         <v>22</v>
       </c>
       <c r="AL9">
-        <f>COUNTIF(C9:AI9,"PRESENT")/COUNTA(C9:AI9)*100</f>
+        <f t="shared" si="1"/>
         <v>95.652173913043484</v>
       </c>
     </row>
@@ -5048,8 +4573,8 @@
       <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -5065,8 +4590,8 @@
       <c r="N10" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="14" t="s">
         <v>12</v>
       </c>
@@ -5076,12 +4601,12 @@
       <c r="S10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="35"/>
+      <c r="T10" s="36"/>
       <c r="U10" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
       <c r="X10" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +4625,7 @@
       <c r="AC10" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="35"/>
+      <c r="AD10" s="36"/>
       <c r="AE10" t="s">
         <v>12</v>
       </c>
@@ -5111,15 +4636,15 @@
         <v>12</v>
       </c>
       <c r="AJ10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="AK10">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AK10">
-        <f>COUNTIF(C10:AI10,"PRESENT")</f>
         <v>16</v>
       </c>
       <c r="AL10">
-        <f>COUNTIF(C10:AI10,"PRESENT")/COUNTA(C10:AI10)*100</f>
+        <f t="shared" si="1"/>
         <v>69.565217391304344</v>
       </c>
     </row>
@@ -5130,16 +4655,16 @@
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="M11" t="s">
         <v>12</v>
       </c>
       <c r="N11" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5149,12 +4674,12 @@
       <c r="S11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="35"/>
+      <c r="T11" s="36"/>
       <c r="U11" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
       <c r="X11" t="s">
         <v>12</v>
       </c>
@@ -5173,7 +4698,7 @@
       <c r="AC11" t="s">
         <v>12</v>
       </c>
-      <c r="AD11" s="35"/>
+      <c r="AD11" s="36"/>
       <c r="AE11" t="s">
         <v>12</v>
       </c>
@@ -5184,15 +4709,15 @@
         <v>12</v>
       </c>
       <c r="AJ11">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AK11">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AK11">
-        <f>COUNTIF(C11:AI11,"PRESENT")</f>
         <v>14</v>
       </c>
       <c r="AL11">
-        <f>COUNTIF(C11:AI11,"PRESENT")/COUNTA(C11:AI11)*100</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
     </row>
@@ -5203,16 +4728,16 @@
       <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
       <c r="Q12" t="s">
         <v>13</v>
       </c>
@@ -5222,12 +4747,12 @@
       <c r="S12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="35"/>
+      <c r="T12" s="36"/>
       <c r="U12" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
       <c r="X12" t="s">
         <v>12</v>
       </c>
@@ -5246,7 +4771,7 @@
       <c r="AC12" t="s">
         <v>12</v>
       </c>
-      <c r="AD12" s="35"/>
+      <c r="AD12" s="36"/>
       <c r="AE12" t="s">
         <v>12</v>
       </c>
@@ -5257,15 +4782,15 @@
         <v>12</v>
       </c>
       <c r="AJ12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AK12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AK12">
-        <f>COUNTIF(C12:AI12,"PRESENT")</f>
         <v>13</v>
       </c>
       <c r="AL12">
-        <f>COUNTIF(C12:AI12,"PRESENT")/COUNTA(C12:AI12)*100</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
     </row>
@@ -5276,16 +4801,16 @@
       <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="M13" t="s">
         <v>12</v>
       </c>
       <c r="N13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="14" t="s">
         <v>12</v>
       </c>
@@ -5295,12 +4820,12 @@
       <c r="S13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="35"/>
+      <c r="T13" s="36"/>
       <c r="U13" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
       <c r="X13" t="s">
         <v>12</v>
       </c>
@@ -5319,7 +4844,7 @@
       <c r="AC13" t="s">
         <v>12</v>
       </c>
-      <c r="AD13" s="35"/>
+      <c r="AD13" s="36"/>
       <c r="AE13" t="s">
         <v>12</v>
       </c>
@@ -5330,15 +4855,15 @@
         <v>12</v>
       </c>
       <c r="AJ13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AK13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AK13">
-        <f>COUNTIF(C13:AI13,"PRESENT")</f>
         <v>14</v>
       </c>
       <c r="AL13">
-        <f>COUNTIF(C13:AI13,"PRESENT")/COUNTA(C13:AI13)*100</f>
+        <f t="shared" si="1"/>
         <v>93.333333333333329</v>
       </c>
     </row>
@@ -5367,7 +4892,7 @@
       <c r="AC14" t="s">
         <v>12</v>
       </c>
-      <c r="AD14" s="35"/>
+      <c r="AD14" s="36"/>
       <c r="AE14" t="s">
         <v>12</v>
       </c>
@@ -5387,563 +4912,519 @@
     <mergeCell ref="AD2:AD14"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G6 J2:L10 X2:X13 U3:U13 C7:F7 M7:N10">
-    <cfRule type="containsText" dxfId="368" priority="353" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="311" priority="353" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="354" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:G13">
-    <cfRule type="containsText" dxfId="366" priority="334" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="309" priority="334" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="335" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="308" priority="335" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="336" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="containsText" dxfId="363" priority="349" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="306" priority="349" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="350" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="305" priority="350" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",H2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="351" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:N13">
-    <cfRule type="containsText" dxfId="360" priority="331" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="303" priority="331" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="332" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="302" priority="332" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",J11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="333" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O2">
-    <cfRule type="containsText" dxfId="357" priority="328" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="300" priority="328" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="329" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="299" priority="329" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",M2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="330" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12">
-    <cfRule type="containsText" dxfId="354" priority="337" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="297" priority="337" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="338" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="296" priority="338" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="339" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:V2">
-    <cfRule type="containsText" dxfId="351" priority="271" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="294" priority="271" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="272" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="293" priority="272" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Q2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="273" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X13 C2:G6 J2:L10 U3:U13 C7:F7 M7:N10">
-    <cfRule type="containsText" dxfId="348" priority="352" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="291" priority="352" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y10 AJ3:AK13 AF3:AF14 AI3:AI10">
-    <cfRule type="containsText" dxfId="347" priority="325" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="X2:Y10 AI3:AI10 AJ3:AK13">
+    <cfRule type="containsText" dxfId="290" priority="325" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="326" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="289" priority="326" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="327" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y14">
-    <cfRule type="containsText" dxfId="344" priority="277" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="287" priority="277" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",X14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="278" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="286" priority="278" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",X14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="279" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y13">
-    <cfRule type="containsText" dxfId="341" priority="274" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="284" priority="274" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="275" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="283" priority="275" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="276" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z14">
-    <cfRule type="containsText" dxfId="338" priority="217" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="281" priority="217" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="218" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="280" priority="218" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="219" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="220" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="279" priority="219" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="220" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="221" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="277" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="222" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="containsText" dxfId="332" priority="202" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="275" priority="202" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="203" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="274" priority="203" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="204" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3">
-    <cfRule type="containsText" dxfId="329" priority="214" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="272" priority="214" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="215" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="271" priority="215" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="216" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
-    <cfRule type="containsText" dxfId="326" priority="196" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="269" priority="196" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="197" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="268" priority="197" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="198" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4:AA5">
-    <cfRule type="containsText" dxfId="323" priority="190" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="266" priority="190" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="191" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="265" priority="191" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="192" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA6">
-    <cfRule type="containsText" dxfId="320" priority="184" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="263" priority="184" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="185" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="262" priority="185" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="186" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6:AA7">
-    <cfRule type="containsText" dxfId="317" priority="178" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="260" priority="178" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="179" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="259" priority="179" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="180" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA8">
-    <cfRule type="containsText" dxfId="314" priority="172" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="257" priority="172" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="173" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="256" priority="173" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="174" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA8:AA9">
-    <cfRule type="containsText" dxfId="311" priority="166" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="254" priority="166" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="167" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="253" priority="167" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="168" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA10">
-    <cfRule type="containsText" dxfId="308" priority="160" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="251" priority="160" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="161" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="250" priority="161" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="162" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA11">
-    <cfRule type="containsText" dxfId="305" priority="154" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="248" priority="154" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="155" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="247" priority="155" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="156" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA14">
-    <cfRule type="containsText" dxfId="302" priority="148" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="245" priority="148" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="149" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="244" priority="149" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="150" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="299" priority="142" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="242" priority="142" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="143" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="241" priority="143" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="144" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB2">
-    <cfRule type="containsText" dxfId="296" priority="199" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="239" priority="199" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="200" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="238" priority="200" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="201" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB3">
-    <cfRule type="containsText" dxfId="293" priority="136" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="236" priority="136" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="137" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="235" priority="137" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="138" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AB14">
-    <cfRule type="containsText" dxfId="290" priority="115" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="233" priority="115" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="116" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="232" priority="116" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="117" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB7 AB9:AB14">
-    <cfRule type="containsText" dxfId="287" priority="124" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="230" priority="124" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AB5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="125" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="229" priority="125" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AB5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="126" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC3">
-    <cfRule type="containsText" dxfId="284" priority="85" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="227" priority="85" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="86" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="226" priority="86" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="87" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3">
-    <cfRule type="containsText" dxfId="281" priority="82" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="224" priority="82" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="83" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="223" priority="83" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="84" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AC6">
-    <cfRule type="containsText" dxfId="278" priority="91" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="221" priority="91" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="92" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="220" priority="92" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="93" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
-    <cfRule type="containsText" dxfId="275" priority="88" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="218" priority="88" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="89" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="217" priority="89" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="90" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AC7">
-    <cfRule type="containsText" dxfId="272" priority="97" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="215" priority="97" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="98" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="214" priority="98" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="99" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC8">
-    <cfRule type="containsText" dxfId="269" priority="103" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="212" priority="103" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="211" priority="104" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="105" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9">
-    <cfRule type="containsText" dxfId="266" priority="79" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="209" priority="79" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="80" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="208" priority="80" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="81" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AC10">
-    <cfRule type="containsText" dxfId="263" priority="73" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="206" priority="73" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="74" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="205" priority="74" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="75" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC11">
-    <cfRule type="containsText" dxfId="260" priority="67" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="203" priority="67" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="68" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="202" priority="68" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC10)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="69" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC12">
-    <cfRule type="containsText" dxfId="257" priority="61" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="200" priority="61" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="62" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="199" priority="62" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="63" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="containsText" dxfId="254" priority="55" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="197" priority="55" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="56" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="196" priority="56" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="57" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13:AC14">
-    <cfRule type="containsText" dxfId="251" priority="49" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="194" priority="49" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="50" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="193" priority="50" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="51" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC14">
-    <cfRule type="containsText" dxfId="248" priority="46" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="191" priority="46" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AC14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="47" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="190" priority="47" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AC14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="48" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AK2">
-    <cfRule type="containsText" dxfId="245" priority="43" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="188" priority="43" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AD2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="44" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="187" priority="44" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AD2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="45" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE3">
-    <cfRule type="containsText" dxfId="242" priority="40" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="185" priority="40" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AE2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="41" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="184" priority="41" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AE2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE14">
-    <cfRule type="containsText" dxfId="239" priority="34" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="183" priority="42" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE5:AE14">
+    <cfRule type="containsText" dxfId="182" priority="37" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AE5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="38" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AE5)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="39" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AH14">
+    <cfRule type="containsText" dxfId="179" priority="1" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AE3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="35" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="178" priority="2" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AE3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE5:AE14">
-    <cfRule type="containsText" dxfId="236" priority="37" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AE5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="38" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AE5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG3">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="177" priority="3" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AH3">
+    <cfRule type="containsText" dxfId="176" priority="7" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AG2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="175" priority="8" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AG2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG14">
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AG3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AG3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG5:AG14">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="174" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AH14">
+    <cfRule type="containsText" dxfId="173" priority="4" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AG5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="172" priority="5" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AG5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH3">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AH2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AH2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH14">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AH3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AH3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH5:AH14">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AH5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AH5)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="6" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5958,11 +5439,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3D0880-F65B-45BF-ACAC-3EA58BAAB81B}">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE14" sqref="AE14"/>
+      <selection pane="topRight" activeCell="AJ1" sqref="AJ1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5994,11 +5475,12 @@
     <col min="26" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.33203125" customWidth="1"/>
     <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.88671875" customWidth="1"/>
-    <col min="35" max="35" width="15.33203125" customWidth="1"/>
+    <col min="34" max="37" width="10.33203125" customWidth="1"/>
+    <col min="38" max="38" width="23.88671875" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6096,19 +5578,23 @@
         <v>45940</v>
       </c>
       <c r="AG1" s="2">
-        <v>45941</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+        <v>45943</v>
+      </c>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6127,10 +5613,10 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="36"/>
       <c r="I2" t="s">
         <v>13</v>
       </c>
@@ -6146,10 +5632,10 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" t="s">
         <v>13</v>
       </c>
@@ -6162,13 +5648,13 @@
       <c r="S2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="35"/>
+      <c r="V2" s="36"/>
       <c r="W2" t="s">
         <v>13</v>
       </c>
@@ -6187,20 +5673,23 @@
       <c r="AF2" t="s">
         <v>93</v>
       </c>
-      <c r="AH2">
+      <c r="AG2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL2">
         <f>COUNTIFS(B2:AA2, "&lt;&gt;HOLIDAY", B2:AA2, "&lt;&gt;WEEKEND HOLIDAY", B2:AA2, "&lt;&gt;")</f>
         <v>18</v>
       </c>
-      <c r="AI2">
-        <f>COUNTIF(C2:AF2,"PRESENT")</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM12" si="0">COUNTIF(C2:AF2,"PRESENT")</f>
         <v>2</v>
       </c>
-      <c r="AJ2">
-        <f>COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN12" si="1">COUNTIF(C2:AF2,"PRESENT")/COUNTA(C2:AF2)*100</f>
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6219,8 +5708,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" t="s">
         <v>12</v>
       </c>
@@ -6236,8 +5725,8 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
       <c r="P3" t="s">
         <v>12</v>
       </c>
@@ -6250,9 +5739,9 @@
       <c r="S3" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
       <c r="W3" t="s">
         <v>12</v>
       </c>
@@ -6271,20 +5760,23 @@
       <c r="AF3" t="s">
         <v>93</v>
       </c>
-      <c r="AH3">
-        <f t="shared" ref="AH3:AH13" si="0">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
+      <c r="AG3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL3:AL13" si="2">COUNTIFS(B3:AA3, "&lt;&gt;HOLIDAY", B3:AA3, "&lt;&gt;WEEKEND HOLIDAY", B3:AA3, "&lt;&gt;")</f>
         <v>18</v>
       </c>
-      <c r="AI3">
-        <f>COUNTIF(C3:AF3,"PRESENT")</f>
+      <c r="AM3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AJ3">
-        <f>COUNTIF(C3:AF3,"PRESENT")/COUNTA(C3:AF3)*100</f>
+      <c r="AN3">
+        <f t="shared" si="1"/>
         <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6303,8 +5795,8 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" t="s">
         <v>12</v>
       </c>
@@ -6320,8 +5812,8 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
       <c r="P4" t="s">
         <v>13</v>
       </c>
@@ -6334,9 +5826,9 @@
       <c r="S4" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
       <c r="W4" t="s">
         <v>12</v>
       </c>
@@ -6355,20 +5847,23 @@
       <c r="AF4" t="s">
         <v>94</v>
       </c>
-      <c r="AH4">
+      <c r="AG4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM4">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI4">
-        <f>COUNTIF(C4:AF4,"PRESENT")</f>
-        <v>13</v>
-      </c>
-      <c r="AJ4">
-        <f>COUNTIF(C4:AF4,"PRESENT")/COUNTA(C4:AF4)*100</f>
+        <v>13</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="1"/>
         <v>68.421052631578945</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6387,8 +5882,8 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -6404,8 +5899,8 @@
       <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
       <c r="P5" t="s">
         <v>12</v>
       </c>
@@ -6418,9 +5913,9 @@
       <c r="S5" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
       <c r="W5" t="s">
         <v>12</v>
       </c>
@@ -6439,20 +5934,23 @@
       <c r="AF5" t="s">
         <v>94</v>
       </c>
-      <c r="AH5">
+      <c r="AG5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM5">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI5">
-        <f>COUNTIF(C5:AF5,"PRESENT")</f>
         <v>17</v>
       </c>
-      <c r="AJ5">
-        <f>COUNTIF(C5:AF5,"PRESENT")/COUNTA(C5:AF5)*100</f>
+      <c r="AN5">
+        <f t="shared" si="1"/>
         <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6471,8 +5969,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" t="s">
         <v>12</v>
       </c>
@@ -6488,8 +5986,8 @@
       <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
       <c r="P6" t="s">
         <v>12</v>
       </c>
@@ -6502,9 +6000,9 @@
       <c r="S6" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
       <c r="W6" t="s">
         <v>12</v>
       </c>
@@ -6523,20 +6021,23 @@
       <c r="AF6" t="s">
         <v>93</v>
       </c>
-      <c r="AH6">
+      <c r="AG6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM6">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI6">
-        <f>COUNTIF(C6:AF6,"PRESENT")</f>
         <v>17</v>
       </c>
-      <c r="AJ6">
-        <f>COUNTIF(C6:AF6,"PRESENT")/COUNTA(C6:AF6)*100</f>
+      <c r="AN6">
+        <f t="shared" si="1"/>
         <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6555,8 +6056,8 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" t="s">
         <v>12</v>
       </c>
@@ -6572,8 +6073,8 @@
       <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
       <c r="P7" t="s">
         <v>12</v>
       </c>
@@ -6586,9 +6087,9 @@
       <c r="S7" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
       <c r="W7" t="s">
         <v>12</v>
       </c>
@@ -6607,20 +6108,23 @@
       <c r="AF7" t="s">
         <v>93</v>
       </c>
-      <c r="AH7">
+      <c r="AG7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM7">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI7">
-        <f>COUNTIF(C7:AF7,"PRESENT")</f>
         <v>17</v>
       </c>
-      <c r="AJ7">
-        <f>COUNTIF(C7:AF7,"PRESENT")/COUNTA(C7:AF7)*100</f>
+      <c r="AN7">
+        <f t="shared" si="1"/>
         <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6639,8 +6143,8 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" t="s">
         <v>13</v>
       </c>
@@ -6656,8 +6160,8 @@
       <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
       <c r="P8" t="s">
         <v>13</v>
       </c>
@@ -6670,9 +6174,9 @@
       <c r="S8" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
       <c r="W8" t="s">
         <v>13</v>
       </c>
@@ -6691,20 +6195,23 @@
       <c r="AF8" t="s">
         <v>94</v>
       </c>
-      <c r="AH8">
+      <c r="AG8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM8">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI8">
-        <f>COUNTIF(C8:AF8,"PRESENT")</f>
         <v>2</v>
       </c>
-      <c r="AJ8">
-        <f>COUNTIF(C8:AF8,"PRESENT")/COUNTA(C8:AF8)*100</f>
+      <c r="AN8">
+        <f t="shared" si="1"/>
         <v>10.526315789473683</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6723,8 +6230,8 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" t="s">
         <v>12</v>
       </c>
@@ -6740,8 +6247,8 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" t="s">
         <v>12</v>
       </c>
@@ -6754,9 +6261,9 @@
       <c r="S9" t="s">
         <v>13</v>
       </c>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
       <c r="W9" t="s">
         <v>12</v>
       </c>
@@ -6775,20 +6282,23 @@
       <c r="AF9" t="s">
         <v>93</v>
       </c>
-      <c r="AH9">
+      <c r="AG9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM9">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI9">
-        <f>COUNTIF(C9:AF9,"PRESENT")</f>
         <v>17</v>
       </c>
-      <c r="AJ9">
-        <f>COUNTIF(C9:AF9,"PRESENT")/COUNTA(C9:AF9)*100</f>
+      <c r="AN9">
+        <f t="shared" si="1"/>
         <v>89.473684210526315</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6807,8 +6317,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" t="s">
         <v>13</v>
       </c>
@@ -6824,8 +6334,8 @@
       <c r="M10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
       <c r="P10" t="s">
         <v>13</v>
       </c>
@@ -6838,9 +6348,9 @@
       <c r="S10" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
       <c r="W10" t="s">
         <v>13</v>
       </c>
@@ -6859,20 +6369,23 @@
       <c r="AF10" t="s">
         <v>94</v>
       </c>
-      <c r="AH10">
+      <c r="AG10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM10">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI10">
-        <f>COUNTIF(C10:AF10,"PRESENT")</f>
         <v>0</v>
       </c>
-      <c r="AJ10">
-        <f>COUNTIF(C10:AF10,"PRESENT")/COUNTA(C10:AF10)*100</f>
+      <c r="AN10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6891,8 +6404,8 @@
       <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
@@ -6908,8 +6421,8 @@
       <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
       <c r="P11" t="s">
         <v>13</v>
       </c>
@@ -6922,9 +6435,9 @@
       <c r="S11" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
       <c r="W11" t="s">
         <v>13</v>
       </c>
@@ -6943,20 +6456,23 @@
       <c r="AF11" t="s">
         <v>93</v>
       </c>
-      <c r="AH11">
+      <c r="AG11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AM11">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AI11">
-        <f>COUNTIF(C11:AF11,"PRESENT")</f>
         <v>8</v>
       </c>
-      <c r="AJ11">
-        <f>COUNTIF(C11:AF11,"PRESENT")/COUNTA(C11:AF11)*100</f>
+      <c r="AN11">
+        <f t="shared" si="1"/>
         <v>42.105263157894733</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6981,7 +6497,7 @@
       <c r="S12" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="35"/>
+      <c r="T12" s="36"/>
       <c r="W12" t="s">
         <v>13</v>
       </c>
@@ -7000,20 +6516,23 @@
       <c r="AF12" t="s">
         <v>94</v>
       </c>
-      <c r="AH12">
+      <c r="AG12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AM12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AI12">
-        <f>COUNTIF(C12:AF12,"PRESENT")</f>
         <v>10</v>
       </c>
-      <c r="AJ12">
-        <f>COUNTIF(C12:AF12,"PRESENT")/COUNTA(C12:AF12)*100</f>
+      <c r="AN12">
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7038,7 +6557,7 @@
       <c r="S13" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="35"/>
+      <c r="T13" s="36"/>
       <c r="Y13" t="s">
         <v>12</v>
       </c>
@@ -7054,12 +6573,15 @@
       <c r="AF13" t="s">
         <v>94</v>
       </c>
-      <c r="AH13">
-        <f t="shared" si="0"/>
+      <c r="AG13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7091,6 +6613,9 @@
         <v>13</v>
       </c>
       <c r="AF14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG14" t="s">
         <v>94</v>
       </c>
     </row>
@@ -7102,605 +6627,503 @@
     <mergeCell ref="U2:V11"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:G2 N2 I2:M11 Z4:Z7">
-    <cfRule type="containsText" dxfId="218" priority="380" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="170" priority="386" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="387" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:M14">
-    <cfRule type="containsText" dxfId="216" priority="361" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="168" priority="367" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="362" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="167" priority="368" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",L12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="369" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q14">
-    <cfRule type="containsText" dxfId="213" priority="355" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="165" priority="361" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="356" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="164" priority="362" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="363" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:R11 C3:F13">
-    <cfRule type="containsText" dxfId="210" priority="367" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="162" priority="373" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="368" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="161" priority="374" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="375" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:S13 U12:U13">
-    <cfRule type="containsText" dxfId="207" priority="343" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="159" priority="349" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="344" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="158" priority="350" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",R12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="351" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S11">
-    <cfRule type="containsText" dxfId="204" priority="337" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="156" priority="343" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="338" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="155" priority="344" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="345" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U2">
-    <cfRule type="containsText" dxfId="201" priority="334" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="153" priority="340" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="335" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="152" priority="341" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",S2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="342" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:W13">
-    <cfRule type="containsText" dxfId="198" priority="301" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="150" priority="307" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="302" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="149" priority="308" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="309" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:X11">
-    <cfRule type="containsText" dxfId="195" priority="307" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="147" priority="313" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="308" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="146" priority="314" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",W2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="315" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y9">
-    <cfRule type="containsText" dxfId="192" priority="298" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="144" priority="304" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="299" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="143" priority="305" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="306" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y10">
-    <cfRule type="containsText" dxfId="189" priority="247" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="141" priority="253" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="248" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="140" priority="254" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="255" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="containsText" dxfId="186" priority="280" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="138" priority="286" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="281" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="137" priority="287" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="288" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y12">
-    <cfRule type="containsText" dxfId="183" priority="274" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="135" priority="280" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="275" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="134" priority="281" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="282" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y13">
-    <cfRule type="containsText" dxfId="180" priority="268" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="132" priority="274" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="269" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="131" priority="275" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="276" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13:Y14">
-    <cfRule type="containsText" dxfId="177" priority="256" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="129" priority="262" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="257" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="128" priority="263" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="264" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AA14">
-    <cfRule type="containsText" dxfId="174" priority="208" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="126" priority="214" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="209" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="125" priority="215" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Y14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="216" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z3">
-    <cfRule type="containsText" dxfId="171" priority="226" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="123" priority="232" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="227" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="122" priority="233" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="234" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:Z7 C2:G2 N2 I2:M11">
-    <cfRule type="containsText" dxfId="168" priority="379" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="120" priority="385" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:Z11 AI2:AI12 AB10 AD10:AF10">
-    <cfRule type="containsText" dxfId="167" priority="232" operator="containsText" text="ABSENT">
+  <conditionalFormatting sqref="Z6:Z11 AD10:AF10 AM2:AM12 AB10">
+    <cfRule type="containsText" dxfId="119" priority="238" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z13">
-    <cfRule type="containsText" dxfId="166" priority="214" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="118" priority="220" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="215" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="117" priority="221" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="222" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z13">
-    <cfRule type="containsText" dxfId="163" priority="220" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="115" priority="226" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="221" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="114" priority="227" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="228" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12:AA12">
-    <cfRule type="containsText" dxfId="160" priority="118" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="112" priority="124" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="119" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="111" priority="125" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="126" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:AB9">
-    <cfRule type="containsText" dxfId="157" priority="133" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="109" priority="139" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="134" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="108" priority="140" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="141" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AF3">
-    <cfRule type="containsText" dxfId="154" priority="82" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="106" priority="88" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",Z3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="83" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="105" priority="89" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="90" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA7">
-    <cfRule type="containsText" dxfId="151" priority="103" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="104" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="102" priority="110" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA6">
-    <cfRule type="containsText" dxfId="148" priority="127" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="100" priority="133" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="128" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="99" priority="134" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="135" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AA11">
-    <cfRule type="containsText" dxfId="145" priority="91" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="97" priority="97" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="92" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="99" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12:AA13">
-    <cfRule type="containsText" dxfId="142" priority="121" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="94" priority="127" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="122" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="93" priority="128" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="129" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
-    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="91" priority="145" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="90" priority="146" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="147" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA2:AB2 AD2:AF2">
+    <cfRule type="containsText" dxfId="88" priority="92" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AB5 AD4:AF5">
+    <cfRule type="containsText" dxfId="86" priority="95" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="96" operator="equal">
       <formula>PRESENT</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AB11">
-    <cfRule type="containsText" dxfId="136" priority="115" operator="containsText" text="ABSENT">
+    <cfRule type="containsText" dxfId="84" priority="121" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="116" operator="containsText" text="PRESENT">
+    <cfRule type="containsText" dxfId="83" priority="122" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",AA11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="117" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AB2 AD2:AF2">
-    <cfRule type="containsText" dxfId="133" priority="85" operator="containsText" text="ABSENT">
+    <cfRule type="cellIs" dxfId="82" priority="123" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6:AF7 AB8 AD8:AF8">
+    <cfRule type="containsText" dxfId="81" priority="50" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AB6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="51" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB6:AF7 AD8:AF8 AB8">
+    <cfRule type="containsText" dxfId="79" priority="49" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AB6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC5">
+    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="8" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="78" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7:AC10">
+    <cfRule type="containsText" dxfId="72" priority="16" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="17" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="containsText" dxfId="69" priority="82" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="83" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="84" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12:AC13">
+    <cfRule type="containsText" dxfId="66" priority="58" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13:AC14">
+    <cfRule type="containsText" dxfId="63" priority="22" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="24" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AF9">
+    <cfRule type="containsText" dxfId="60" priority="70" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="71" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11:AF11">
+    <cfRule type="containsText" dxfId="57" priority="52" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="53" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AF2 AA2:AB2">
+    <cfRule type="containsText" dxfId="54" priority="91" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="86" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="87" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AB5 AD4:AF5">
-    <cfRule type="containsText" dxfId="130" priority="88" operator="containsText" text="ABSENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4:AF5 AA4:AB5">
+    <cfRule type="containsText" dxfId="53" priority="94" operator="containsText" text="ABSENT">
       <formula>NOT(ISERROR(SEARCH("ABSENT",AA4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="89" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AA4)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="90" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AF7 AB8 AD8:AF8">
-    <cfRule type="containsText" dxfId="127" priority="43" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AB6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="44" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AB6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="45" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="containsText" dxfId="124" priority="79" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="80" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="81" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6">
-    <cfRule type="containsText" dxfId="121" priority="70" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="71" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC6)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="72" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC7">
-    <cfRule type="containsText" dxfId="118" priority="40" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="41" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC7)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="42" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="containsText" dxfId="115" priority="61" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="62" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="63" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="containsText" dxfId="112" priority="76" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="77" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="78" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12:AC13">
-    <cfRule type="containsText" dxfId="109" priority="52" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="53" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="54" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="containsText" dxfId="106" priority="49" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="50" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="51" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AF9">
-    <cfRule type="containsText" dxfId="103" priority="64" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="65" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC9)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="66" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC11:AF11">
-    <cfRule type="containsText" dxfId="100" priority="46" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="47" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AC11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="48" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH13">
-    <cfRule type="containsText" dxfId="97" priority="37" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AH2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="38" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AH2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="39" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI12 Z6:Z11 AB10 AD10:AF10">
-    <cfRule type="containsText" dxfId="94" priority="233" operator="containsText" text="PRESENT">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF14">
+    <cfRule type="containsText" dxfId="52" priority="25" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AF2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="26" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AF2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL2:AL13">
+    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="ABSENT">
+      <formula>NOT(ISERROR(SEARCH("ABSENT",AL2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="PRESENT">
+      <formula>NOT(ISERROR(SEARCH("PRESENT",AL2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>PRESENT</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM2:AM12 Z6:Z11 AB10 AD10:AF10">
+    <cfRule type="containsText" dxfId="46" priority="239" operator="containsText" text="PRESENT">
       <formula>NOT(ISERROR(SEARCH("PRESENT",Z2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="234" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF10">
-    <cfRule type="containsText" dxfId="92" priority="34" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AF3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="35" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AF3)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="containsText" dxfId="89" priority="31" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AF11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="32" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AF11)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF2">
-    <cfRule type="containsText" dxfId="86" priority="28" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AF2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="29" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AF2)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="30" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AF12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="26" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AF12)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="containsText" dxfId="80" priority="22" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AF13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="23" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AF13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AF14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="20" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRESENT",AF14)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
-      <formula>PRESENT</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC14">
-    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="ABSENT">
-      <formula>NOT(ISERROR(SEARCH("ABSENT",AC14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="PRESENT">
-      <formula>NOT(ISERROR(SEARCH("PRE